--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\develop\app\project_Parfait\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2695606-2A90-4ECC-A153-125FF0FE49B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6514C293-D2F5-40A8-8CDA-D78BB90D6D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="180">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -5747,13 +5747,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3416300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8519,7 +8519,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -8784,9 +8784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="A9:B10"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -17660,11 +17660,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -17767,7 +17767,7 @@
         <v>eventDocId,</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" ref="N5:N41" si="1">B5&amp;": "&amp;B5&amp;","</f>
+        <f t="shared" ref="N5:N40" si="1">B5&amp;": "&amp;B5&amp;","</f>
         <v>eventDocId: eventDocId,</v>
       </c>
       <c r="O5" s="1" t="str">
@@ -17795,27 +17795,27 @@
         <v>'userDocId':,</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H21" si="2">"this."&amp;B6&amp;","</f>
+        <f t="shared" ref="H6:H20" si="2">"this."&amp;B6&amp;","</f>
         <v>this.userDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I21" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
+        <f t="shared" ref="I6:I20" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
         <v xml:space="preserve">  userDocId;</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J41" si="4">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <f t="shared" ref="J6:J40" si="4">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
         <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K41" si="5">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <f t="shared" ref="K6:K40" si="5">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
         <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L21" si="6">"tmpEvent."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <f t="shared" ref="L6:L20" si="6">"tmpEvent."&amp;B6&amp;"="&amp;B6&amp;";"</f>
         <v>tmpEvent.userDocId=userDocId;</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" ref="M6:M41" si="7">B6&amp;","</f>
+        <f t="shared" ref="M6:M40" si="7">B6&amp;","</f>
         <v>userDocId,</v>
       </c>
       <c r="N6" s="1" t="str">
@@ -17823,7 +17823,7 @@
         <v>userDocId: userDocId,</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f t="shared" ref="O6:O41" si="8">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
+        <f t="shared" ref="O6:O40" si="8">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
         <v xml:space="preserve"> userDocId,</v>
       </c>
       <c r="P6" s="1" t="str">
@@ -17849,7 +17849,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G21" si="9">"'"&amp;B7&amp;"':,"</f>
+        <f t="shared" ref="G7:G20" si="9">"'"&amp;B7&amp;"':,"</f>
         <v>'eventName':,</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -17885,7 +17885,7 @@
         <v>required String eventName,</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f t="shared" ref="P7:P41" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <f t="shared" ref="P7:P40" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
         <v>_userData['eventName'] =tmpUser!.eventName;</v>
       </c>
     </row>
@@ -18012,57 +18012,55 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'friendUserName':,</v>
+        <v>'callChannelId':,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.friendUserName,</v>
+        <v>this.callChannelId,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String friendUserName;</v>
+        <v xml:space="preserve"> String? callChannelId;</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['friendUserName'] = snapshot.docs[0].get('friendUserName');</v>
+        <v>_userData['callChannelId'] = snapshot.docs[0].get('callChannelId');</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>friendUserName: snapshot.docs[0].get('friendUserName'),</v>
+        <v>callChannelId: snapshot.docs[0].get('callChannelId'),</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.friendUserName=friendUserName;</v>
+        <v>tmpEvent.callChannelId=callChannelId;</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>friendUserName,</v>
+        <v>callChannelId,</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>friendUserName: friendUserName,</v>
+        <v>callChannelId: callChannelId,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String friendUserName,</v>
+        <v>String? callChannelId,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['friendUserName'] =tmpUser!.friendUserName;</v>
+        <v>_userData['callChannelId'] =tmpUser!.callChannelId;</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18070,10 +18068,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -18082,43 +18080,43 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'callChannelId':,</v>
+        <v>'fromTime':,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.callChannelId,</v>
+        <v>this.fromTime,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> String? callChannelId;</v>
+        <v xml:space="preserve"> DateTime? fromTime;</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['callChannelId'] = snapshot.docs[0].get('callChannelId');</v>
+        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>callChannelId: snapshot.docs[0].get('callChannelId'),</v>
+        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.callChannelId=callChannelId;</v>
+        <v>tmpEvent.fromTime=fromTime;</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>callChannelId,</v>
+        <v>fromTime,</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>callChannelId: callChannelId,</v>
+        <v>fromTime: fromTime,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>String? callChannelId,</v>
+        <v>DateTime? fromTime,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['callChannelId'] =tmpUser!.callChannelId;</v>
+        <v>_userData['fromTime'] =tmpUser!.fromTime;</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18126,7 +18124,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>77</v>
@@ -18138,43 +18136,43 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'fromTime':,</v>
+        <v>'toTime':,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.fromTime,</v>
+        <v>this.toTime,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> DateTime? fromTime;</v>
+        <v xml:space="preserve"> DateTime? toTime;</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+        <v>toTime: snapshot.docs[0].get('toTime'),</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.fromTime=fromTime;</v>
+        <v>tmpEvent.toTime=toTime;</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>fromTime,</v>
+        <v>toTime,</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>fromTime: fromTime,</v>
+        <v>toTime: toTime,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>DateTime? fromTime,</v>
+        <v>DateTime? toTime,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['fromTime'] =tmpUser!.fromTime;</v>
+        <v>_userData['toTime'] =tmpUser!.toTime;</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18182,55 +18180,57 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'toTime':,</v>
+        <v>'isAllDay':,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.toTime,</v>
+        <v>this.isAllDay,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> DateTime? toTime;</v>
+        <v>late bool isAllDay;</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+        <v>_userData['isAllDay'] = snapshot.docs[0].get('isAllDay');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+        <v>isAllDay: snapshot.docs[0].get('isAllDay'),</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.toTime=toTime;</v>
+        <v>tmpEvent.isAllDay=isAllDay;</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>toTime,</v>
+        <v>isAllDay,</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>toTime: toTime,</v>
+        <v>isAllDay: isAllDay,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>DateTime? toTime,</v>
+        <v>required bool isAllDay,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['toTime'] =tmpUser!.toTime;</v>
+        <v>_userData['isAllDay'] =tmpUser!.isAllDay;</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18238,10 +18238,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>73</v>
@@ -18252,43 +18252,43 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'isAllDay':,</v>
+        <v>'insertUserDocId':,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.isAllDay,</v>
+        <v>this.insertUserDocId,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late bool isAllDay;</v>
+        <v>late String insertUserDocId;</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['isAllDay'] = snapshot.docs[0].get('isAllDay');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>isAllDay: snapshot.docs[0].get('isAllDay'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.isAllDay=isAllDay;</v>
+        <v>tmpEvent.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>isAllDay,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>isAllDay: isAllDay,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required bool isAllDay,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['isAllDay'] =tmpUser!.isAllDay;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -18296,7 +18296,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>69</v>
@@ -18310,43 +18310,43 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertUserDocId':,</v>
+        <v>'insertProgramId':,</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertUserDocId,</v>
+        <v>this.insertProgramId,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String insertUserDocId;</v>
+        <v>late String insertProgramId;</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertUserDocId=insertUserDocId;</v>
+        <v>tmpEvent.insertProgramId=insertProgramId;</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertUserDocId,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String insertUserDocId,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18354,10 +18354,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>73</v>
@@ -18368,43 +18368,43 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertProgramId':,</v>
+        <v>'insertTime':,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertProgramId,</v>
+        <v>this.insertTime,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String insertProgramId;</v>
+        <v>late DateTime insertTime;</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertProgramId=insertProgramId;</v>
+        <v>tmpEvent.insertTime=insertTime;</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertProgramId,</v>
+        <v>insertTime,</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String insertProgramId,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18412,10 +18412,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>73</v>
@@ -18426,43 +18426,43 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertTime':,</v>
+        <v>'updateUserDocId':,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertTime,</v>
+        <v>this.updateUserDocId,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late DateTime insertTime;</v>
+        <v>late String updateUserDocId;</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertTime=insertTime;</v>
+        <v>tmpEvent.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertTime,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertTime: insertTime,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required DateTime insertTime,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -18470,7 +18470,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>69</v>
@@ -18484,43 +18484,43 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateUserDocId':,</v>
+        <v>'updateProgramId':,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateUserDocId,</v>
+        <v>this.updateProgramId,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String updateUserDocId;</v>
+        <v>late String updateProgramId;</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateUserDocId=updateUserDocId;</v>
+        <v>tmpEvent.updateProgramId=updateProgramId;</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateUserDocId,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String updateUserDocId,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -18528,10 +18528,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>73</v>
@@ -18542,43 +18542,43 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateProgramId':,</v>
+        <v>'updateTime':,</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateProgramId,</v>
+        <v>this.updateTime,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String updateProgramId;</v>
+        <v>late DateTime updateTime;</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateProgramId=updateProgramId;</v>
+        <v>tmpEvent.updateTime=updateTime;</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateProgramId,</v>
+        <v>updateTime,</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String updateProgramId,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -18586,10 +18586,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>73</v>
@@ -18600,43 +18600,43 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateTime':,</v>
+        <v>'readableFlg':,</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateTime,</v>
+        <v>this.readableFlg,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late DateTime updateTime;</v>
+        <v>late bool readableFlg;</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateTime=updateTime;</v>
+        <v>tmpEvent.readableFlg=readableFlg;</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateTime,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateTime: updateTime,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required DateTime updateTime,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -18644,7 +18644,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>36</v>
@@ -18656,91 +18656,73 @@
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'readableFlg':,</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.readableFlg,</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool readableFlg;</v>
-      </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.readableFlg=readableFlg;</v>
+        <f t="shared" ref="L21:L40" si="11">"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>readableFlg,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required bool readableFlg,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" ref="L22:L41" si="11">"tmpUser."&amp;B22&amp;"="&amp;B22&amp;";"</f>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>deleteFlg,</v>
+        <v>,</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required bool deleteFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -19474,34 +19456,6 @@
       <c r="F41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M41" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O41" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P41" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="13">
@@ -19531,28 +19485,16 @@
       <c r="A44" s="13">
         <v>39</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6514C293-D2F5-40A8-8CDA-D78BB90D6D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4C2C1-B9A5-496E-BF84-8FF81A0EBE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="184">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -845,22 +845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　※未修正</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DLしない</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,6 +852,50 @@
     <t>エンティティ一覧</t>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時対象</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自ユーザのデータのみ</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて？→Mastersに統一してしまうか？</t>
+    <rPh sb="13" eb="15">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて（ただしメモリに同期するのは、onMemoryFlgがTrueのデータのみ）</t>
+    <rPh sb="11" eb="13">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリに同期してメモリの値を使用する？</t>
+    <rPh sb="4" eb="6">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -915,13 +943,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -939,6 +960,16 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -966,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -989,11 +1020,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1003,12 +1043,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1057,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,8 +1108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1348,8 +1393,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1608,8 +1653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2078,8 +2123,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2371,8 +2416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3044,8 +3089,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3374,8 +3419,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4269,8 +4314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642051" y="5369380"/>
-          <a:ext cx="2006820" cy="2392134"/>
+          <a:off x="11631619" y="5269594"/>
+          <a:ext cx="1997749" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4767,8 +4812,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5197,8 +5242,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5514,8 +5559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5745,23 +5790,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3416300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3136900</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Callout: Bent Line 1">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7DC0BC-C542-4A6D-A3E4-EB1A9104F175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B4189-C431-43EF-95D9-8CDCCA1E83F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5769,34 +5814,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130800" y="2543175"/>
-          <a:ext cx="2495550" cy="1047750"/>
+          <a:off x="3556000" y="2813050"/>
+          <a:ext cx="7137400" cy="3263900"/>
         </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val -14773"/>
-            <a:gd name="adj6" fmla="val -120713"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5805,12 +5841,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>friendUserNam</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>は基本はメモリに持っていたり、他のデータに持っていたりするから必要なし？</a:t>
+            <a:t>ログイン時の処理を軽くするため下記の対応必要</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5818,8 +5850,145 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>使っている箇所を洗い出して検討</a:t>
+            <a:t>・</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>はメモリに保持し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Isar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へは非同期で書き込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・日付情報を更新するのは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Snapshot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の最後のデータを処理したとき（日付で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しているため）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・メモリと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Isar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>両方に保持しているデータの場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Isar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の処理は非同期であとから行う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→途中で終了したらまずいのでは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の更新処理を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Isar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の更新処理のあとに付ける？そうすると再リッスンもその後にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そもそも重いのは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の画像取得処理？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8517,10 +8686,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8531,14 +8700,19 @@
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.4140625" customWidth="1"/>
+    <col min="8" max="8" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
         <v>166</v>
       </c>
@@ -8557,8 +8731,15 @@
       <c r="G3" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -8575,8 +8756,15 @@
       <c r="G4" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="5" t="s">
         <v>117</v>
       </c>
@@ -8593,8 +8781,15 @@
       <c r="G5" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
@@ -8609,10 +8804,15 @@
         <v>175</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>177</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
         <v>147</v>
       </c>
@@ -8629,8 +8829,15 @@
       <c r="G7" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
@@ -8642,13 +8849,20 @@
         <v>170</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
@@ -8665,8 +8879,15 @@
       <c r="G9" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
         <v>171</v>
       </c>
@@ -8683,8 +8904,15 @@
       <c r="G10" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
         <v>169</v>
       </c>
@@ -8701,82 +8929,162 @@
       <c r="G11" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="5"/>
+      <c r="I12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="5"/>
+      <c r="I13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="5"/>
+      <c r="I14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="5"/>
+      <c r="I15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" s="5"/>
+      <c r="I16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" s="5"/>
+      <c r="I17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="5"/>
+      <c r="I18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="5"/>
+      <c r="I19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8784,9 +9092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -17664,7 +17972,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -19502,7 +19810,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4C2C1-B9A5-496E-BF84-8FF81A0EBE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567EF33-FB78-4431-9A21-27EAE2D207FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="183">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>occupation</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
   <si>
     <t>town</t>
@@ -361,10 +358,6 @@
   </si>
   <si>
     <t>String?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -897,6 +890,10 @@
     <rPh sb="14" eb="16">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profilePhotoSmall</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6278,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.5">
       <c r="A1" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6343,14 +6340,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6358,16 +6355,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>C5&amp;" "&amp;B5&amp;","</f>
@@ -6403,13 +6400,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -6458,17 +6455,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6512,17 +6509,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6566,17 +6563,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6620,15 +6617,15 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6672,15 +6669,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6724,15 +6721,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6776,15 +6773,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6828,15 +6825,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6880,15 +6877,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6932,15 +6929,15 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6984,15 +6981,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7036,17 +7033,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7090,17 +7087,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7144,17 +7141,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7198,17 +7195,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7252,15 +7249,15 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7304,15 +7301,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7356,15 +7353,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7408,15 +7405,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7460,15 +7457,15 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7508,15 +7505,15 @@
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7556,15 +7553,15 @@
         <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7604,15 +7601,15 @@
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7656,7 +7653,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7696,7 +7693,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7736,7 +7733,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7776,7 +7773,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7816,7 +7813,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7856,7 +7853,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7896,7 +7893,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7936,7 +7933,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="8" t="str">
         <f t="shared" si="7"/>
@@ -7976,7 +7973,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8016,7 +8013,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8056,7 +8053,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8096,7 +8093,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8136,7 +8133,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8176,7 +8173,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8216,7 +8213,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8256,7 +8253,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8296,7 +8293,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="8" t="str">
         <f t="shared" si="7"/>
@@ -8336,7 +8333,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -8348,7 +8345,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8360,24 +8357,24 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8405,51 +8402,51 @@
   <sheetData>
     <row r="7" spans="2:14" ht="18.5">
       <c r="B7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -8467,10 +8464,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>1</v>
@@ -8488,10 +8485,10 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -8509,10 +8506,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>1</v>
@@ -8526,16 +8523,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5" t="b">
         <v>1</v>
@@ -8553,10 +8550,10 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="b">
         <v>1</v>
@@ -8574,10 +8571,10 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
@@ -8595,10 +8592,10 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
@@ -8688,8 +8685,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8705,7 +8702,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8714,10 +8711,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
@@ -8726,16 +8723,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17"/>
     </row>
@@ -8745,195 +8742,195 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="17"/>
     </row>
@@ -8946,7 +8943,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="17"/>
     </row>
@@ -8959,7 +8956,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="17"/>
     </row>
@@ -8972,7 +8969,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="17"/>
     </row>
@@ -8985,7 +8982,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -8998,7 +8995,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -9011,7 +9008,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" s="17"/>
     </row>
@@ -9024,7 +9021,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -9037,7 +9034,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="17"/>
     </row>
@@ -9050,34 +9047,34 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="17"/>
     </row>
@@ -9092,9 +9089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -9142,14 +9139,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -9157,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
@@ -9201,7 +9198,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9250,12 +9247,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8" t="str">
         <f t="shared" ref="G7:G46" si="6">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
@@ -9295,15 +9292,15 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9346,12 +9343,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9394,12 +9391,12 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9439,15 +9436,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9487,15 +9484,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9535,15 +9532,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9583,15 +9580,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9631,15 +9628,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9679,15 +9676,15 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9727,15 +9724,15 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9775,15 +9772,15 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9823,15 +9820,15 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9871,17 +9868,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9921,15 +9918,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="6"/>
@@ -9969,15 +9966,15 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10017,15 +10014,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10065,15 +10062,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10113,15 +10110,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10161,15 +10158,15 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10209,17 +10206,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10259,15 +10256,15 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10307,15 +10304,15 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10355,17 +10352,17 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10405,15 +10402,15 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="6"/>
@@ -10421,31 +10418,31 @@
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['profilePhotoNameSuffix'] = snapshot.docs[0].get('profilePhotoNameSuffix');</v>
+        <v>_userData['profilePhoto'] = snapshot.docs[0].get('profilePhoto');</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>profilePhotoNameSuffix: snapshot.docs[0].get('profilePhotoNameSuffix'),</v>
+        <v>profilePhoto: snapshot.docs[0].get('profilePhoto'),</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.profilePhotoNameSuffix=profilePhotoNameSuffix;</v>
+        <v>tmpUser.profilePhoto=profilePhoto;</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>profilePhotoNameSuffix,</v>
+        <v>profilePhoto,</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>profilePhotoNameSuffix: profilePhotoNameSuffix,</v>
+        <v>profilePhoto: profilePhoto,</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? profilePhotoNameSuffix,</v>
+        <v>Uint8List? profilePhoto,</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['profilePhotoNameSuffix'] =tmpUser!.profilePhotoNameSuffix;</v>
+        <v>_userData['profilePhoto'] =tmpUser!.profilePhoto;</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -10453,47 +10450,47 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['profilePhotoNameSuffix']=snapshot.get('profilePhotoNameSuffix');</v>
+        <v>returnMap['profilePhoto']=snapshot.get('profilePhoto');</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['profilePhotoUpdateCnt'] = snapshot.docs[0].get('profilePhotoUpdateCnt');</v>
+        <v>_userData['profilePhotoSmall'] = snapshot.docs[0].get('profilePhotoSmall');</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>profilePhotoUpdateCnt: snapshot.docs[0].get('profilePhotoUpdateCnt'),</v>
+        <v>profilePhotoSmall: snapshot.docs[0].get('profilePhotoSmall'),</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.profilePhotoUpdateCnt=profilePhotoUpdateCnt;</v>
+        <v>tmpUser.profilePhotoSmall=profilePhotoSmall;</v>
       </c>
       <c r="K32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>profilePhotoUpdateCnt,</v>
+        <v>profilePhotoSmall,</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>profilePhotoUpdateCnt: profilePhotoUpdateCnt,</v>
+        <v>profilePhotoSmall: profilePhotoSmall,</v>
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>int? profilePhotoUpdateCnt,</v>
+        <v>Uint8List? profilePhotoSmall,</v>
       </c>
       <c r="N32" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['profilePhotoUpdateCnt'] =tmpUser!.profilePhotoUpdateCnt;</v>
+        <v>_userData['profilePhotoSmall'] =tmpUser!.profilePhotoSmall;</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -10501,47 +10498,47 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['profilePhotoUpdateCnt']=snapshot.get('profilePhotoUpdateCnt');</v>
+        <v>returnMap['profilePhotoSmall']=snapshot.get('profilePhotoSmall');</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['messageTokenId'] = snapshot.docs[0].get('messageTokenId');</v>
+        <v>_userData['profilePhotoNameSuffix'] = snapshot.docs[0].get('profilePhotoNameSuffix');</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>messageTokenId: snapshot.docs[0].get('messageTokenId'),</v>
+        <v>profilePhotoNameSuffix: snapshot.docs[0].get('profilePhotoNameSuffix'),</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.messageTokenId=messageTokenId;</v>
+        <v>tmpUser.profilePhotoNameSuffix=profilePhotoNameSuffix;</v>
       </c>
       <c r="K33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>messageTokenId,</v>
+        <v>profilePhotoNameSuffix,</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>messageTokenId: messageTokenId,</v>
+        <v>profilePhotoNameSuffix: profilePhotoNameSuffix,</v>
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? messageTokenId,</v>
+        <v>String? profilePhotoNameSuffix,</v>
       </c>
       <c r="N33" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['messageTokenId'] =tmpUser!.messageTokenId;</v>
+        <v>_userData['profilePhotoNameSuffix'] =tmpUser!.profilePhotoNameSuffix;</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -10549,49 +10546,47 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['messageTokenId']=snapshot.get('messageTokenId');</v>
+        <v>returnMap['profilePhotoNameSuffix']=snapshot.get('profilePhotoNameSuffix');</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['onlineStatus'] = snapshot.docs[0].get('onlineStatus');</v>
+        <v>_userData['profilePhotoUpdateCnt'] = snapshot.docs[0].get('profilePhotoUpdateCnt');</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>onlineStatus: snapshot.docs[0].get('onlineStatus'),</v>
+        <v>profilePhotoUpdateCnt: snapshot.docs[0].get('profilePhotoUpdateCnt'),</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.onlineStatus=onlineStatus;</v>
+        <v>tmpUser.profilePhotoUpdateCnt=profilePhotoUpdateCnt;</v>
       </c>
       <c r="K34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>onlineStatus,</v>
+        <v>profilePhotoUpdateCnt,</v>
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>onlineStatus: onlineStatus,</v>
+        <v>profilePhotoUpdateCnt: profilePhotoUpdateCnt,</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>bool? onlineStatus,</v>
+        <v>int? profilePhotoUpdateCnt,</v>
       </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['onlineStatus'] =tmpUser!.onlineStatus;</v>
+        <v>_userData['profilePhotoUpdateCnt'] =tmpUser!.profilePhotoUpdateCnt;</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -10599,49 +10594,47 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['onlineStatus']=snapshot.get('onlineStatus');</v>
+        <v>returnMap['profilePhotoUpdateCnt']=snapshot.get('profilePhotoUpdateCnt');</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['lastLoginTime'] = snapshot.docs[0].get('lastLoginTime');</v>
+        <v>_userData['messageTokenId'] = snapshot.docs[0].get('messageTokenId');</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lastLoginTime: snapshot.docs[0].get('lastLoginTime'),</v>
+        <v>messageTokenId: snapshot.docs[0].get('messageTokenId'),</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.lastLoginTime=lastLoginTime;</v>
+        <v>tmpUser.messageTokenId=messageTokenId;</v>
       </c>
       <c r="K35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lastLoginTime,</v>
+        <v>messageTokenId,</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lastLoginTime: lastLoginTime,</v>
+        <v>messageTokenId: messageTokenId,</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DateTime? lastLoginTime,</v>
+        <v>String? messageTokenId,</v>
       </c>
       <c r="N35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['lastLoginTime'] =tmpUser!.lastLoginTime;</v>
+        <v>_userData['messageTokenId'] =tmpUser!.messageTokenId;</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -10649,47 +10642,49 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['lastLoginTime']=snapshot.get('lastLoginTime');</v>
+        <v>returnMap['messageTokenId']=snapshot.get('messageTokenId');</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['informationModifiedTime'] = snapshot.docs[0].get('informationModifiedTime');</v>
+        <v>_userData['onlineStatus'] = snapshot.docs[0].get('onlineStatus');</v>
       </c>
       <c r="I36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>informationModifiedTime: snapshot.docs[0].get('informationModifiedTime'),</v>
+        <v>onlineStatus: snapshot.docs[0].get('onlineStatus'),</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.informationModifiedTime=informationModifiedTime;</v>
+        <v>tmpUser.onlineStatus=onlineStatus;</v>
       </c>
       <c r="K36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>informationModifiedTime,</v>
+        <v>onlineStatus,</v>
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>informationModifiedTime: informationModifiedTime,</v>
+        <v>onlineStatus: onlineStatus,</v>
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DateTime? informationModifiedTime,</v>
+        <v>bool? onlineStatus,</v>
       </c>
       <c r="N36" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['informationModifiedTime'] =tmpUser!.informationModifiedTime;</v>
+        <v>_userData['onlineStatus'] =tmpUser!.onlineStatus;</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -10697,47 +10692,49 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['informationModifiedTime']=snapshot.get('informationModifiedTime');</v>
+        <v>returnMap['onlineStatus']=snapshot.get('onlineStatus');</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['interestingCategories'] = snapshot.docs[0].get('interestingCategories');</v>
+        <v>_userData['lastLoginTime'] = snapshot.docs[0].get('lastLoginTime');</v>
       </c>
       <c r="I37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>interestingCategories: snapshot.docs[0].get('interestingCategories'),</v>
+        <v>lastLoginTime: snapshot.docs[0].get('lastLoginTime'),</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.interestingCategories=interestingCategories;</v>
+        <v>tmpUser.lastLoginTime=lastLoginTime;</v>
       </c>
       <c r="K37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>interestingCategories,</v>
+        <v>lastLoginTime,</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>interestingCategories: interestingCategories,</v>
+        <v>lastLoginTime: lastLoginTime,</v>
       </c>
       <c r="M37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? interestingCategories,</v>
+        <v>DateTime? lastLoginTime,</v>
       </c>
       <c r="N37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['interestingCategories'] =tmpUser!.interestingCategories;</v>
+        <v>_userData['lastLoginTime'] =tmpUser!.lastLoginTime;</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -10745,47 +10742,47 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['interestingCategories']=snapshot.get('interestingCategories');</v>
+        <v>returnMap['lastLoginTime']=snapshot.get('lastLoginTime');</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['interestingCourses'] = snapshot.docs[0].get('interestingCourses');</v>
+        <v>_userData['informationModifiedTime'] = snapshot.docs[0].get('informationModifiedTime');</v>
       </c>
       <c r="I38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>interestingCourses: snapshot.docs[0].get('interestingCourses'),</v>
+        <v>informationModifiedTime: snapshot.docs[0].get('informationModifiedTime'),</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.interestingCourses=interestingCourses;</v>
+        <v>tmpUser.informationModifiedTime=informationModifiedTime;</v>
       </c>
       <c r="K38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>interestingCourses,</v>
+        <v>informationModifiedTime,</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>interestingCourses: interestingCourses,</v>
+        <v>informationModifiedTime: informationModifiedTime,</v>
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? interestingCourses,</v>
+        <v>DateTime? informationModifiedTime,</v>
       </c>
       <c r="N38" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['interestingCourses'] =tmpUser!.interestingCourses;</v>
+        <v>_userData['informationModifiedTime'] =tmpUser!.informationModifiedTime;</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -10793,47 +10790,47 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['interestingCourses']=snapshot.get('interestingCourses');</v>
+        <v>returnMap['informationModifiedTime']=snapshot.get('informationModifiedTime');</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['interestingCategories'] = snapshot.docs[0].get('interestingCategories');</v>
       </c>
       <c r="I39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>interestingCategories: snapshot.docs[0].get('interestingCategories'),</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.interestingCategories=interestingCategories;</v>
       </c>
       <c r="K39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insertUserDocId,</v>
+        <v>interestingCategories,</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>interestingCategories: interestingCategories,</v>
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? insertUserDocId,</v>
+        <v>String? interestingCategories,</v>
       </c>
       <c r="N39" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['interestingCategories'] =tmpUser!.interestingCategories;</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -10841,47 +10838,47 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['interestingCategories']=snapshot.get('interestingCategories');</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['interestingCourses'] = snapshot.docs[0].get('interestingCourses');</v>
       </c>
       <c r="I40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>interestingCourses: snapshot.docs[0].get('interestingCourses'),</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.interestingCourses=interestingCourses;</v>
       </c>
       <c r="K40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insertProgramId,</v>
+        <v>interestingCourses,</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>interestingCourses: interestingCourses,</v>
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? insertProgramId,</v>
+        <v>String? interestingCourses,</v>
       </c>
       <c r="N40" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['interestingCourses'] =tmpUser!.interestingCourses;</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -10889,47 +10886,47 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['interestingCourses']=snapshot.get('interestingCourses');</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="I41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="K41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insertTime,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DateTime? insertTime,</v>
+        <v>String? insertUserDocId,</v>
       </c>
       <c r="N41" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -10937,47 +10934,47 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="K42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>updateUserDocId,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? updateUserDocId,</v>
+        <v>String? insertProgramId,</v>
       </c>
       <c r="N42" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -10985,47 +10982,47 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="I43" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="K43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>updateProgramId,</v>
+        <v>insertTime,</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>String? updateProgramId,</v>
+        <v>DateTime? insertTime,</v>
       </c>
       <c r="N43" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -11033,47 +11030,47 @@
         <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="K44" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>updateTime,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>DateTime? updateTime,</v>
+        <v>String? updateUserDocId,</v>
       </c>
       <c r="N44" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -11081,47 +11078,47 @@
         <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="K45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>readableFlg,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>bool? readableFlg,</v>
+        <v>String? updateProgramId,</v>
       </c>
       <c r="N45" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -11129,71 +11126,79 @@
         <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" ref="H46" si="15">"_userData['"&amp;B46&amp;"'] = snapshot.docs[0].get('"&amp;B46&amp;"');"</f>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" ref="I46" si="16">B46&amp;": snapshot.docs[0].get('"&amp;B46&amp;"'),"</f>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" ref="J46" si="17">"tmpUser."&amp;B46&amp;"="&amp;B46&amp;";"</f>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="K46" s="1" t="str">
         <f t="shared" ref="K46" si="18">B46&amp;","</f>
-        <v>deleteFlg,</v>
+        <v>updateTime,</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" ref="M46" si="19">IF(D46="late","required ","")&amp;C46&amp;" "&amp;B46&amp;","</f>
-        <v>bool? deleteFlg,</v>
+        <v>DateTime? updateTime,</v>
       </c>
       <c r="N46" s="1" t="str">
         <f t="shared" ref="N46" si="20">"_userData['"&amp;B46&amp;"'] =tmpUser!."&amp;B46&amp;";"</f>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4">
         <v>42</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4">
         <v>43</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -11205,24 +11210,24 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -11238,7 +11243,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -11279,7 +11284,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11290,14 +11295,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11305,16 +11310,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;B5&amp;"':,"</f>
@@ -11358,13 +11363,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -11421,17 +11426,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11483,17 +11488,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11545,17 +11550,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11607,17 +11612,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11669,17 +11674,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11731,15 +11736,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11791,17 +11796,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11853,17 +11858,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11915,17 +11920,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11973,17 +11978,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12031,17 +12036,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12089,17 +12094,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12147,17 +12152,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12205,17 +12210,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12263,17 +12268,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12321,17 +12326,17 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12379,17 +12384,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12425,17 +12430,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12479,7 +12484,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12523,7 +12528,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12567,7 +12572,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12611,7 +12616,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12655,7 +12660,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12699,7 +12704,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12743,7 +12748,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12787,7 +12792,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12831,7 +12836,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12875,7 +12880,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12919,7 +12924,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="8" t="str">
         <f t="shared" si="9"/>
@@ -12963,7 +12968,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13007,7 +13012,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13051,7 +13056,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13095,7 +13100,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J39" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13139,7 +13144,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J40" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13183,7 +13188,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13227,7 +13232,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J42" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13271,7 +13276,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13315,7 +13320,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13359,7 +13364,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J45" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13403,7 +13408,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" s="8" t="str">
         <f t="shared" si="9"/>
@@ -13447,7 +13452,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -13459,7 +13464,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -13471,24 +13476,24 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -13545,7 +13550,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13556,14 +13561,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -13571,16 +13576,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;B5&amp;"':,"</f>
@@ -13624,13 +13629,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -13687,17 +13692,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -13749,17 +13754,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -13811,17 +13816,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -13873,17 +13878,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -13935,17 +13940,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -13997,17 +14002,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -14059,17 +14064,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -14125,7 +14130,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -14181,7 +14186,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14233,7 +14238,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14285,7 +14290,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14337,7 +14342,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14389,7 +14394,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14441,7 +14446,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14493,7 +14498,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14545,7 +14550,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -14597,7 +14602,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14637,7 +14642,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14681,7 +14686,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14725,7 +14730,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14769,7 +14774,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14813,7 +14818,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14857,7 +14862,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14901,7 +14906,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14945,7 +14950,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8" t="str">
         <f t="shared" si="9"/>
@@ -14989,7 +14994,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15033,7 +15038,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15077,7 +15082,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15121,7 +15126,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15165,7 +15170,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15209,7 +15214,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15253,7 +15258,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15297,7 +15302,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J39" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15341,7 +15346,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J40" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15385,7 +15390,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15429,7 +15434,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J42" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15473,7 +15478,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15517,7 +15522,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15561,7 +15566,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J45" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15605,7 +15610,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" s="8" t="str">
         <f t="shared" si="9"/>
@@ -15649,7 +15654,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -15661,7 +15666,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15673,24 +15678,24 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -15747,7 +15752,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -15758,14 +15763,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -15773,16 +15778,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"this."&amp;B5&amp;","</f>
@@ -15826,13 +15831,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -15889,17 +15894,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15951,17 +15956,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>"this."&amp;B9&amp;","</f>
@@ -16013,17 +16018,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>"this."&amp;B8&amp;","</f>
@@ -16075,19 +16080,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" ref="G10:G19" si="11">"this."&amp;B10&amp;","</f>
@@ -16139,17 +16144,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16201,17 +16206,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16263,17 +16268,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16325,17 +16330,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16387,17 +16392,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16449,17 +16454,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16511,17 +16516,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16573,17 +16578,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16635,17 +16640,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="11"/>
@@ -16697,17 +16702,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16751,17 +16756,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16805,17 +16810,17 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16863,7 +16868,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="21"/>
@@ -16903,7 +16908,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="21"/>
@@ -16947,7 +16952,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="21"/>
@@ -16991,7 +16996,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17035,7 +17040,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17079,7 +17084,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17123,7 +17128,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17167,7 +17172,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17211,7 +17216,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17255,7 +17260,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17299,7 +17304,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17343,7 +17348,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17387,7 +17392,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17431,7 +17436,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17475,7 +17480,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17519,7 +17524,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17563,7 +17568,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J39" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17607,7 +17612,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J40" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17651,7 +17656,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17695,7 +17700,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J42" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17739,7 +17744,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17783,7 +17788,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17827,7 +17832,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J45" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17871,7 +17876,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" s="8" t="str">
         <f t="shared" si="21"/>
@@ -17915,7 +17920,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -17927,7 +17932,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17939,24 +17944,24 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -18009,7 +18014,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18020,14 +18025,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -18035,16 +18040,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" ref="G5" si="0">"'"&amp;B5&amp;"':,"</f>
@@ -18088,15 +18093,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>"'"&amp;B6&amp;"':,"</f>
@@ -18144,17 +18149,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" ref="G7:G20" si="9">"'"&amp;B7&amp;"':,"</f>
@@ -18202,19 +18207,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18262,17 +18267,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18320,15 +18325,15 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18376,15 +18381,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18432,15 +18437,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18488,17 +18493,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18546,17 +18551,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18604,17 +18609,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18662,17 +18667,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18720,17 +18725,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18778,17 +18783,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18836,17 +18841,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18894,17 +18899,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="9"/>
@@ -18952,17 +18957,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19002,7 +19007,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19042,7 +19047,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19082,7 +19087,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19122,7 +19127,7 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19162,7 +19167,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19202,7 +19207,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19242,7 +19247,7 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19282,7 +19287,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19322,7 +19327,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19362,7 +19367,7 @@
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19402,7 +19407,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19442,7 +19447,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19482,7 +19487,7 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19522,7 +19527,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19562,7 +19567,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19602,7 +19607,7 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19642,7 +19647,7 @@
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19682,7 +19687,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19722,7 +19727,7 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="4"/>
@@ -19762,7 +19767,7 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -19774,7 +19779,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -19786,7 +19791,7 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -19794,16 +19799,16 @@
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -19855,7 +19860,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -19866,14 +19871,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -19881,16 +19886,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>B5&amp;","</f>
@@ -19926,17 +19931,17 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" ref="G6:G19" si="1">B6&amp;","</f>
@@ -19976,17 +19981,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20026,17 +20031,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20076,17 +20081,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20126,17 +20131,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20176,17 +20181,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20226,17 +20231,17 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20276,17 +20281,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20326,17 +20331,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20376,17 +20381,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20426,17 +20431,17 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20476,17 +20481,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20526,17 +20531,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20576,17 +20581,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -20630,7 +20635,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20670,7 +20675,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20710,7 +20715,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20750,7 +20755,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20790,7 +20795,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20830,7 +20835,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20870,7 +20875,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20910,7 +20915,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20950,7 +20955,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -20990,7 +20995,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21030,7 +21035,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21070,7 +21075,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21110,7 +21115,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21150,7 +21155,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21190,7 +21195,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21230,7 +21235,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21270,7 +21275,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21310,7 +21315,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21350,7 +21355,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21390,7 +21395,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21430,7 +21435,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21470,7 +21475,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="2"/>
@@ -21510,7 +21515,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -21522,7 +21527,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -21534,24 +21539,24 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -21582,40 +21587,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -21623,16 +21628,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -21648,17 +21653,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -21672,14 +21677,14 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -21693,14 +21698,14 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -21714,14 +21719,14 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -21735,14 +21740,14 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -21756,14 +21761,14 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567EF33-FB78-4431-9A21-27EAE2D207FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A15427-8D50-4AA0-B0F7-7D5912DC596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5250544"/>
-          <a:ext cx="1512432" cy="2085522"/>
+          <a:off x="420689" y="5350330"/>
+          <a:ext cx="1516968" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1390,8 +1390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11069639" y="1357087"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="11083246" y="1379765"/>
+          <a:ext cx="1361394" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1650,8 +1650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7595839" y="1268187"/>
-          <a:ext cx="2383653" cy="2088696"/>
+          <a:off x="7608086" y="1294040"/>
+          <a:ext cx="2383652" cy="2126343"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2120,8 +2120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="2628901"/>
-          <a:ext cx="2415494" cy="2088696"/>
+          <a:off x="484188" y="2681969"/>
+          <a:ext cx="2427741" cy="2126343"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2413,8 +2413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="314325"/>
-          <a:ext cx="1631589" cy="1553481"/>
+          <a:off x="487363" y="311150"/>
+          <a:ext cx="1629775" cy="1588406"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3086,8 +3086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180796" y="5199744"/>
-          <a:ext cx="1850879" cy="2091872"/>
+          <a:off x="4189868" y="5302705"/>
+          <a:ext cx="1854054" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3416,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7288836" y="5250544"/>
-          <a:ext cx="3036719" cy="3174999"/>
+          <a:off x="7301083" y="5350330"/>
+          <a:ext cx="3030368" cy="3238499"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4311,8 +4311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11631619" y="5269594"/>
-          <a:ext cx="1997749" cy="2342242"/>
+          <a:off x="11642051" y="5369380"/>
+          <a:ext cx="2006820" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4809,8 +4809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14983613" y="401946"/>
-          <a:ext cx="2113924" cy="2091871"/>
+          <a:off x="15010828" y="409657"/>
+          <a:ext cx="2122995" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5239,8 +5239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14631567" y="5269594"/>
-          <a:ext cx="2005998" cy="2342242"/>
+          <a:off x="14655607" y="5369380"/>
+          <a:ext cx="2016883" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5556,8 +5556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152071" y="8726714"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="1156607" y="8899071"/>
+          <a:ext cx="1360033" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5788,15 +5788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3136900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>2492375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5811,8 +5811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556000" y="2813050"/>
-          <a:ext cx="7137400" cy="3263900"/>
+          <a:off x="2917825" y="2514600"/>
+          <a:ext cx="7131050" cy="3902075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5984,6 +5984,86 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>の画像取得処理？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全体的に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Isar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の更新処理は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Dlete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>になっているが、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時に処理が中断したらどうなる？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を先にすると、データがダブってしまう可能性あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Transaction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>機能を探すか、もとの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Update</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理に戻す？？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -8685,8 +8765,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9089,7 +9169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -21571,7 +21651,7 @@
   <dimension ref="A5:M32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A15427-8D50-4AA0-B0F7-7D5912DC596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD3D3C-9BA2-4A97-BA09-BE91AB9F1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,8 +1105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1390,8 +1390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1650,8 +1650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2120,8 +2120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2413,8 +2413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3086,8 +3086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3416,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4311,8 +4311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642051" y="5369380"/>
-          <a:ext cx="2006820" cy="2392134"/>
+          <a:off x="11631619" y="5269594"/>
+          <a:ext cx="1997749" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4809,8 +4809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5239,8 +5239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5556,8 +5556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5835,62 +5835,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン時の処理を軽くするため下記の対応必要</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Setting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>はメモリに保持し、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Isar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>へは非同期で書き込み</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・日付情報を更新するのは、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Snapshot</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の最後のデータを処理したとき（日付で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Order</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>しているため）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -8765,8 +8709,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -21651,7 +21595,7 @@
   <dimension ref="A5:M32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD3D3C-9BA2-4A97-BA09-BE91AB9F1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8820C3C4-5413-4762-BC2A-A7F5E0479D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -316,10 +316,6 @@
   </si>
   <si>
     <t>friendsUpdateCheck</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chatMessagesUpdateCheck</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -896,6 +892,10 @@
     <t>profilePhotoSmall</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>chatDetailsUpdateCheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1105,8 +1105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5250544"/>
-          <a:ext cx="1512432" cy="2085522"/>
+          <a:off x="420689" y="5350330"/>
+          <a:ext cx="1516968" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1390,8 +1390,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11069639" y="1357087"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="11083246" y="1379765"/>
+          <a:ext cx="1361394" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1650,8 +1650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7595839" y="1268187"/>
-          <a:ext cx="2383653" cy="2088696"/>
+          <a:off x="7608086" y="1294040"/>
+          <a:ext cx="2383652" cy="2126343"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2120,8 +2120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="2628901"/>
-          <a:ext cx="2415494" cy="2088696"/>
+          <a:off x="484188" y="2681969"/>
+          <a:ext cx="2427741" cy="2126343"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2413,8 +2413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="314325"/>
-          <a:ext cx="1631589" cy="1553481"/>
+          <a:off x="487363" y="311150"/>
+          <a:ext cx="1629775" cy="1588406"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3086,8 +3086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180796" y="5199744"/>
-          <a:ext cx="1850879" cy="2091872"/>
+          <a:off x="4189868" y="5302705"/>
+          <a:ext cx="1854054" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3416,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7288836" y="5250544"/>
-          <a:ext cx="3036719" cy="3174999"/>
+          <a:off x="7301083" y="5350330"/>
+          <a:ext cx="3030368" cy="3238499"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4311,8 +4311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11631619" y="5269594"/>
-          <a:ext cx="1997749" cy="2342242"/>
+          <a:off x="11642051" y="5369380"/>
+          <a:ext cx="2006820" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4809,8 +4809,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14983613" y="401946"/>
-          <a:ext cx="2113924" cy="2091871"/>
+          <a:off x="15010828" y="409657"/>
+          <a:ext cx="2122995" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5239,8 +5239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14631567" y="5269594"/>
-          <a:ext cx="2005998" cy="2342242"/>
+          <a:off x="14655607" y="5369380"/>
+          <a:ext cx="2016883" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5556,8 +5556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152071" y="8726714"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="1156607" y="8899071"/>
+          <a:ext cx="1360033" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -6299,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.5">
       <c r="A1" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -6379,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>C5&amp;" "&amp;B5&amp;","</f>
@@ -6424,13 +6424,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -6479,13 +6479,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
@@ -6533,13 +6533,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
@@ -6587,13 +6587,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
@@ -6641,10 +6641,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6693,10 +6693,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
@@ -6797,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>43</v>
@@ -6849,7 +6849,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>42</v>
@@ -6901,7 +6901,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>42</v>
@@ -6953,10 +6953,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7005,10 +7005,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7057,14 +7057,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>32</v>
@@ -7111,14 +7111,14 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>32</v>
@@ -7165,13 +7165,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
@@ -7219,13 +7219,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
@@ -7380,7 +7380,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -7532,7 +7532,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -7580,7 +7580,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -7628,7 +7628,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -8426,51 +8426,51 @@
   <sheetData>
     <row r="7" spans="2:14" ht="18.5">
       <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>1</v>
@@ -8509,10 +8509,10 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -8530,10 +8530,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>1</v>
@@ -8547,16 +8547,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="5" t="b">
         <v>1</v>
@@ -8595,10 +8595,10 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
@@ -8616,10 +8616,10 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
@@ -8709,7 +8709,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -8726,7 +8726,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8735,7 +8735,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>56</v>
@@ -8747,13 +8747,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>32</v>
@@ -8766,19 +8766,19 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>32</v>
@@ -8787,23 +8787,23 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>32</v>
@@ -8812,20 +8812,20 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="18" t="s">
@@ -8835,23 +8835,23 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>32</v>
@@ -8860,23 +8860,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>32</v>
@@ -8889,19 +8889,19 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>32</v>
@@ -8910,23 +8910,23 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>32</v>
@@ -8935,23 +8935,23 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>32</v>
@@ -9163,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
@@ -9222,7 +9222,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9271,7 +9271,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -9316,10 +9316,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -9367,7 +9367,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -9415,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -9463,7 +9463,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -9508,10 +9508,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -9559,7 +9559,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9607,7 +9607,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -9655,7 +9655,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -9703,7 +9703,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -9751,7 +9751,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -9799,7 +9799,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -9847,7 +9847,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -9895,7 +9895,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -9945,7 +9945,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -9993,7 +9993,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -10038,10 +10038,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -10089,7 +10089,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -10137,7 +10137,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -10182,7 +10182,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
@@ -10230,14 +10230,14 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
@@ -10280,7 +10280,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -10328,7 +10328,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -10376,14 +10376,14 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
@@ -10426,10 +10426,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -10474,10 +10474,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -10669,11 +10669,11 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>32</v>
@@ -10719,11 +10719,11 @@
         <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
@@ -10766,10 +10766,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -10862,7 +10862,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>42</v>
@@ -11009,7 +11009,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -11153,7 +11153,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -11201,7 +11201,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -11217,7 +11217,7 @@
         <v>33</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11319,7 +11319,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -11334,16 +11334,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;B5&amp;"':,"</f>
@@ -11387,13 +11387,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -11450,13 +11450,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
@@ -11512,13 +11512,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
@@ -11574,13 +11574,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
@@ -11636,13 +11636,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
@@ -11698,13 +11698,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -11760,10 +11760,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -11820,13 +11820,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
@@ -11882,13 +11882,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -11944,13 +11944,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -12002,13 +12002,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -12063,10 +12063,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -12121,10 +12121,10 @@
         <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
@@ -12179,10 +12179,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
@@ -12237,10 +12237,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
@@ -12295,10 +12295,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
@@ -12353,10 +12353,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
@@ -12414,7 +12414,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
@@ -12460,7 +12460,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
@@ -13574,7 +13574,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13585,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -13600,16 +13600,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;B5&amp;"':,"</f>
@@ -13656,10 +13656,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -13719,10 +13719,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
@@ -13781,10 +13781,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
@@ -13843,10 +13843,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
@@ -13905,10 +13905,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
@@ -13967,10 +13967,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -14032,7 +14032,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
@@ -14094,7 +14094,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
@@ -15776,7 +15776,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -15787,7 +15787,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -15802,16 +15802,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>"this."&amp;B5&amp;","</f>
@@ -15855,13 +15855,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="str">
@@ -15918,13 +15918,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
@@ -15980,13 +15980,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
@@ -16042,13 +16042,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
@@ -16104,16 +16104,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -16168,13 +16168,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -16230,13 +16230,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
@@ -16292,13 +16292,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
@@ -16354,13 +16354,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -16419,10 +16419,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -16481,10 +16481,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -16543,10 +16543,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -16605,10 +16605,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
@@ -16667,10 +16667,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
@@ -16729,10 +16729,10 @@
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
@@ -16786,7 +16786,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
@@ -16840,7 +16840,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
@@ -18038,7 +18038,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18049,7 +18049,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -18064,16 +18064,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" ref="G5" si="0">"'"&amp;B5&amp;"':,"</f>
@@ -18117,12 +18117,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
@@ -18173,13 +18173,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="1" t="s">
@@ -18231,16 +18231,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
@@ -18291,13 +18291,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="1" t="s">
@@ -18349,7 +18349,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>42</v>
@@ -18408,7 +18408,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -18464,7 +18464,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -18517,13 +18517,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
@@ -18575,13 +18575,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
@@ -18633,13 +18633,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
@@ -18691,13 +18691,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
@@ -18749,13 +18749,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
@@ -18807,13 +18807,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
@@ -18865,13 +18865,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="1" t="s">
@@ -18923,13 +18923,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="1" t="s">
@@ -18987,7 +18987,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="1" t="s">
@@ -19895,7 +19895,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -19910,16 +19910,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>B5&amp;","</f>
@@ -19955,13 +19955,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
@@ -20005,13 +20005,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
@@ -20055,13 +20055,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
@@ -20105,13 +20105,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
@@ -20155,13 +20155,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
@@ -20205,13 +20205,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
@@ -20255,13 +20255,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
@@ -20305,13 +20305,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
@@ -20355,13 +20355,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
@@ -20405,13 +20405,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -20455,13 +20455,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
@@ -20505,13 +20505,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
@@ -20555,13 +20555,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
@@ -20611,7 +20611,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
@@ -21594,7 +21594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -21641,7 +21641,7 @@
         <v>54</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>55</v>
@@ -21658,10 +21658,10 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -21764,7 +21764,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8820C3C4-5413-4762-BC2A-A7F5E0479D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D3B6F-F7AB-453F-994C-D2BB041947AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="192">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -484,44 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:空き時間,2:候補日(自分から登録),3:候補日(相手から登録)
-4:アポ(自分から登録)、5:アポ(相手から登録)</t>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>searchConditionMotherTongue</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -896,6 +858,86 @@
     <t>chatDetailsUpdateCheck</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tuesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wednesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thursday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>friday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saturday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sunday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recurrenceRule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:空き時間Maybe,2:空き時間,3:候補日(自分から登録),4:候補日(相手から登録)
+5:アポ(自分から登録)、6:アポ(相手から登録)</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1105,8 +1147,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1390,8 +1432,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1650,8 +1692,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2120,8 +2162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2413,8 +2455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3086,8 +3128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3416,8 +3458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4311,8 +4353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642051" y="5369380"/>
-          <a:ext cx="2006820" cy="2392134"/>
+          <a:off x="11631619" y="5269594"/>
+          <a:ext cx="1997749" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4809,8 +4851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5239,8 +5281,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5556,8 +5598,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -6299,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.5">
       <c r="A1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6353,7 +6395,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6379,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -6424,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -6479,7 +6521,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -6533,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -6587,7 +6629,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
@@ -6641,7 +6683,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>74</v>
@@ -6693,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>74</v>
@@ -6745,7 +6787,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
@@ -6797,7 +6839,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>43</v>
@@ -6849,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>42</v>
@@ -6901,7 +6943,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>42</v>
@@ -6953,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>73</v>
@@ -7005,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>73</v>
@@ -7057,10 +7099,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -7111,10 +7153,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -7165,7 +7207,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>67</v>
@@ -7219,7 +7261,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>67</v>
@@ -8412,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8426,51 +8468,51 @@
   <sheetData>
     <row r="7" spans="2:14" ht="18.5">
       <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -8488,10 +8530,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>1</v>
@@ -8509,10 +8551,10 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -8530,10 +8572,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>1</v>
@@ -8547,16 +8589,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="5" t="b">
         <v>1</v>
@@ -8595,10 +8637,10 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
@@ -8616,10 +8658,10 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
@@ -8636,9 +8678,15 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -8726,7 +8774,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8735,7 +8783,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>56</v>
@@ -8747,13 +8795,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>32</v>
@@ -8766,19 +8814,19 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>32</v>
@@ -8787,23 +8835,23 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>32</v>
@@ -8812,20 +8860,20 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="18" t="s">
@@ -8835,23 +8883,23 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>32</v>
@@ -8864,19 +8912,19 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>32</v>
@@ -8889,19 +8937,19 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>32</v>
@@ -8910,23 +8958,23 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>32</v>
@@ -8935,23 +8983,23 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>32</v>
@@ -9316,7 +9364,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>74</v>
@@ -9508,7 +9556,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>72</v>
@@ -10038,7 +10086,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>72</v>
@@ -10182,7 +10230,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
@@ -10230,14 +10278,14 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
@@ -10280,7 +10328,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>42</v>
@@ -10328,7 +10376,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>42</v>
@@ -10376,14 +10424,14 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
@@ -10426,10 +10474,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -10474,10 +10522,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -11308,7 +11356,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11334,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -11574,7 +11622,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -11636,7 +11684,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -11698,7 +11746,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -11760,10 +11808,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -11820,7 +11868,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>41</v>
@@ -11882,7 +11930,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -11944,7 +11992,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
@@ -12002,7 +12050,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>67</v>
@@ -13574,7 +13622,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13600,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -15776,7 +15824,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -15802,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -15855,7 +15903,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -15918,7 +15966,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -15980,7 +16028,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -16104,7 +16152,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -16113,7 +16161,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -16168,7 +16216,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -16230,7 +16278,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -16292,7 +16340,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -16354,7 +16402,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
@@ -18001,7 +18049,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -18132,11 +18180,11 @@
         <v>'userDocId':,</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H20" si="2">"this."&amp;B6&amp;","</f>
+        <f t="shared" ref="H6:H22" si="2">"this."&amp;B6&amp;","</f>
         <v>this.userDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I20" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
+        <f t="shared" ref="I6:I22" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
         <v xml:space="preserve">  userDocId;</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -18186,7 +18234,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G20" si="9">"'"&amp;B7&amp;"':,"</f>
+        <f t="shared" ref="G7:G22" si="9">"'"&amp;B7&amp;"':,"</f>
         <v>'eventName':,</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -18226,7 +18274,7 @@
         <v>_userData['eventName'] =tmpUser!.eventName;</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="35">
+    <row r="8" spans="1:16" ht="52.5">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -18240,7 +18288,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
@@ -18575,10 +18623,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>71</v>
@@ -18589,43 +18637,43 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertUserDocId':,</v>
+        <v>'repeat':,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertUserDocId,</v>
+        <v>this.repeat,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String insertUserDocId;</v>
+        <v>late bool repeat;</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['repeat'] = snapshot.docs[0].get('repeat');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>repeat: snapshot.docs[0].get('repeat'),</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertUserDocId=insertUserDocId;</v>
+        <v>tmpEvent.repeat=repeat;</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertUserDocId,</v>
+        <v>repeat,</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>repeat: repeat,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String insertUserDocId,</v>
+        <v>required bool repeat,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['repeat'] =tmpUser!.repeat;</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -18633,10 +18681,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>71</v>
@@ -18647,43 +18695,43 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertProgramId':,</v>
+        <v>'monday':,</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertProgramId,</v>
+        <v>this.monday,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String insertProgramId;</v>
+        <v>late bool monday;</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['monday'] = snapshot.docs[0].get('monday');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>monday: snapshot.docs[0].get('monday'),</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertProgramId=insertProgramId;</v>
+        <v>tmpEvent.monday=monday;</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertProgramId,</v>
+        <v>monday,</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>monday: monday,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String insertProgramId,</v>
+        <v>required bool monday,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['monday'] =tmpUser!.monday;</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18691,10 +18739,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>71</v>
@@ -18705,43 +18753,43 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'insertTime':,</v>
+        <v>'tuesday':,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertTime,</v>
+        <v>this.tuesday,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late DateTime insertTime;</v>
+        <v>late bool tuesday;</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['tuesday'] = snapshot.docs[0].get('tuesday');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>tuesday: snapshot.docs[0].get('tuesday'),</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.insertTime=insertTime;</v>
+        <v>tmpEvent.tuesday=tuesday;</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insertTime,</v>
+        <v>tuesday,</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insertTime: insertTime,</v>
+        <v>tuesday: tuesday,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required DateTime insertTime,</v>
+        <v>required bool tuesday,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData['tuesday'] =tmpUser!.tuesday;</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18749,10 +18797,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>71</v>
@@ -18763,43 +18811,43 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateUserDocId':,</v>
+        <v>'wednesday':,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateUserDocId,</v>
+        <v>this.wednesday,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String updateUserDocId;</v>
+        <v>late bool wednesday;</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['wednesday'] = snapshot.docs[0].get('wednesday');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>wednesday: snapshot.docs[0].get('wednesday'),</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateUserDocId=updateUserDocId;</v>
+        <v>tmpEvent.wednesday=wednesday;</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateUserDocId,</v>
+        <v>wednesday,</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>wednesday: wednesday,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String updateUserDocId,</v>
+        <v>required bool wednesday,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData['wednesday'] =tmpUser!.wednesday;</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -18807,10 +18855,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>71</v>
@@ -18821,43 +18869,43 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateProgramId':,</v>
+        <v>'thursday':,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateProgramId,</v>
+        <v>this.thursday,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late String updateProgramId;</v>
+        <v>late bool thursday;</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData['thursday'] = snapshot.docs[0].get('thursday');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>thursday: snapshot.docs[0].get('thursday'),</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateProgramId=updateProgramId;</v>
+        <v>tmpEvent.thursday=thursday;</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateProgramId,</v>
+        <v>thursday,</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>thursday: thursday,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required String updateProgramId,</v>
+        <v>required bool thursday,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData['thursday'] =tmpUser!.thursday;</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -18865,10 +18913,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>71</v>
@@ -18879,43 +18927,43 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'updateTime':,</v>
+        <v>'friday':,</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateTime,</v>
+        <v>this.friday,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late DateTime updateTime;</v>
+        <v>late bool friday;</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData['friday'] = snapshot.docs[0].get('friday');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>friday: snapshot.docs[0].get('friday'),</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.updateTime=updateTime;</v>
+        <v>tmpEvent.friday=friday;</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>updateTime,</v>
+        <v>friday,</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>updateTime: updateTime,</v>
+        <v>friday: friday,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required DateTime updateTime,</v>
+        <v>required bool friday,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData['friday'] =tmpUser!.friday;</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -18923,7 +18971,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>35</v>
@@ -18937,43 +18985,43 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>'readableFlg':,</v>
+        <v>'saturday':,</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.readableFlg,</v>
+        <v>this.saturday,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>late bool readableFlg;</v>
+        <v>late bool saturday;</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData['saturday'] = snapshot.docs[0].get('saturday');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>saturday: snapshot.docs[0].get('saturday'),</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>tmpEvent.readableFlg=readableFlg;</v>
+        <v>tmpEvent.saturday=saturday;</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>readableFlg,</v>
+        <v>saturday,</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>saturday: saturday,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required bool readableFlg,</v>
+        <v>required bool saturday,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData['saturday'] =tmpUser!.saturday;</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -18981,7 +19029,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>35</v>
@@ -18993,433 +19041,517 @@
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'sunday':,</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.sunday,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool sunday;</v>
+      </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData['sunday'] = snapshot.docs[0].get('sunday');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>sunday: snapshot.docs[0].get('sunday'),</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" ref="L21:L40" si="11">"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.sunday=sunday;</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>deleteFlg,</v>
+        <v>sunday,</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>sunday: sunday,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>required bool deleteFlg,</v>
+        <v>required bool sunday,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData['sunday'] =tmpUser!.sunday;</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'description':,</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.description,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late String description;</v>
+      </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['description'] = snapshot.docs[0].get('description');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>description: snapshot.docs[0].get('description'),</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.description=description;</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>description,</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>description: description,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required String description,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['description'] =tmpUser!.description;</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="13">
         <v>18</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['recurrenceRule'] = snapshot.docs[0].get('recurrenceRule');</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>recurrenceRule: snapshot.docs[0].get('recurrenceRule'),</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.recurrenceRule=recurrenceRule;</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>recurrenceRule,</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>recurrenceRule: recurrenceRule,</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool recurrenceRule,</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['recurrenceRule'] =tmpUser!.recurrenceRule;</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13">
         <v>19</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13">
         <v>20</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="N25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="O25" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="13">
         <v>21</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>insertTime,</v>
       </c>
       <c r="N26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="O26" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="13">
         <v>22</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="N27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="O27" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="13">
         <v>23</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="N28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="O28" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="13">
         <v>24</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="K29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>updateTime,</v>
       </c>
       <c r="N29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="O29" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="13">
         <v>25</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="K30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="N30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="O30" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="13">
         <v>26</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E31" s="13"/>
       <c r="F31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>: ,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="O31" s="1" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -21594,8 +21726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -21641,7 +21773,7 @@
         <v>54</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>55</v>
@@ -21743,7 +21875,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D3B6F-F7AB-453F-994C-D2BB041947AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A246B4-1112-49E6-AD32-A327EBA10356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
     <sheet name="一覧" sheetId="21" r:id="rId2"/>
     <sheet name="users" sheetId="1" r:id="rId3"/>
-    <sheet name="friends" sheetId="11" r:id="rId4"/>
-    <sheet name="chatHeaders" sheetId="17" r:id="rId5"/>
-    <sheet name="chatDetails" sheetId="18" r:id="rId6"/>
-    <sheet name="events" sheetId="9" r:id="rId7"/>
-    <sheet name="topics" sheetId="8" r:id="rId8"/>
-    <sheet name="setting values" sheetId="5" r:id="rId9"/>
-    <sheet name="master" sheetId="15" r:id="rId10"/>
-    <sheet name="master values" sheetId="19" r:id="rId11"/>
+    <sheet name="requests" sheetId="22" r:id="rId4"/>
+    <sheet name="friends" sheetId="11" r:id="rId5"/>
+    <sheet name="chatHeaders" sheetId="17" r:id="rId6"/>
+    <sheet name="chatDetails" sheetId="18" r:id="rId7"/>
+    <sheet name="events" sheetId="9" r:id="rId8"/>
+    <sheet name="topics" sheetId="8" r:id="rId9"/>
+    <sheet name="setting values" sheetId="5" r:id="rId10"/>
+    <sheet name="master" sheetId="15" r:id="rId11"/>
+    <sheet name="master values" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="197">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -660,10 +661,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:call,2:message,3:voice,4:photo,5:video</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fileNameSuffix</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -938,6 +935,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1:call,2:message,3:request,X:voice,X:photo,X:video</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requestDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>senderDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>courseCodeListText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categoryCodeListText</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1147,8 +1168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5250544"/>
-          <a:ext cx="1512432" cy="2085522"/>
+          <a:off x="420689" y="5350330"/>
+          <a:ext cx="1516968" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1432,8 +1453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11069639" y="1357087"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="11083246" y="1379765"/>
+          <a:ext cx="1361394" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1692,8 +1713,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7595839" y="1268187"/>
-          <a:ext cx="2383653" cy="2088696"/>
+          <a:off x="7608086" y="1294040"/>
+          <a:ext cx="2383652" cy="2126343"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2162,8 +2183,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="2628901"/>
-          <a:ext cx="2415494" cy="2088696"/>
+          <a:off x="484188" y="2681969"/>
+          <a:ext cx="2427741" cy="2126343"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2455,8 +2476,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="314325"/>
-          <a:ext cx="1631589" cy="1553481"/>
+          <a:off x="487363" y="311150"/>
+          <a:ext cx="1629775" cy="1588406"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3128,8 +3149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180796" y="5199744"/>
-          <a:ext cx="1850879" cy="2091872"/>
+          <a:off x="4189868" y="5302705"/>
+          <a:ext cx="1854054" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3458,8 +3479,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7288836" y="5250544"/>
-          <a:ext cx="3036719" cy="3174999"/>
+          <a:off x="7301083" y="5350330"/>
+          <a:ext cx="3030368" cy="3238499"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4353,8 +4374,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11631619" y="5269594"/>
-          <a:ext cx="1997749" cy="2342242"/>
+          <a:off x="11642051" y="5369380"/>
+          <a:ext cx="2006820" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4851,8 +4872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14983613" y="401946"/>
-          <a:ext cx="2113924" cy="2091871"/>
+          <a:off x="15010828" y="409657"/>
+          <a:ext cx="2122995" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5281,8 +5302,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14631567" y="5269594"/>
-          <a:ext cx="2005998" cy="2342242"/>
+          <a:off x="14655607" y="5369380"/>
+          <a:ext cx="2016883" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5598,8 +5619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152071" y="8726714"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="1156607" y="8899071"/>
+          <a:ext cx="1360033" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -6341,7 +6362,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.5">
       <c r="A1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6353,6 +6374,562 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
+  <dimension ref="A5:M32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="13" width="16.1640625" customWidth="1"/>
+    <col min="14" max="22" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FAAF19-976D-4E9D-B0B4-78370A71FA02}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -6735,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>74</v>
@@ -8450,12 +9027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8480,7 +9057,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>125</v>
@@ -8509,10 +9086,10 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5" t="b">
         <v>1</v>
@@ -8530,10 +9107,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>1</v>
@@ -8551,10 +9128,10 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -8572,10 +9149,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>1</v>
@@ -8589,7 +9166,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="5"/>
     </row>
@@ -8637,10 +9214,10 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
@@ -8658,10 +9235,10 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
@@ -8774,7 +9351,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8783,7 +9360,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>56</v>
@@ -8795,13 +9372,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>32</v>
@@ -8814,19 +9391,19 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>32</v>
@@ -8839,19 +9416,19 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>32</v>
@@ -8864,16 +9441,16 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="18" t="s">
@@ -8887,19 +9464,19 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>32</v>
@@ -8912,19 +9489,19 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>32</v>
@@ -8937,19 +9514,19 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>32</v>
@@ -8958,23 +9535,23 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>32</v>
@@ -8983,23 +9560,23 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>32</v>
@@ -9556,7 +10133,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>72</v>
@@ -10522,7 +11099,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>121</v>
@@ -11310,12 +11887,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4863E95-0C2F-4B39-8BC3-6DC24B3787C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E51DE9-62D3-481D-A3CE-4199813CB408}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -11356,7 +11933,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11382,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -11395,39 +11972,39 @@
       </c>
       <c r="G5" s="1" t="str">
         <f>"'"&amp;B5&amp;"':,"</f>
-        <v>'friendDocId':,</v>
+        <v>'requestDocId':,</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>B5&amp;":"&amp;B5&amp;","</f>
-        <v>friendDocId:friendDocId,</v>
+        <v>requestDocId:requestDocId,</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>C5&amp;" "&amp;B5&amp;","</f>
-        <v>String friendDocId,</v>
+        <v>String requestDocId,</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['friendDocId'] = snapshot.docs[0].get('friendDocId');</v>
+        <v>_userData['requestDocId'] = snapshot.docs[0].get('requestDocId');</v>
       </c>
       <c r="L5" s="1" t="str">
         <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>friendDocId: snapshot.docs[0].get('friendDocId'),</v>
+        <v>requestDocId: snapshot.docs[0].get('requestDocId'),</v>
       </c>
       <c r="M5" s="1" t="str">
         <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpUser.friendDocId=friendDocId;</v>
+        <v>tmpUser.requestDocId=requestDocId;</v>
       </c>
       <c r="N5" s="1" t="str">
         <f>B5&amp;","</f>
-        <v>friendDocId,</v>
+        <v>requestDocId,</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" ref="O5:O46" si="0">B5&amp;": "&amp;B5&amp;","</f>
-        <v>friendDocId: friendDocId,</v>
+        <v>requestDocId: requestDocId,</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" ref="P5:P22" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String friendDocId,</v>
+        <v>required String requestDocId,</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11435,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -11449,48 +12026,48 @@
         <v/>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G14" si="2">"'"&amp;B6&amp;"':,"</f>
-        <v>'userDocId':,</v>
+        <f t="shared" ref="G6:G18" si="2">"'"&amp;B6&amp;"':,"</f>
+        <v>'senderDocId':,</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
-        <v>userDocId:userDocId,</v>
+        <v>senderDocId:senderDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" ref="I6:I22" si="4">C6&amp;" "&amp;B6&amp;","</f>
-        <v>String userDocId,</v>
+        <v>String senderDocId,</v>
       </c>
       <c r="J6" s="8" t="str">
         <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
-        <v>returnMap['friendDocId']=snapshot.get('friendDocId');</v>
+        <v>returnMap['requestDocId']=snapshot.get('requestDocId');</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+        <v>_userData['senderDocId'] = snapshot.docs[0].get('senderDocId');</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+        <v>senderDocId: snapshot.docs[0].get('senderDocId'),</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpUser.userDocId=userDocId;</v>
+        <v>tmpUser.senderDocId=senderDocId;</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
-        <v>userDocId,</v>
+        <v>senderDocId,</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>userDocId: userDocId,</v>
+        <v>senderDocId: senderDocId,</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String userDocId,</v>
+        <v>required String senderDocId,</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
-        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+        <v>_userData['senderDocId'] =tmpUser!.senderDocId;</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11498,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -11512,47 +12089,47 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'friendUserDocId':,</v>
+        <v>'receiverUserDocId':,</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>friendUserDocId:friendUserDocId,</v>
+        <v>receiverUserDocId:receiverUserDocId,</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String friendUserDocId,</v>
+        <v>String receiverUserDocId,</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
-        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
+        <v>returnMap['senderDocId']=snapshot.get('senderDocId');</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['friendUserDocId'] = snapshot.docs[0].get('friendUserDocId');</v>
+        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>friendUserDocId: snapshot.docs[0].get('friendUserDocId'),</v>
+        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.friendUserDocId=friendUserDocId;</v>
+        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>friendUserDocId,</v>
+        <v>receiverUserDocId,</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>friendUserDocId: friendUserDocId,</v>
+        <v>receiverUserDocId: receiverUserDocId,</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String friendUserDocId,</v>
+        <v>required String receiverUserDocId,</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7:Q46" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
-        <v>_userData['friendUserDocId'] =tmpUser!.friendUserDocId;</v>
+        <v>_userData['receiverUserDocId'] =tmpUser!.receiverUserDocId;</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11560,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -11574,47 +12151,47 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'friendUserName':,</v>
+        <v>'courseCodeListText':,</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>friendUserName:friendUserName,</v>
+        <v>courseCodeListText:courseCodeListText,</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String friendUserName,</v>
+        <v>String courseCodeListText,</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['friendUserDocId']=snapshot.get('friendUserDocId');</v>
+        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['friendUserName'] = snapshot.docs[0].get('friendUserName');</v>
+        <v>_userData['courseCodeListText'] = snapshot.docs[0].get('courseCodeListText');</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>friendUserName: snapshot.docs[0].get('friendUserName'),</v>
+        <v>courseCodeListText: snapshot.docs[0].get('courseCodeListText'),</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.friendUserName=friendUserName;</v>
+        <v>tmpUser.courseCodeListText=courseCodeListText;</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>friendUserName,</v>
+        <v>courseCodeListText,</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>friendUserName: friendUserName,</v>
+        <v>courseCodeListText: courseCodeListText,</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String friendUserName,</v>
+        <v>required String courseCodeListText,</v>
       </c>
       <c r="Q8" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['friendUserName'] =tmpUser!.friendUserName;</v>
+        <v>_userData['courseCodeListText'] =tmpUser!.courseCodeListText;</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11622,7 +12199,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -11636,47 +12213,47 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'lastMessageContent':,</v>
+        <v>'categoryCodeListText':,</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>lastMessageContent:lastMessageContent,</v>
+        <v>categoryCodeListText:categoryCodeListText,</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String lastMessageContent,</v>
+        <v>String categoryCodeListText,</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['friendUserName']=snapshot.get('friendUserName');</v>
+        <v>returnMap['courseCodeListText']=snapshot.get('courseCodeListText');</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['lastMessageContent'] = snapshot.docs[0].get('lastMessageContent');</v>
+        <v>_userData['categoryCodeListText'] = snapshot.docs[0].get('categoryCodeListText');</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lastMessageContent: snapshot.docs[0].get('lastMessageContent'),</v>
+        <v>categoryCodeListText: snapshot.docs[0].get('categoryCodeListText'),</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.lastMessageContent=lastMessageContent;</v>
+        <v>tmpUser.categoryCodeListText=categoryCodeListText;</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>lastMessageContent,</v>
+        <v>categoryCodeListText,</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lastMessageContent: lastMessageContent,</v>
+        <v>categoryCodeListText: categoryCodeListText,</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String lastMessageContent,</v>
+        <v>required String categoryCodeListText,</v>
       </c>
       <c r="Q9" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['lastMessageContent'] =tmpUser!.lastMessageContent;</v>
+        <v>_userData['categoryCodeListText'] =tmpUser!.categoryCodeListText;</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11684,7 +12261,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -11698,47 +12275,47 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'lastMessageDocId':,</v>
+        <v>'message':,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>lastMessageDocId:lastMessageDocId,</v>
+        <v>message:message,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String lastMessageDocId,</v>
+        <v>String message,</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['lastMessageContent']=snapshot.get('lastMessageContent');</v>
+        <v>returnMap['categoryCodeListText']=snapshot.get('categoryCodeListText');</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['lastMessageDocId'] = snapshot.docs[0].get('lastMessageDocId');</v>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lastMessageDocId: snapshot.docs[0].get('lastMessageDocId'),</v>
+        <v>message: snapshot.docs[0].get('message'),</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.lastMessageDocId=lastMessageDocId;</v>
+        <v>tmpUser.message=message;</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>lastMessageDocId,</v>
+        <v>message,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lastMessageDocId: lastMessageDocId,</v>
+        <v>message: message,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String lastMessageDocId,</v>
+        <v>required String message,</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['lastMessageDocId'] =tmpUser!.lastMessageDocId;</v>
+        <v>_userData['message'] =tmpUser!.message;</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11746,7 +12323,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -11760,47 +12337,47 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'lastMessageTime':,</v>
+        <v>'insertUserDocId':,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>lastMessageTime:lastMessageTime,</v>
+        <v>insertUserDocId:insertUserDocId,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String lastMessageTime,</v>
+        <v>String insertUserDocId,</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['lastMessageDocId']=snapshot.get('lastMessageDocId');</v>
+        <v>returnMap['message']=snapshot.get('message');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['lastMessageTime'] = snapshot.docs[0].get('lastMessageTime');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lastMessageTime: snapshot.docs[0].get('lastMessageTime'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.lastMessageTime=lastMessageTime;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>lastMessageTime,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lastMessageTime: lastMessageTime,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String lastMessageTime,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['lastMessageTime'] =tmpUser!.lastMessageTime;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11808,59 +12385,61 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'profilePhoto':,</v>
+        <v>'insertProgramId':,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>profilePhoto:profilePhoto,</v>
+        <v>insertProgramId:insertProgramId,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Uint8List? profilePhoto,</v>
+        <v>String insertProgramId,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['lastMessageTime']=snapshot.get('lastMessageTime');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['profilePhoto'] = snapshot.docs[0].get('profilePhoto');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>profilePhoto: snapshot.docs[0].get('profilePhoto'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.profilePhoto=profilePhoto;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>profilePhoto,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>profilePhoto: profilePhoto,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Uint8List? profilePhoto,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['profilePhoto'] =tmpUser!.profilePhoto;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11868,10 +12447,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>71</v>
@@ -11882,47 +12461,47 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'profilePhotoUpdateCnt':,</v>
+        <v>'insertTime':,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>profilePhotoUpdateCnt:profilePhotoUpdateCnt,</v>
+        <v>insertTime:insertTime,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>int profilePhotoUpdateCnt,</v>
+        <v>DateTime insertTime,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['profilePhoto']=snapshot.get('profilePhoto');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['profilePhotoUpdateCnt'] = snapshot.docs[0].get('profilePhotoUpdateCnt');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>profilePhotoUpdateCnt: snapshot.docs[0].get('profilePhotoUpdateCnt'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.profilePhotoUpdateCnt=profilePhotoUpdateCnt;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>profilePhotoUpdateCnt,</v>
+        <v>insertTime,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>profilePhotoUpdateCnt: profilePhotoUpdateCnt,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required int profilePhotoUpdateCnt,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['profilePhotoUpdateCnt'] =tmpUser!.profilePhotoUpdateCnt;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -11930,7 +12509,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -11944,47 +12523,47 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'profilePhotoNameSuffix':,</v>
+        <v>'updateUserDocId':,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>profilePhotoNameSuffix:profilePhotoNameSuffix,</v>
+        <v>updateUserDocId:updateUserDocId,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String profilePhotoNameSuffix,</v>
+        <v>String updateUserDocId,</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['profilePhotoUpdateCnt']=snapshot.get('profilePhotoUpdateCnt');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['profilePhotoNameSuffix'] = snapshot.docs[0].get('profilePhotoNameSuffix');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>profilePhotoNameSuffix: snapshot.docs[0].get('profilePhotoNameSuffix'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.profilePhotoNameSuffix=profilePhotoNameSuffix;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>profilePhotoNameSuffix,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>profilePhotoNameSuffix: profilePhotoNameSuffix,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String profilePhotoNameSuffix,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['profilePhotoNameSuffix'] =tmpUser!.profilePhotoNameSuffix;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -11992,10 +12571,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>71</v>
@@ -12004,45 +12583,49 @@
       <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'updateProgramId':,</v>
+      </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>mute:mute,</v>
+        <v>updateProgramId:updateProgramId,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool mute,</v>
+        <v>String updateProgramId,</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['profilePhotoNameSuffix']=snapshot.get('profilePhotoNameSuffix');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['mute'] = snapshot.docs[0].get('mute');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mute: snapshot.docs[0].get('mute'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.mute=mute;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>mute,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mute: mute,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool mute,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['mute'] =tmpUser!.mute;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -12050,10 +12633,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>71</v>
@@ -12062,45 +12645,49 @@
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'updateTime':,</v>
+      </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>chatHeaderDocId:chatHeaderDocId,</v>
+        <v>updateTime:updateTime,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String chatHeaderDocId,</v>
+        <v>DateTime updateTime,</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['mute']=snapshot.get('mute');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['chatHeaderDocId'] = snapshot.docs[0].get('chatHeaderDocId');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>chatHeaderDocId: snapshot.docs[0].get('chatHeaderDocId'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.chatHeaderDocId=chatHeaderDocId;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>chatHeaderDocId,</v>
+        <v>updateTime,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>chatHeaderDocId: chatHeaderDocId,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String chatHeaderDocId,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['chatHeaderDocId'] =tmpUser!.chatHeaderDocId;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -12108,10 +12695,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>71</v>
@@ -12120,45 +12707,49 @@
       <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'readableFlg':,</v>
+      </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertUserDocId:insertUserDocId,</v>
+        <v>readableFlg:readableFlg,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertUserDocId,</v>
+        <v>bool readableFlg,</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['chatHeaderDocId']=snapshot.get('chatHeaderDocId');</v>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertUserDocId,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertUserDocId,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -12166,10 +12757,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>71</v>
@@ -12178,373 +12769,341 @@
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'deleteFlg':,</v>
+      </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertProgramId:insertProgramId,</v>
+        <v>deleteFlg:deleteFlg,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertProgramId,</v>
+        <v>bool deleteFlg,</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertProgramId,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertProgramId,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertTime:insertTime,</v>
+        <v>:,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime insertTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertTime,</v>
+        <v>,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
+        <v>: ,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime insertTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateUserDocId:updateUserDocId,</v>
+        <v>:,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateUserDocId,</v>
+        <v>,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>: ,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q20" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateProgramId:updateProgramId,</v>
+        <v>:,</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateProgramId,</v>
+        <v>,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>: ,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateTime:updateTime,</v>
+        <v>:,</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime updateTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateTime,</v>
+        <v>,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
+        <v>: ,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime updateTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q22" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>readableFlg,</v>
+        <v>,</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="Q23" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>deleteFlg,</v>
+        <v>,</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" ref="P24:P46" si="11">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
-        <v>required bool deleteFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q24" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -12560,7 +13119,7 @@
       </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="5"/>
@@ -13576,6 +14135,2272 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4863E95-0C2F-4B39-8BC3-6DC24B3787C7}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"'"&amp;B5&amp;"':,"</f>
+        <v>'friendDocId':,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>B5&amp;":"&amp;B5&amp;","</f>
+        <v>friendDocId:friendDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>C5&amp;" "&amp;B5&amp;","</f>
+        <v>String friendDocId,</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['friendDocId'] = snapshot.docs[0].get('friendDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>friendDocId: snapshot.docs[0].get('friendDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.friendDocId=friendDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>friendDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:O46" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>friendDocId: friendDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P22" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String friendDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G14" si="2">"'"&amp;B6&amp;"':,"</f>
+        <v>'userDocId':,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
+        <v>userDocId:userDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I22" si="4">C6&amp;" "&amp;B6&amp;","</f>
+        <v>String userDocId,</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['friendDocId']=snapshot.get('friendDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpUser.userDocId=userDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
+        <v>userDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>userDocId: userDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String userDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'friendUserDocId':,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>friendUserDocId:friendUserDocId,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String friendUserDocId,</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
+        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['friendUserDocId'] = snapshot.docs[0].get('friendUserDocId');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>friendUserDocId: snapshot.docs[0].get('friendUserDocId'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.friendUserDocId=friendUserDocId;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>friendUserDocId,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>friendUserDocId: friendUserDocId,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String friendUserDocId,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7:Q46" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['friendUserDocId'] =tmpUser!.friendUserDocId;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'friendUserName':,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>friendUserName:friendUserName,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String friendUserName,</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['friendUserDocId']=snapshot.get('friendUserDocId');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['friendUserName'] = snapshot.docs[0].get('friendUserName');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>friendUserName: snapshot.docs[0].get('friendUserName'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.friendUserName=friendUserName;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>friendUserName,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>friendUserName: friendUserName,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String friendUserName,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['friendUserName'] =tmpUser!.friendUserName;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'lastMessageContent':,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>lastMessageContent:lastMessageContent,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String lastMessageContent,</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['friendUserName']=snapshot.get('friendUserName');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['lastMessageContent'] = snapshot.docs[0].get('lastMessageContent');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lastMessageContent: snapshot.docs[0].get('lastMessageContent'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.lastMessageContent=lastMessageContent;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>lastMessageContent,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lastMessageContent: lastMessageContent,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String lastMessageContent,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['lastMessageContent'] =tmpUser!.lastMessageContent;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'lastMessageDocId':,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>lastMessageDocId:lastMessageDocId,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String lastMessageDocId,</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['lastMessageContent']=snapshot.get('lastMessageContent');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['lastMessageDocId'] = snapshot.docs[0].get('lastMessageDocId');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lastMessageDocId: snapshot.docs[0].get('lastMessageDocId'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.lastMessageDocId=lastMessageDocId;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>lastMessageDocId,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lastMessageDocId: lastMessageDocId,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String lastMessageDocId,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['lastMessageDocId'] =tmpUser!.lastMessageDocId;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'lastMessageTime':,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>lastMessageTime:lastMessageTime,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String lastMessageTime,</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['lastMessageDocId']=snapshot.get('lastMessageDocId');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['lastMessageTime'] = snapshot.docs[0].get('lastMessageTime');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lastMessageTime: snapshot.docs[0].get('lastMessageTime'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.lastMessageTime=lastMessageTime;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>lastMessageTime,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lastMessageTime: lastMessageTime,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String lastMessageTime,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['lastMessageTime'] =tmpUser!.lastMessageTime;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'profilePhoto':,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>profilePhoto:profilePhoto,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Uint8List? profilePhoto,</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['lastMessageTime']=snapshot.get('lastMessageTime');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['profilePhoto'] = snapshot.docs[0].get('profilePhoto');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>profilePhoto: snapshot.docs[0].get('profilePhoto'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.profilePhoto=profilePhoto;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>profilePhoto,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>profilePhoto: profilePhoto,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Uint8List? profilePhoto,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['profilePhoto'] =tmpUser!.profilePhoto;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'profilePhotoUpdateCnt':,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>profilePhotoUpdateCnt:profilePhotoUpdateCnt,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>int profilePhotoUpdateCnt,</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['profilePhoto']=snapshot.get('profilePhoto');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['profilePhotoUpdateCnt'] = snapshot.docs[0].get('profilePhotoUpdateCnt');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>profilePhotoUpdateCnt: snapshot.docs[0].get('profilePhotoUpdateCnt'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.profilePhotoUpdateCnt=profilePhotoUpdateCnt;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>profilePhotoUpdateCnt,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>profilePhotoUpdateCnt: profilePhotoUpdateCnt,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required int profilePhotoUpdateCnt,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['profilePhotoUpdateCnt'] =tmpUser!.profilePhotoUpdateCnt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'profilePhotoNameSuffix':,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>profilePhotoNameSuffix:profilePhotoNameSuffix,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String profilePhotoNameSuffix,</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['profilePhotoUpdateCnt']=snapshot.get('profilePhotoUpdateCnt');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['profilePhotoNameSuffix'] = snapshot.docs[0].get('profilePhotoNameSuffix');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>profilePhotoNameSuffix: snapshot.docs[0].get('profilePhotoNameSuffix'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.profilePhotoNameSuffix=profilePhotoNameSuffix;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>profilePhotoNameSuffix,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>profilePhotoNameSuffix: profilePhotoNameSuffix,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String profilePhotoNameSuffix,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['profilePhotoNameSuffix'] =tmpUser!.profilePhotoNameSuffix;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>mute:mute,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>bool mute,</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['profilePhotoNameSuffix']=snapshot.get('profilePhotoNameSuffix');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['mute'] = snapshot.docs[0].get('mute');</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>mute: snapshot.docs[0].get('mute'),</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.mute=mute;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>mute,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mute: mute,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required bool mute,</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['mute'] =tmpUser!.mute;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>chatHeaderDocId:chatHeaderDocId,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String chatHeaderDocId,</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['mute']=snapshot.get('mute');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['chatHeaderDocId'] = snapshot.docs[0].get('chatHeaderDocId');</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>chatHeaderDocId: snapshot.docs[0].get('chatHeaderDocId'),</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.chatHeaderDocId=chatHeaderDocId;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>chatHeaderDocId,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chatHeaderDocId: chatHeaderDocId,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String chatHeaderDocId,</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['chatHeaderDocId'] =tmpUser!.chatHeaderDocId;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String insertUserDocId,</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['chatHeaderDocId']=snapshot.get('chatHeaderDocId');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String insertProgramId,</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DateTime insertTime,</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String updateUserDocId,</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String updateProgramId,</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DateTime updateTime,</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P46" si="11">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB3EBE-1512-4C38-815C-722DBF6E0391}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -15777,13 +18602,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -15792,7 +18617,7 @@
     <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
@@ -16161,7 +18986,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -16216,7 +19041,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -16278,7 +19103,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -16340,7 +19165,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -16402,7 +19227,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
@@ -18043,7 +20868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
@@ -18288,7 +21113,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
@@ -18623,7 +21448,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>35</v>
@@ -18681,7 +21506,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>35</v>
@@ -18739,7 +21564,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>35</v>
@@ -18797,7 +21622,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>35</v>
@@ -18855,7 +21680,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>35</v>
@@ -18913,7 +21738,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>35</v>
@@ -18971,7 +21796,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>35</v>
@@ -19029,7 +21854,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>35</v>
@@ -19145,7 +21970,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>35</v>
@@ -19974,7 +22799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -21720,560 +24545,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
-  <dimension ref="A5:M32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.4140625" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="22" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="5">
-        <v>19</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="5">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="5">
-        <v>22</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="5">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="5">
-        <v>25</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="5">
-        <v>27</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A246B4-1112-49E6-AD32-A327EBA10356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EEFEB0-E98C-4FF8-86AE-AB8B2DBE5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
     <sheet name="一覧" sheetId="21" r:id="rId2"/>
     <sheet name="users" sheetId="1" r:id="rId3"/>
     <sheet name="requests" sheetId="22" r:id="rId4"/>
-    <sheet name="friends" sheetId="11" r:id="rId5"/>
-    <sheet name="chatHeaders" sheetId="17" r:id="rId6"/>
-    <sheet name="chatDetails" sheetId="18" r:id="rId7"/>
-    <sheet name="events" sheetId="9" r:id="rId8"/>
-    <sheet name="topics" sheetId="8" r:id="rId9"/>
-    <sheet name="setting values" sheetId="5" r:id="rId10"/>
-    <sheet name="master" sheetId="15" r:id="rId11"/>
-    <sheet name="master values" sheetId="19" r:id="rId12"/>
+    <sheet name="appointments" sheetId="23" r:id="rId5"/>
+    <sheet name="friends" sheetId="11" r:id="rId6"/>
+    <sheet name="chatHeaders" sheetId="17" r:id="rId7"/>
+    <sheet name="chatDetails" sheetId="18" r:id="rId8"/>
+    <sheet name="events" sheetId="9" r:id="rId9"/>
+    <sheet name="topics" sheetId="8" r:id="rId10"/>
+    <sheet name="setting values" sheetId="5" r:id="rId11"/>
+    <sheet name="master" sheetId="15" r:id="rId12"/>
+    <sheet name="master values" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="204">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -936,10 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:call,2:message,3:request,X:voice,X:photo,X:video</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>requests</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -957,6 +954,56 @@
   </si>
   <si>
     <t>categoryCodeListText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appointments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appointmentDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>courseCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categoryCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用時にネットから取得</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オフラインでは不要(メッセージだけ見れればいいと思うので)</t>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apointments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:call,2:message,3:request,4:appointment,X:voice,X:photo,X:video</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5850,16 +5897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2492375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5874,8 +5921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2917825" y="2514600"/>
-          <a:ext cx="7131050" cy="3902075"/>
+          <a:off x="2082800" y="4581525"/>
+          <a:ext cx="7134225" cy="3902075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6374,6 +6421,1754 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="61.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="35.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>topicDocId,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['topicDocId'] = snapshot.docs[0].get('topicDocId');</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>topicDocId: snapshot.docs[0].get('topicDocId'),</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>"tmpTopic."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpTopic.topicDocId=topicDocId;</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>topicDocId,</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L41" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>topicDocId: topicDocId,</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String topicDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G19" si="1">B6&amp;","</f>
+        <v>topicName,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H41" si="2">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['topicName'] = snapshot.docs[0].get('topicName');</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I41" si="3">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>topicName: snapshot.docs[0].get('topicName'),</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" ref="J6:J19" si="4">"tmpTopic."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpTopic.topicName=topicName;</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K41" si="5">B6&amp;","</f>
+        <v>topicName,</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>topicName: topicName,</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M41" si="6">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
+        <v>required String topicName,</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['topicName'] =tmpUser!.topicName;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>categoryDocId,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['categoryDocId'] = snapshot.docs[0].get('categoryDocId');</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>categoryDocId: snapshot.docs[0].get('categoryDocId'),</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.categoryDocId=categoryDocId;</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>categoryDocId,</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>categoryDocId: categoryDocId,</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String categoryDocId,</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" ref="N7:N41" si="7">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['categoryDocId'] =tmpUser!.categoryDocId;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>categoryName,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['categoryName'] = snapshot.docs[0].get('categoryName');</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>categoryName: snapshot.docs[0].get('categoryName'),</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.categoryName=categoryName;</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>categoryName,</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>categoryName: categoryName,</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String categoryName,</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['categoryName'] =tmpUser!.categoryName;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>photoFile,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['photoFile'] = snapshot.docs[0].get('photoFile');</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>photoFile: snapshot.docs[0].get('photoFile'),</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.photoFile=photoFile;</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>photoFile,</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>photoFile: photoFile,</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required Uint8List photoFile,</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['photoFile'] =tmpUser!.photoFile;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>photoNameSuffix,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['photoNameSuffix'] = snapshot.docs[0].get('photoNameSuffix');</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>photoNameSuffix: snapshot.docs[0].get('photoNameSuffix'),</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.photoNameSuffix=photoNameSuffix;</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>photoNameSuffix,</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>photoNameSuffix: photoNameSuffix,</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String photoNameSuffix,</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['photoNameSuffix'] =tmpUser!.photoNameSuffix;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>photoUpdateCnt,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['photoUpdateCnt'] = snapshot.docs[0].get('photoUpdateCnt');</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>photoUpdateCnt: snapshot.docs[0].get('photoUpdateCnt'),</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.photoUpdateCnt=photoUpdateCnt;</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>photoUpdateCnt,</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>photoUpdateCnt: photoUpdateCnt,</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required int photoUpdateCnt,</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['photoUpdateCnt'] =tmpUser!.photoUpdateCnt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.insertTime=insertTime;</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.updateTime=updateTime;</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.readableFlg=readableFlg;</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>tmpTopic.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" ref="J20:J41" si="8">"tmpUser."&amp;B20&amp;"="&amp;B20&amp;";"</f>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>,</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
@@ -6929,7 +8724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FAAF19-976D-4E9D-B0B4-78370A71FA02}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -9027,7 +10822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
@@ -9335,7 +11130,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9584,26 +11379,50 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="I12" s="18" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="I13" s="18" t="s">
         <v>32</v>
       </c>
@@ -11890,9 +13709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E51DE9-62D3-481D-A3CE-4199813CB408}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -11933,7 +13752,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11959,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -12012,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -12137,7 +13956,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -12199,7 +14018,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -14135,6 +15954,2266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"this."&amp;B5&amp;","</f>
+        <v>this.appointmentDocId,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>B5&amp;":"&amp;B5&amp;","</f>
+        <v>appointmentDocId:appointmentDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>C5&amp;" "&amp;B5&amp;","</f>
+        <v>String appointmentDocId,</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>appointmentDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:O46" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>appointmentDocId: appointmentDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P22" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String appointmentDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G18" si="2">"this."&amp;B6&amp;","</f>
+        <v>this.senderUserDocId,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
+        <v>senderUserDocId:senderUserDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I22" si="4">C6&amp;" "&amp;B6&amp;","</f>
+        <v>String senderUserDocId,</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
+        <v>senderUserDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>senderUserDocId: senderUserDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String senderUserDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>"snapshot.get('"&amp;B6&amp;"')"</f>
+        <v>snapshot.get('senderUserDocId')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.receiverUserDocId,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>receiverUserDocId:receiverUserDocId,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String receiverUserDocId,</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
+        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>receiverUserDocId,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>receiverUserDocId: receiverUserDocId,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String receiverUserDocId,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7:Q18" si="10">"snapshot.get('"&amp;B7&amp;"')"</f>
+        <v>snapshot.get('receiverUserDocId')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.courseCode,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>courseCode:courseCode,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String courseCode,</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['courseCode'] = snapshot.docs[0].get('courseCode');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>courseCode: snapshot.docs[0].get('courseCode'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.courseCode=courseCode;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>courseCode,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>courseCode: courseCode,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String courseCode,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('courseCode')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.categoryCode,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>categoryCode:categoryCode,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String categoryCode,</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['courseCode']=snapshot.get('courseCode');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['categoryCode'] = snapshot.docs[0].get('categoryCode');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>categoryCode: snapshot.docs[0].get('categoryCode'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.categoryCode=categoryCode;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>categoryCode,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>categoryCode: categoryCode,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String categoryCode,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('categoryCode')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.fromTime,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>fromTime:fromTime,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String fromTime,</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['categoryCode']=snapshot.get('categoryCode');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.fromTime=fromTime;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>fromTime,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>fromTime: fromTime,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String fromTime,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('fromTime')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.toTime,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>toTime:toTime,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String toTime,</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['fromTime']=snapshot.get('fromTime');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.toTime=toTime;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>toTime,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>toTime: toTime,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String toTime,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('toTime')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.message,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>message:message,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String message,</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['toTime']=snapshot.get('toTime');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>message: snapshot.docs[0].get('message'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.message=message;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>message,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>message: message,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String message,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('message')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.insertUserDocId,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String insertUserDocId,</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['message']=snapshot.get('message');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('insertUserDocId')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.insertProgramId,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String insertProgramId,</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('insertProgramId')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.insertTime,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DateTime insertTime,</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('insertTime')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.updateUserDocId,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String updateUserDocId,</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('updateUserDocId')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.updateProgramId,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String updateProgramId,</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('updateProgramId')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.updateTime,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DateTime updateTime,</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('updateTime')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>readableFlg:readableFlg,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>bool readableFlg,</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" ref="Q7:Q46" si="11">"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>deleteFlg:deleteFlg,</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>bool deleteFlg,</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>:,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>:,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P46" si="12">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4863E95-0C2F-4B39-8BC3-6DC24B3787C7}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -16400,7 +20479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB3EBE-1512-4C38-815C-722DBF6E0391}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -18602,13 +22681,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -18986,7 +23065,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -20868,13 +24947,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -22797,1752 +26876,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
-  <dimension ref="A1:N45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="61.08203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>B5&amp;","</f>
-        <v>topicDocId,</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['topicDocId'] = snapshot.docs[0].get('topicDocId');</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>topicDocId: snapshot.docs[0].get('topicDocId'),</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f>"tmpTopic."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpTopic.topicDocId=topicDocId;</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f>B5&amp;","</f>
-        <v>topicDocId,</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f t="shared" ref="L5:L41" si="0">B5&amp;": "&amp;B5&amp;","</f>
-        <v>topicDocId: topicDocId,</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String topicDocId,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G19" si="1">B6&amp;","</f>
-        <v>topicName,</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H41" si="2">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['topicName'] = snapshot.docs[0].get('topicName');</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I41" si="3">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>topicName: snapshot.docs[0].get('topicName'),</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J19" si="4">"tmpTopic."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpTopic.topicName=topicName;</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K41" si="5">B6&amp;","</f>
-        <v>topicName,</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>topicName: topicName,</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" ref="M6:M41" si="6">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
-        <v>required String topicName,</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
-        <v>_userData['topicName'] =tmpUser!.topicName;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>categoryDocId,</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['categoryDocId'] = snapshot.docs[0].get('categoryDocId');</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>categoryDocId: snapshot.docs[0].get('categoryDocId'),</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.categoryDocId=categoryDocId;</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>categoryDocId,</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>categoryDocId: categoryDocId,</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String categoryDocId,</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" ref="N7:N41" si="7">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
-        <v>_userData['categoryDocId'] =tmpUser!.categoryDocId;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>categoryName,</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['categoryName'] = snapshot.docs[0].get('categoryName');</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>categoryName: snapshot.docs[0].get('categoryName'),</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.categoryName=categoryName;</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>categoryName,</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>categoryName: categoryName,</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String categoryName,</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['categoryName'] =tmpUser!.categoryName;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>photoFile,</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['photoFile'] = snapshot.docs[0].get('photoFile');</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>photoFile: snapshot.docs[0].get('photoFile'),</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.photoFile=photoFile;</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>photoFile,</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>photoFile: photoFile,</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required Uint8List photoFile,</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['photoFile'] =tmpUser!.photoFile;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>photoNameSuffix,</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['photoNameSuffix'] = snapshot.docs[0].get('photoNameSuffix');</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>photoNameSuffix: snapshot.docs[0].get('photoNameSuffix'),</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.photoNameSuffix=photoNameSuffix;</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>photoNameSuffix,</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>photoNameSuffix: photoNameSuffix,</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String photoNameSuffix,</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['photoNameSuffix'] =tmpUser!.photoNameSuffix;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>photoUpdateCnt,</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['photoUpdateCnt'] = snapshot.docs[0].get('photoUpdateCnt');</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>photoUpdateCnt: snapshot.docs[0].get('photoUpdateCnt'),</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.photoUpdateCnt=photoUpdateCnt;</v>
-      </c>
-      <c r="K11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>photoUpdateCnt,</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>photoUpdateCnt: photoUpdateCnt,</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required int photoUpdateCnt,</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['photoUpdateCnt'] =tmpUser!.photoUpdateCnt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertUserDocId,</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.insertUserDocId=insertUserDocId;</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertUserDocId,</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String insertUserDocId,</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertProgramId,</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.insertProgramId=insertProgramId;</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertProgramId,</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String insertProgramId,</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertTime,</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.insertTime=insertTime;</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertTime,</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required DateTime insertTime,</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateUserDocId,</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.updateUserDocId=updateUserDocId;</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateUserDocId,</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String updateUserDocId,</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateProgramId,</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.updateProgramId=updateProgramId;</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateProgramId,</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required String updateProgramId,</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateTime,</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.updateTime=updateTime;</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateTime,</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required DateTime updateTime,</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>readableFlg,</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.readableFlg=readableFlg;</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>readableFlg,</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required bool readableFlg,</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>deleteFlg,</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>tmpTopic.deleteFlg=deleteFlg;</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>deleteFlg,</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>required bool deleteFlg,</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" ref="J20:J41" si="8">"tmpUser."&amp;B20&amp;"="&amp;B20&amp;";"</f>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K27" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J30" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J40" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="I41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>,</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="M41" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EEFEB0-E98C-4FF8-86AE-AB8B2DBE5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09096993-1CC2-43BD-89D6-2C6CA854E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="chatHeaders" sheetId="17" r:id="rId7"/>
     <sheet name="chatDetails" sheetId="18" r:id="rId8"/>
     <sheet name="events" sheetId="9" r:id="rId9"/>
-    <sheet name="topics" sheetId="8" r:id="rId10"/>
-    <sheet name="setting values" sheetId="5" r:id="rId11"/>
-    <sheet name="master" sheetId="15" r:id="rId12"/>
-    <sheet name="master values" sheetId="19" r:id="rId13"/>
+    <sheet name="callDetails" sheetId="24" r:id="rId10"/>
+    <sheet name="topics" sheetId="8" r:id="rId11"/>
+    <sheet name="setting values" sheetId="5" r:id="rId12"/>
+    <sheet name="master" sheetId="15" r:id="rId13"/>
+    <sheet name="master values" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="206">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1006,6 +1007,14 @@
     <t>1:call,2:message,3:request,4:appointment,X:voice,X:photo,X:video</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>callDetails</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>callDetailDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1093,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1170,6 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6421,6 +6437,2260 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10579B4E-C3CC-48E3-A6BC-F991CF50E151}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="54.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"this."&amp;B5&amp;","</f>
+        <v>this.callDetailDocId,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>B5&amp;":"&amp;B5&amp;","</f>
+        <v>callDetailDocId:callDetailDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>C5&amp;" "&amp;B5&amp;";"</f>
+        <v>String callDetailDocId;</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['callDetailDocId'] = snapshot.docs[0].get('callDetailDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>callDetailDocId: snapshot.docs[0].get('callDetailDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.callDetailDocId=callDetailDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>callDetailDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:O7" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>callDetailDocId: callDetailDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P7" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String callDetailDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G7" si="2">"this."&amp;B6&amp;","</f>
+        <v>this.appointmentDocId,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H7" si="3">B6&amp;":"&amp;B6&amp;","</f>
+        <v>appointmentDocId:appointmentDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I7" si="4">C6&amp;" "&amp;B6&amp;";"</f>
+        <v>String appointmentDocId;</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['callDetailDocId']=snapshot.get('callDetailDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K7" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L7" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M7" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" ref="N6:N7" si="8">B6&amp;","</f>
+        <v>appointmentDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>appointmentDocId: appointmentDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String appointmentDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['appointmentDocId'] =tmpUser!.appointmentDocId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.userDocId,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>userDocId:userDocId,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String userDocId;</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J8" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
+        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.userDocId=userDocId;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>userDocId,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>userDocId: userDocId,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String userDocId,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>"this."&amp;B9&amp;","</f>
+        <v>this.fileNameSuffix,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>B9&amp;":"&amp;B9&amp;","</f>
+        <v>fileNameSuffix:fileNameSuffix,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>C9&amp;" "&amp;B9&amp;";"</f>
+        <v>String fileNameSuffix;</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>"_userData['"&amp;B9&amp;"'] = snapshot.docs[0].get('"&amp;B9&amp;"');"</f>
+        <v>_userData['fileNameSuffix'] = snapshot.docs[0].get('fileNameSuffix');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>B9&amp;": snapshot.docs[0].get('"&amp;B9&amp;"'),"</f>
+        <v>fileNameSuffix: snapshot.docs[0].get('fileNameSuffix'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>"tmpUser."&amp;B9&amp;"="&amp;B9&amp;";"</f>
+        <v>tmpUser.fileNameSuffix=fileNameSuffix;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>B9&amp;","</f>
+        <v>fileNameSuffix,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f>B9&amp;": "&amp;B9&amp;","</f>
+        <v>fileNameSuffix: fileNameSuffix,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f>IF(D9="late","required ","")&amp;C9&amp;" "&amp;B9&amp;","</f>
+        <v>required String fileNameSuffix,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f>"_userData['"&amp;B9&amp;"'] =tmpUser!."&amp;B9&amp;";"</f>
+        <v>_userData['fileNameSuffix'] =tmpUser!.fileNameSuffix;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>"this."&amp;B8&amp;","</f>
+        <v>this.messageType,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>B8&amp;":"&amp;B8&amp;","</f>
+        <v>messageType:messageType,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>C8&amp;" "&amp;B8&amp;";"</f>
+        <v>String messageType;</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f>"returnMap['"&amp;B9&amp;"']=snapshot.get('"&amp;B9&amp;"');"</f>
+        <v>returnMap['fileNameSuffix']=snapshot.get('fileNameSuffix');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>"_userData['"&amp;B8&amp;"'] = snapshot.docs[0].get('"&amp;B8&amp;"');"</f>
+        <v>_userData['messageType'] = snapshot.docs[0].get('messageType');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>B8&amp;": snapshot.docs[0].get('"&amp;B8&amp;"'),"</f>
+        <v>messageType: snapshot.docs[0].get('messageType'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>"tmpUser."&amp;B8&amp;"="&amp;B8&amp;";"</f>
+        <v>tmpUser.messageType=messageType;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f>B8&amp;","</f>
+        <v>messageType,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f>B8&amp;": "&amp;B8&amp;","</f>
+        <v>messageType: messageType,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f>IF(D8="late","required ","")&amp;C8&amp;" "&amp;B8&amp;","</f>
+        <v>required String messageType,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f>"_userData['"&amp;B8&amp;"'] =tmpUser!."&amp;B8&amp;";"</f>
+        <v>_userData['messageType'] =tmpUser!.messageType;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10:G19" si="11">"this."&amp;B10&amp;","</f>
+        <v>this.referDocId,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H22" si="12">B10&amp;":"&amp;B10&amp;","</f>
+        <v>referDocId:referDocId,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" ref="I10:I19" si="13">C10&amp;" "&amp;B10&amp;";"</f>
+        <v>String referDocId;</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f>"returnMap['"&amp;B8&amp;"']=snapshot.get('"&amp;B8&amp;"');"</f>
+        <v>returnMap['messageType']=snapshot.get('messageType');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" ref="K10:K46" si="14">"_userData['"&amp;B10&amp;"'] = snapshot.docs[0].get('"&amp;B10&amp;"');"</f>
+        <v>_userData['referDocId'] = snapshot.docs[0].get('referDocId');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" ref="L10:L46" si="15">B10&amp;": snapshot.docs[0].get('"&amp;B10&amp;"'),"</f>
+        <v>referDocId: snapshot.docs[0].get('referDocId'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" ref="M10:M46" si="16">"tmpUser."&amp;B10&amp;"="&amp;B10&amp;";"</f>
+        <v>tmpUser.referDocId=referDocId;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" ref="N10:N46" si="17">B10&amp;","</f>
+        <v>referDocId,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" ref="O10:O46" si="18">B10&amp;": "&amp;B10&amp;","</f>
+        <v>referDocId: referDocId,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" ref="P10:P22" si="19">IF(D10="late","required ","")&amp;C10&amp;" "&amp;B10&amp;","</f>
+        <v>required String referDocId,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" ref="Q10:Q46" si="20">"_userData['"&amp;B10&amp;"'] =tmpUser!."&amp;B10&amp;";"</f>
+        <v>_userData['referDocId'] =tmpUser!.referDocId;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.message,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>message:message,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String message;</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" ref="J11:J46" si="21">"returnMap['"&amp;B10&amp;"']=snapshot.get('"&amp;B10&amp;"');"</f>
+        <v>returnMap['referDocId']=snapshot.get('referDocId');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>message: snapshot.docs[0].get('message'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.message=message;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>message,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>message: message,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String message,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['message'] =tmpUser!.message;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.sendTime,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>sendTime:sendTime,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime sendTime;</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['message']=snapshot.get('message');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['sendTime'] = snapshot.docs[0].get('sendTime');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>sendTime: snapshot.docs[0].get('sendTime'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.sendTime=sendTime;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>sendTime,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>sendTime: sendTime,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime sendTime,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['sendTime'] =tmpUser!.sendTime;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertUserDocId,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertUserDocId;</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['sendTime']=snapshot.get('sendTime');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertProgramId,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertProgramId;</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertTime,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime insertTime;</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateUserDocId,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateUserDocId;</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateProgramId,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateProgramId;</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateTime,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime updateTime;</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.readableFlg,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>readableFlg:readableFlg,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>bool readableFlg;</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>deleteFlg:deleteFlg,</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>:,</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>:,</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P46" si="22">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -8168,7 +10438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
@@ -8724,7 +10994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FAAF19-976D-4E9D-B0B4-78370A71FA02}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -10822,7 +13092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
@@ -15957,9 +18227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -16935,7 +19205,7 @@
         <v>required bool readableFlg,</v>
       </c>
       <c r="Q19" s="1" t="str">
-        <f t="shared" ref="Q7:Q46" si="11">"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
+        <f t="shared" ref="Q19:Q46" si="11">"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
         <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09096993-1CC2-43BD-89D6-2C6CA854E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE045BB-EAAE-4B2C-B284-EE548A31E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="208">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1013,6 +1013,14 @@
   </si>
   <si>
     <t>callDetailDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokenId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>callTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6442,7 +6450,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -6625,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -6639,15 +6647,15 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.userDocId,</v>
+        <v>this.tokenId,</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>userDocId:userDocId,</v>
+        <v>tokenId:tokenId,</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String userDocId;</v>
+        <v>String tokenId;</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ref="J7:J8" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
@@ -6655,31 +6663,31 @@
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+        <v>_userData['tokenId'] = snapshot.docs[0].get('tokenId');</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+        <v>tokenId: snapshot.docs[0].get('tokenId'),</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.userDocId=userDocId;</v>
+        <v>tmpUser.tokenId=tokenId;</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>userDocId,</v>
+        <v>tokenId,</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>userDocId: userDocId,</v>
+        <v>tokenId: tokenId,</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String userDocId,</v>
+        <v>required String tokenId,</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" ref="Q7" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
-        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+        <v>_userData['tokenId'] =tmpUser!.tokenId;</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -6687,63 +6695,61 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>"this."&amp;B9&amp;","</f>
-        <v>this.fileNameSuffix,</v>
+        <v>this.insertUserDocId,</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>B9&amp;":"&amp;B9&amp;","</f>
-        <v>fileNameSuffix:fileNameSuffix,</v>
+        <v>insertUserDocId:insertUserDocId,</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>C9&amp;" "&amp;B9&amp;";"</f>
-        <v>String fileNameSuffix;</v>
+        <v>String insertUserDocId;</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
+        <v>returnMap['tokenId']=snapshot.get('tokenId');</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>"_userData['"&amp;B9&amp;"'] = snapshot.docs[0].get('"&amp;B9&amp;"');"</f>
-        <v>_userData['fileNameSuffix'] = snapshot.docs[0].get('fileNameSuffix');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>B9&amp;": snapshot.docs[0].get('"&amp;B9&amp;"'),"</f>
-        <v>fileNameSuffix: snapshot.docs[0].get('fileNameSuffix'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M8" s="1" t="str">
         <f>"tmpUser."&amp;B9&amp;"="&amp;B9&amp;";"</f>
-        <v>tmpUser.fileNameSuffix=fileNameSuffix;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N8" s="1" t="str">
         <f>B9&amp;","</f>
-        <v>fileNameSuffix,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="O8" s="1" t="str">
         <f>B9&amp;": "&amp;B9&amp;","</f>
-        <v>fileNameSuffix: fileNameSuffix,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P8" s="1" t="str">
         <f>IF(D9="late","required ","")&amp;C9&amp;" "&amp;B9&amp;","</f>
-        <v>required String fileNameSuffix,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="Q8" s="1" t="str">
         <f>"_userData['"&amp;B9&amp;"'] =tmpUser!."&amp;B9&amp;";"</f>
-        <v>_userData['fileNameSuffix'] =tmpUser!.fileNameSuffix;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -6751,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -6765,47 +6771,47 @@
       </c>
       <c r="G9" s="1" t="str">
         <f>"this."&amp;B8&amp;","</f>
-        <v>this.messageType,</v>
+        <v>this.callTime,</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>B8&amp;":"&amp;B8&amp;","</f>
-        <v>messageType:messageType,</v>
+        <v>callTime:callTime,</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>C8&amp;" "&amp;B8&amp;";"</f>
-        <v>String messageType;</v>
+        <v>DateTime callTime;</v>
       </c>
       <c r="J9" s="8" t="str">
         <f>"returnMap['"&amp;B9&amp;"']=snapshot.get('"&amp;B9&amp;"');"</f>
-        <v>returnMap['fileNameSuffix']=snapshot.get('fileNameSuffix');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>"_userData['"&amp;B8&amp;"'] = snapshot.docs[0].get('"&amp;B8&amp;"');"</f>
-        <v>_userData['messageType'] = snapshot.docs[0].get('messageType');</v>
+        <v>_userData['callTime'] = snapshot.docs[0].get('callTime');</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>B8&amp;": snapshot.docs[0].get('"&amp;B8&amp;"'),"</f>
-        <v>messageType: snapshot.docs[0].get('messageType'),</v>
+        <v>callTime: snapshot.docs[0].get('callTime'),</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>"tmpUser."&amp;B8&amp;"="&amp;B8&amp;";"</f>
-        <v>tmpUser.messageType=messageType;</v>
+        <v>tmpUser.callTime=callTime;</v>
       </c>
       <c r="N9" s="1" t="str">
         <f>B8&amp;","</f>
-        <v>messageType,</v>
+        <v>callTime,</v>
       </c>
       <c r="O9" s="1" t="str">
         <f>B8&amp;": "&amp;B8&amp;","</f>
-        <v>messageType: messageType,</v>
+        <v>callTime: callTime,</v>
       </c>
       <c r="P9" s="1" t="str">
         <f>IF(D8="late","required ","")&amp;C8&amp;" "&amp;B8&amp;","</f>
-        <v>required String messageType,</v>
+        <v>required DateTime callTime,</v>
       </c>
       <c r="Q9" s="1" t="str">
         <f>"_userData['"&amp;B8&amp;"'] =tmpUser!."&amp;B8&amp;";"</f>
-        <v>_userData['messageType'] =tmpUser!.messageType;</v>
+        <v>_userData['callTime'] =tmpUser!.callTime;</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -6813,7 +6819,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -6827,47 +6833,47 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" ref="G10:G19" si="11">"this."&amp;B10&amp;","</f>
-        <v>this.referDocId,</v>
+        <v>this.insertProgramId,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" ref="H10:H22" si="12">B10&amp;":"&amp;B10&amp;","</f>
-        <v>referDocId:referDocId,</v>
+        <v>insertProgramId:insertProgramId,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" ref="I10:I19" si="13">C10&amp;" "&amp;B10&amp;";"</f>
-        <v>String referDocId;</v>
+        <v>String insertProgramId;</v>
       </c>
       <c r="J10" s="8" t="str">
         <f>"returnMap['"&amp;B8&amp;"']=snapshot.get('"&amp;B8&amp;"');"</f>
-        <v>returnMap['messageType']=snapshot.get('messageType');</v>
+        <v>returnMap['callTime']=snapshot.get('callTime');</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" ref="K10:K46" si="14">"_userData['"&amp;B10&amp;"'] = snapshot.docs[0].get('"&amp;B10&amp;"');"</f>
-        <v>_userData['referDocId'] = snapshot.docs[0].get('referDocId');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" ref="L10:L46" si="15">B10&amp;": snapshot.docs[0].get('"&amp;B10&amp;"'),"</f>
-        <v>referDocId: snapshot.docs[0].get('referDocId'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" ref="M10:M46" si="16">"tmpUser."&amp;B10&amp;"="&amp;B10&amp;";"</f>
-        <v>tmpUser.referDocId=referDocId;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" ref="N10:N46" si="17">B10&amp;","</f>
-        <v>referDocId,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" ref="O10:O46" si="18">B10&amp;": "&amp;B10&amp;","</f>
-        <v>referDocId: referDocId,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" ref="P10:P22" si="19">IF(D10="late","required ","")&amp;C10&amp;" "&amp;B10&amp;","</f>
-        <v>required String referDocId,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" ref="Q10:Q46" si="20">"_userData['"&amp;B10&amp;"'] =tmpUser!."&amp;B10&amp;";"</f>
-        <v>_userData['referDocId'] =tmpUser!.referDocId;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -6875,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>71</v>
@@ -6889,47 +6895,47 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.message,</v>
+        <v>this.insertTime,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>message:message,</v>
+        <v>insertTime:insertTime,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>String message;</v>
+        <v>DateTime insertTime;</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" ref="J11:J46" si="21">"returnMap['"&amp;B10&amp;"']=snapshot.get('"&amp;B10&amp;"');"</f>
-        <v>returnMap['referDocId']=snapshot.get('referDocId');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.message=message;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>message,</v>
+        <v>insertTime,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>message: message,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required String message,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['message'] =tmpUser!.message;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -6937,10 +6943,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>71</v>
@@ -6951,47 +6957,47 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.sendTime,</v>
+        <v>this.updateUserDocId,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>sendTime:sendTime,</v>
+        <v>updateUserDocId:updateUserDocId,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>DateTime sendTime;</v>
+        <v>String updateUserDocId;</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['sendTime'] = snapshot.docs[0].get('sendTime');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>sendTime: snapshot.docs[0].get('sendTime'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.sendTime=sendTime;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>sendTime,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>sendTime: sendTime,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required DateTime sendTime,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['sendTime'] =tmpUser!.sendTime;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6999,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -7013,47 +7019,47 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.insertUserDocId,</v>
+        <v>this.updateProgramId,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>insertUserDocId:insertUserDocId,</v>
+        <v>updateProgramId:updateProgramId,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>String insertUserDocId;</v>
+        <v>String updateProgramId;</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['sendTime']=snapshot.get('sendTime');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>insertUserDocId,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required String insertUserDocId,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -7061,10 +7067,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>71</v>
@@ -7075,47 +7081,47 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.insertProgramId,</v>
+        <v>this.updateTime,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>insertProgramId:insertProgramId,</v>
+        <v>updateTime:updateTime,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>String insertProgramId;</v>
+        <v>DateTime updateTime;</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>insertProgramId,</v>
+        <v>updateTime,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required String insertProgramId,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -7123,10 +7129,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>71</v>
@@ -7137,58 +7143,58 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.insertTime,</v>
+        <v>this.readableFlg,</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>insertTime:insertTime,</v>
+        <v>readableFlg:readableFlg,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>DateTime insertTime;</v>
+        <v>bool readableFlg;</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>insertTime,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>insertTime: insertTime,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required DateTime insertTime,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>27</v>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>71</v>
@@ -7199,294 +7205,270 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.updateUserDocId,</v>
+        <v>this.deleteFlg,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>updateUserDocId:updateUserDocId,</v>
+        <v>deleteFlg:deleteFlg,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>String updateUserDocId;</v>
+        <v>bool deleteFlg;</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>updateUserDocId,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required String updateUserDocId,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.updateProgramId,</v>
+        <v>this.,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>updateProgramId:updateProgramId,</v>
+        <v>:,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>String updateProgramId;</v>
+        <v xml:space="preserve"> ;</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>updateProgramId,</v>
+        <v>,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>: ,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required String updateProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.updateTime,</v>
+        <v>this.,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>updateTime:updateTime,</v>
+        <v>:,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>DateTime updateTime;</v>
+        <v xml:space="preserve"> ;</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>updateTime,</v>
+        <v>,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>updateTime: updateTime,</v>
+        <v>: ,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required DateTime updateTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>this.readableFlg,</v>
+        <v>this.,</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>readableFlg:readableFlg,</v>
+        <v>:,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>bool readableFlg;</v>
+        <v xml:space="preserve"> ;</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>readableFlg,</v>
+        <v>,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required bool readableFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>deleteFlg:deleteFlg,</v>
+        <v>:,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>deleteFlg,</v>
+        <v>,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>required bool deleteFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q20" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7499,7 +7481,7 @@
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="21"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="14"/>
@@ -7582,7 +7564,7 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -7622,7 +7604,7 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -7666,7 +7648,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -24957,7 +24939,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE045BB-EAAE-4B2C-B284-EE548A31E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F9A8DB-3ED6-49CA-AD84-4CDDC137D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="220">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1021,6 +1021,54 @@
   </si>
   <si>
     <t>callTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetFrequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goalDeadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanMonday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanTuesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanWednesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanThursday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanFriday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanSaturday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lessonPlanSunday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timesAWeek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>continualUntilGoalDate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6448,9 +6496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10579B4E-C3CC-48E3-A6BC-F991CF50E151}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -13807,11 +13855,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -13833,6 +13881,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
@@ -13902,7 +13953,7 @@
         <v>userDocId,</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f t="shared" ref="L5:L46" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <f t="shared" ref="L5:L59" si="0">B5&amp;": "&amp;B5&amp;","</f>
         <v>userDocId: userDocId,</v>
       </c>
       <c r="M5" s="1" t="str">
@@ -15872,20 +15923,8 @@
         <f t="shared" ref="J46" si="17">"tmpUser."&amp;B46&amp;"="&amp;B46&amp;";"</f>
         <v>tmpUser.updateTime=updateTime;</v>
       </c>
-      <c r="K46" s="1" t="str">
-        <f t="shared" ref="K46" si="18">B46&amp;","</f>
-        <v>updateTime,</v>
-      </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f t="shared" ref="M46" si="19">IF(D46="late","required ","")&amp;C46&amp;" "&amp;B46&amp;","</f>
-        <v>DateTime? updateTime,</v>
-      </c>
       <c r="N46" s="1" t="str">
-        <f t="shared" ref="N46" si="20">"_userData['"&amp;B46&amp;"'] =tmpUser!."&amp;B46&amp;";"</f>
+        <f t="shared" ref="N46" si="18">"_userData['"&amp;B46&amp;"'] =tmpUser!."&amp;B46&amp;";"</f>
         <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
@@ -15921,32 +15960,364 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:13">
       <c r="A49" s="4">
         <v>44</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G49" s="1" t="str">
+        <f>"'"&amp;B49&amp;"':"&amp;B49&amp;","</f>
+        <v>'goal':goal,</v>
+      </c>
+      <c r="K49" s="1" t="str">
+        <f t="shared" ref="K49:K59" si="19">"this."&amp;B49&amp;","</f>
+        <v>this.goal,</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>goal: goal,</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f t="shared" ref="M49:M60" si="20">IF(D49="late","required ","")&amp;C49&amp;" "&amp;B49&amp;","</f>
+        <v>String? goal,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4">
+        <v>45</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="1" t="str">
+        <f t="shared" ref="G50:G59" si="21">"'"&amp;B50&amp;"':"&amp;B50&amp;","</f>
+        <v>'goalDeadline':goalDeadline,</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.goalDeadline,</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>goalDeadline: goalDeadline,</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DateTime? goalDeadline,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'continualUntilGoalDate':continualUntilGoalDate,</v>
+      </c>
+      <c r="K51" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.continualUntilGoalDate,</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>continualUntilGoalDate: continualUntilGoalDate,</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>DateTime? continualUntilGoalDate,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanMonday':lessonPlanMonday,</v>
+      </c>
+      <c r="K52" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanMonday,</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanMonday: lessonPlanMonday,</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanMonday,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanTuesday':lessonPlanTuesday,</v>
+      </c>
+      <c r="K53" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanTuesday,</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanTuesday: lessonPlanTuesday,</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanTuesday,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanWednesday':lessonPlanWednesday,</v>
+      </c>
+      <c r="K54" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanWednesday,</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanWednesday: lessonPlanWednesday,</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanWednesday,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanThursday':lessonPlanThursday,</v>
+      </c>
+      <c r="K55" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanThursday,</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanThursday: lessonPlanThursday,</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanThursday,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanFriday':lessonPlanFriday,</v>
+      </c>
+      <c r="K56" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanFriday,</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanFriday: lessonPlanFriday,</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanFriday,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanSaturday':lessonPlanSaturday,</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanSaturday,</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanSaturday: lessonPlanSaturday,</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanSaturday,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'lessonPlanSunday':lessonPlanSunday,</v>
+      </c>
+      <c r="K58" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.lessonPlanSunday,</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lessonPlanSunday: lessonPlanSunday,</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>bool? lessonPlanSunday,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'timesAWeek':timesAWeek,</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>this.timesAWeek,</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>timesAWeek: timesAWeek,</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>int? timesAWeek,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="M60" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F9A8DB-3ED6-49CA-AD84-4CDDC137D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C2829F-B722-429F-B792-DBD76DDE99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="221">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1071,6 +1071,10 @@
     <t>continualUntilGoalDate</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1:Male,2:Female,3:Others,4:Secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1287,8 +1291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1572,8 +1576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1832,8 +1836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2302,8 +2306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2595,8 +2599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3268,8 +3272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3598,8 +3602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4493,8 +4497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642051" y="5369380"/>
-          <a:ext cx="2006820" cy="2392134"/>
+          <a:off x="11631619" y="5269594"/>
+          <a:ext cx="1997749" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4991,8 +4995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5421,8 +5425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5738,8 +5742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -13858,8 +13862,8 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -13867,7 +13871,7 @@
     <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.4140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="50.9140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
@@ -14453,7 +14457,9 @@
         <v>72</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C2829F-B722-429F-B792-DBD76DDE99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0739CD-93CF-4C48-A7A2-97E03E0D7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="226">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -946,10 +946,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>senderDocId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>courseCodeListText</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1073,6 +1069,48 @@
   </si>
   <si>
     <t>1:Male,2:Female,3:Others,4:Secret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:申請中、2:否認済、3:承認済、4:取下</t>
+    <rPh sb="2" eb="4">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トリサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requestMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:yet,2:already,3:canceled</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1291,8 +1329,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5250544"/>
-          <a:ext cx="1512432" cy="2085522"/>
+          <a:off x="420689" y="5350330"/>
+          <a:ext cx="1516968" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1576,8 +1614,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11069639" y="1357087"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="11083246" y="1379765"/>
+          <a:ext cx="1361394" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1836,8 +1874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7595839" y="1268187"/>
-          <a:ext cx="2383653" cy="2088696"/>
+          <a:off x="7608086" y="1294040"/>
+          <a:ext cx="2383652" cy="2126343"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2306,8 +2344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="2628901"/>
-          <a:ext cx="2415494" cy="2088696"/>
+          <a:off x="484188" y="2681969"/>
+          <a:ext cx="2427741" cy="2126343"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2599,8 +2637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="314325"/>
-          <a:ext cx="1631589" cy="1553481"/>
+          <a:off x="487363" y="311150"/>
+          <a:ext cx="1629775" cy="1588406"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3272,8 +3310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180796" y="5199744"/>
-          <a:ext cx="1850879" cy="2091872"/>
+          <a:off x="4189868" y="5302705"/>
+          <a:ext cx="1854054" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3602,8 +3640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7288836" y="5250544"/>
-          <a:ext cx="3036719" cy="3174999"/>
+          <a:off x="7301083" y="5350330"/>
+          <a:ext cx="3030368" cy="3238499"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4497,8 +4535,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11631619" y="5269594"/>
-          <a:ext cx="1997749" cy="2342242"/>
+          <a:off x="11642051" y="5369380"/>
+          <a:ext cx="2006820" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4772,15 +4810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428627</xdr:colOff>
+      <xdr:colOff>425451</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>162662</xdr:rowOff>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>579449</xdr:colOff>
+      <xdr:colOff>579448</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>18205</xdr:rowOff>
+      <xdr:rowOff>16608</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4792,14 +4830,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="1"/>
-          <a:endCxn id="45" idx="3"/>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5035552" y="6788887"/>
-          <a:ext cx="1309697" cy="544518"/>
+        <a:xfrm flipV="1">
+          <a:off x="10331451" y="6977743"/>
+          <a:ext cx="1310604" cy="550008"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4995,8 +5033,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14983613" y="401946"/>
-          <a:ext cx="2113924" cy="2091871"/>
+          <a:off x="15010828" y="409657"/>
+          <a:ext cx="2122995" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5425,8 +5463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14631567" y="5269594"/>
-          <a:ext cx="2005998" cy="2342242"/>
+          <a:off x="14655607" y="5369380"/>
+          <a:ext cx="2016883" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5742,8 +5780,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152071" y="8726714"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="1156607" y="8899071"/>
+          <a:ext cx="1360033" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5964,6 +6002,821 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5015371</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>185059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1827438</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35832</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11906AA8-7896-E95D-7831-4D06DDBD56F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7549475" y="10006241"/>
+          <a:ext cx="2006820" cy="2398484"/>
+          <a:chOff x="8926515" y="1501775"/>
+          <a:chExt cx="920753" cy="1393308"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="81" name="グループ化 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE2D3E6-B125-B1C9-B36F-3A916F096DD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8926515" y="1752735"/>
+            <a:ext cx="920753" cy="1142348"/>
+            <a:chOff x="8437565" y="3295785"/>
+            <a:chExt cx="927103" cy="1142348"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="83" name="正方形/長方形 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0750580C-CBDD-C20F-6E45-5756A877CEB4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8437567" y="3525112"/>
+              <a:ext cx="927101" cy="913021"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>senderDocId</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>receiverDocId</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="正方形/長方形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0267084-D69F-249E-7876-E5BE6734C5D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8437565" y="3295785"/>
+              <a:ext cx="927100" cy="234318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>document</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> id</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="テキスト ボックス 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FF6A4-C0D6-196D-EAE0-0EF09C18C8F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8972550" y="1501775"/>
+            <a:ext cx="828675" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng"/>
+              <a:t>requests</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>824019</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1087414</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="コネクタ: カギ線 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E644B0-392E-4D08-ABC8-7C0C30240EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7975868" y="9165838"/>
+          <a:ext cx="1417412" cy="263395"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1309008</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1743984</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D550DBC8-3632-44F3-AC83-BDC3461B11DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037865" y="8621258"/>
+          <a:ext cx="434976" cy="280534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1087212</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533156</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B099D866-84CC-15FF-2E60-C3AAF39DEC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8816069" y="9610498"/>
+          <a:ext cx="445944" cy="280534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92760</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942973</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35832</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="96" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD04FEA1-A90E-CD6D-B69E-D3A05AE8E6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11155367" y="10003066"/>
+          <a:ext cx="2009995" cy="2401659"/>
+          <a:chOff x="8926515" y="1501775"/>
+          <a:chExt cx="920753" cy="1393308"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="97" name="グループ化 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53853C44-C525-317A-BFB6-BBAF0CAB356E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8926515" y="1752735"/>
+            <a:ext cx="920753" cy="1142348"/>
+            <a:chOff x="8437565" y="3295785"/>
+            <a:chExt cx="927103" cy="1142348"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="99" name="正方形/長方形 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042EDDD8-289F-1D4C-225B-E7D03646CA4F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8437567" y="3525112"/>
+              <a:ext cx="927101" cy="913021"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>senderDocId</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>receiverDocId</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="正方形/長方形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8299C412-7010-3B87-879E-A981DED6AC50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8437565" y="3295785"/>
+              <a:ext cx="927100" cy="234318"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>document</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> id</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="テキスト ボックス 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9723FFA-8670-7A24-93F0-30075068D8BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8972550" y="1501775"/>
+            <a:ext cx="828675" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng"/>
+              <a:t>appointments</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1097749</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>178709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="コネクタ: カギ線 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85941F6-EE59-9119-1457-F0135CE1C46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="98" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10042071" y="8558893"/>
+          <a:ext cx="2118285" cy="1444173"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6472,8 +7325,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08203125" defaultRowHeight="18"/>
@@ -6502,7 +7355,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -6543,7 +7396,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6569,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -6622,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -6685,7 +7538,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -6747,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>90</v>
@@ -13434,7 +14287,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13697,10 +14550,10 @@
         <v>170</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>32</v>
@@ -13709,7 +14562,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="11" t="s">
@@ -13722,10 +14575,10 @@
         <v>170</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>32</v>
@@ -13861,9 +14714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -13886,7 +14739,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14458,7 +15311,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
@@ -15971,7 +16824,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>42</v>
@@ -16000,7 +16853,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>74</v>
@@ -16029,7 +16882,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>74</v>
@@ -16058,7 +16911,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>73</v>
@@ -16087,7 +16940,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>73</v>
@@ -16116,7 +16969,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>73</v>
@@ -16145,7 +16998,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>73</v>
@@ -16174,7 +17027,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>73</v>
@@ -16203,7 +17056,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>73</v>
@@ -16232,7 +17085,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>73</v>
@@ -16261,7 +17114,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>43</v>
@@ -16338,9 +17191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E51DE9-62D3-481D-A3CE-4199813CB408}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -16460,7 +17313,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -16475,15 +17328,15 @@
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" ref="G6:G18" si="2">"'"&amp;B6&amp;"':,"</f>
-        <v>'senderDocId':,</v>
+        <v>'senderUserDocId':,</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
-        <v>senderDocId:senderDocId,</v>
+        <v>senderUserDocId:senderUserDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" ref="I6:I22" si="4">C6&amp;" "&amp;B6&amp;","</f>
-        <v>String senderDocId,</v>
+        <v>String senderUserDocId,</v>
       </c>
       <c r="J6" s="8" t="str">
         <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
@@ -16491,31 +17344,31 @@
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['senderDocId'] = snapshot.docs[0].get('senderDocId');</v>
+        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>senderDocId: snapshot.docs[0].get('senderDocId'),</v>
+        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpUser.senderDocId=senderDocId;</v>
+        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
-        <v>senderDocId,</v>
+        <v>senderUserDocId,</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>senderDocId: senderDocId,</v>
+        <v>senderUserDocId: senderUserDocId,</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String senderDocId,</v>
+        <v>required String senderUserDocId,</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
-        <v>_userData['senderDocId'] =tmpUser!.senderDocId;</v>
+        <v>_userData['senderUserDocId'] =tmpUser!.senderUserDocId;</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -16549,7 +17402,7 @@
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
-        <v>returnMap['senderDocId']=snapshot.get('senderDocId');</v>
+        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -16585,7 +17438,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -16647,7 +17500,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -16709,7 +17562,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -16723,15 +17576,15 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'message':,</v>
+        <v>'from':,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>message:message,</v>
+        <v>from:from,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String message,</v>
+        <v>String from,</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="9"/>
@@ -16739,31 +17592,31 @@
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+        <v>_userData['from'] = snapshot.docs[0].get('from');</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
+        <v>from: snapshot.docs[0].get('from'),</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.message=message;</v>
+        <v>tmpUser.from=from;</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>message,</v>
+        <v>from,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>message: message,</v>
+        <v>from: from,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String message,</v>
+        <v>required String from,</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['message'] =tmpUser!.message;</v>
+        <v>_userData['from'] =tmpUser!.from;</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -16771,7 +17624,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -16785,47 +17638,47 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'insertUserDocId':,</v>
+        <v>'to':,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertUserDocId:insertUserDocId,</v>
+        <v>to:to,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertUserDocId,</v>
+        <v>String to,</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
+        <v>returnMap['from']=snapshot.get('from');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['to'] = snapshot.docs[0].get('to');</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>to: snapshot.docs[0].get('to'),</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.to=to;</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertUserDocId,</v>
+        <v>to,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>to: to,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertUserDocId,</v>
+        <v>required String to,</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+        <v>_userData['to'] =tmpUser!.to;</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -16833,7 +17686,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -16841,53 +17694,55 @@
       <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'insertProgramId':,</v>
+        <v>'status':,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertProgramId:insertProgramId,</v>
+        <v>status:status,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertProgramId,</v>
+        <v>String status,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['to']=snapshot.get('to');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>status: snapshot.docs[0].get('status'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.status=status;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertProgramId,</v>
+        <v>status,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>status: status,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertProgramId,</v>
+        <v>required String status,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+        <v>_userData['status'] =tmpUser!.status;</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -16895,10 +17750,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>71</v>
@@ -16909,47 +17764,47 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'insertTime':,</v>
+        <v>'message':,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertTime:insertTime,</v>
+        <v>message:message,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime insertTime,</v>
+        <v>String message,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['status']=snapshot.get('status');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>message: snapshot.docs[0].get('message'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.message=message;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertTime,</v>
+        <v>message,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
+        <v>message: message,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime insertTime,</v>
+        <v>required String message,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+        <v>_userData['message'] =tmpUser!.message;</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -16957,7 +17812,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -16971,47 +17826,47 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'updateUserDocId':,</v>
+        <v>'insertUserDocId':,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateUserDocId:updateUserDocId,</v>
+        <v>insertUserDocId:insertUserDocId,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateUserDocId,</v>
+        <v>String insertUserDocId,</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['message']=snapshot.get('message');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateUserDocId,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateUserDocId,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -17019,7 +17874,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>67</v>
@@ -17033,47 +17888,47 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'updateProgramId':,</v>
+        <v>'insertProgramId':,</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateProgramId:updateProgramId,</v>
+        <v>insertProgramId:insertProgramId,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateProgramId,</v>
+        <v>String insertProgramId,</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateProgramId,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateProgramId,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -17081,7 +17936,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>90</v>
@@ -17095,47 +17950,47 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'updateTime':,</v>
+        <v>'insertTime':,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateTime:updateTime,</v>
+        <v>insertTime:insertTime,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime updateTime,</v>
+        <v>DateTime insertTime,</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateTime,</v>
+        <v>insertTime,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime updateTime,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -17143,10 +17998,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>71</v>
@@ -17157,47 +18012,47 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'readableFlg':,</v>
+        <v>'updateUserDocId':,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>readableFlg:readableFlg,</v>
+        <v>updateUserDocId:updateUserDocId,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool readableFlg,</v>
+        <v>String updateUserDocId,</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>readableFlg,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool readableFlg,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -17205,10 +18060,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>71</v>
@@ -17219,210 +18074,228 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>'deleteFlg':,</v>
+        <v>'updateProgramId':,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>deleteFlg:deleteFlg,</v>
+        <v>updateProgramId:updateProgramId,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool deleteFlg,</v>
+        <v>String updateProgramId,</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>deleteFlg,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool deleteFlg,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>:,</v>
+        <v>updateTime:updateTime,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,</v>
+        <v>DateTime updateTime,</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>updateTime,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>:,</v>
+        <v>readableFlg:readableFlg,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,</v>
+        <v>bool readableFlg,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="Q20" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>:,</v>
+        <v>deleteFlg:deleteFlg,</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,</v>
+        <v>bool deleteFlg,</v>
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -17439,7 +18312,7 @@
       </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
@@ -18586,9 +19459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -18629,7 +19502,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18655,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -18833,7 +19706,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -18895,7 +19768,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -19081,7 +19954,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -19095,15 +19968,15 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.message,</v>
+        <v>this.requestMessage,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>message:message,</v>
+        <v>requestMessage:requestMessage,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String message,</v>
+        <v>String requestMessage,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19111,31 +19984,31 @@
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+        <v>_userData['requestMessage'] = snapshot.docs[0].get('requestMessage');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
+        <v>requestMessage: snapshot.docs[0].get('requestMessage'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.message=message;</v>
+        <v>tmpUser.requestMessage=requestMessage;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>message,</v>
+        <v>requestMessage,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>message: message,</v>
+        <v>requestMessage: requestMessage,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String message,</v>
+        <v>required String requestMessage,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('message')</v>
+        <v>snapshot.get('requestMessage')</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -19143,7 +20016,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -19157,47 +20030,47 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertUserDocId,</v>
+        <v>this.message,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertUserDocId:insertUserDocId,</v>
+        <v>message:message,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertUserDocId,</v>
+        <v>String message,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
+        <v>returnMap['requestMessage']=snapshot.get('requestMessage');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>message: snapshot.docs[0].get('message'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.message=message;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertUserDocId,</v>
+        <v>message,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>message: message,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertUserDocId,</v>
+        <v>required String message,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertUserDocId')</v>
+        <v>snapshot.get('message')</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -19205,7 +20078,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -19213,53 +20086,55 @@
       <c r="D14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertProgramId,</v>
+        <v>this.status,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertProgramId:insertProgramId,</v>
+        <v>status:status,</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertProgramId,</v>
+        <v>String status,</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['message']=snapshot.get('message');</v>
       </c>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>status: snapshot.docs[0].get('status'),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.status=status;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertProgramId,</v>
+        <v>status,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>status: status,</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertProgramId,</v>
+        <v>required String status,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertProgramId')</v>
+        <v>snapshot.get('status')</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -19267,10 +20142,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>71</v>
@@ -19281,47 +20156,47 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertTime,</v>
+        <v>this.insertUserDocId,</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertTime:insertTime,</v>
+        <v>insertUserDocId:insertUserDocId,</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime insertTime,</v>
+        <v>String insertUserDocId,</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['status']=snapshot.get('status');</v>
       </c>
       <c r="K15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertTime,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="O15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime insertTime,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertTime')</v>
+        <v>snapshot.get('insertUserDocId')</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -19329,7 +20204,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>67</v>
@@ -19343,47 +20218,47 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateUserDocId,</v>
+        <v>this.insertProgramId,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateUserDocId:updateUserDocId,</v>
+        <v>insertProgramId:insertProgramId,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateUserDocId,</v>
+        <v>String insertProgramId,</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateUserDocId,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateUserDocId,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('updateUserDocId')</v>
+        <v>snapshot.get('insertProgramId')</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -19391,10 +20266,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>71</v>
@@ -19405,47 +20280,47 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateProgramId,</v>
+        <v>this.insertTime,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateProgramId:updateProgramId,</v>
+        <v>insertTime:insertTime,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateProgramId,</v>
+        <v>DateTime insertTime,</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateProgramId,</v>
+        <v>insertTime,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateProgramId,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('updateProgramId')</v>
+        <v>snapshot.get('insertTime')</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -19453,10 +20328,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>71</v>
@@ -19467,47 +20342,47 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateTime,</v>
+        <v>this.updateUserDocId,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateTime:updateTime,</v>
+        <v>updateUserDocId:updateUserDocId,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime updateTime,</v>
+        <v>String updateUserDocId,</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateTime,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime updateTime,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('updateTime')</v>
+        <v>snapshot.get('updateUserDocId')</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -19515,10 +20390,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>71</v>
@@ -19529,43 +20404,43 @@
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>readableFlg:readableFlg,</v>
+        <v>updateProgramId:updateProgramId,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool readableFlg,</v>
+        <v>String updateProgramId,</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>readableFlg,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool readableFlg,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" ref="Q19:Q46" si="11">"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -19573,10 +20448,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>71</v>
@@ -19587,154 +20462,166 @@
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>deleteFlg:deleteFlg,</v>
+        <v>updateTime:updateTime,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool deleteFlg,</v>
+        <v>DateTime updateTime,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>deleteFlg,</v>
+        <v>updateTime,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool deleteFlg,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="Q20" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>:,</v>
+        <v>readableFlg:readableFlg,</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,</v>
+        <v>bool readableFlg,</v>
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>:,</v>
+        <v>deleteFlg:deleteFlg,</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,</v>
+        <v>bool deleteFlg,</v>
       </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="Q22" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -19743,7 +20630,7 @@
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -19774,7 +20661,7 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -25316,7 +26203,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -25694,7 +26581,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0739CD-93CF-4C48-A7A2-97E03E0D7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD094BE3-B84B-4F58-A7B9-BFB86A8D8FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -19459,9 +19459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -28467,9 +28467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:B23"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD094BE3-B84B-4F58-A7B9-BFB86A8D8FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA0948-EBFB-433F-9A7D-DB4B613A69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -14714,9 +14714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -28467,9 +28467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAA0948-EBFB-433F-9A7D-DB4B613A69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820564C0-0C1E-4982-8A44-C9C180C2210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14715,8 +14715,8 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820564C0-0C1E-4982-8A44-C9C180C2210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462FEB84-6500-4E52-9F13-52FBD437A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="229">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1110,7 +1110,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:yet,2:already,3:canceled</t>
+    <t>1:yet,2:started,3:done,4:canceled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>senderJoinedStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receiverJoinedStatus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:yet,1:joined,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1157,15 +1169,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
@@ -1184,6 +1187,16 @@
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -1263,12 +1276,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,13 +1289,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2945,13 +2958,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>125412</xdr:colOff>
+      <xdr:colOff>407987</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>220662</xdr:rowOff>
+      <xdr:rowOff>217487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2968,8 +2981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1274762" y="1817687"/>
-          <a:ext cx="303213" cy="277813"/>
+          <a:off x="1564594" y="1945594"/>
+          <a:ext cx="303213" cy="283256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4512,13 +4525,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>582619</xdr:colOff>
+      <xdr:colOff>576317</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -4535,10 +4548,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642051" y="5369380"/>
-          <a:ext cx="2006820" cy="2392134"/>
-          <a:chOff x="8926515" y="1501775"/>
-          <a:chExt cx="920753" cy="1393308"/>
+          <a:off x="11642099" y="5369380"/>
+          <a:ext cx="2006773" cy="2392134"/>
+          <a:chOff x="8926517" y="1501775"/>
+          <a:chExt cx="920751" cy="1393308"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4554,10 +4567,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8926515" y="1752735"/>
-            <a:ext cx="920753" cy="1142348"/>
-            <a:chOff x="8437565" y="3295785"/>
-            <a:chExt cx="927103" cy="1142348"/>
+            <a:off x="8926517" y="1752735"/>
+            <a:ext cx="920751" cy="1142348"/>
+            <a:chOff x="8437567" y="3295785"/>
+            <a:chExt cx="927101" cy="1142348"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4633,39 +4646,6 @@
                 <a:t>friendUserDocId</a:t>
               </a:r>
             </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>messageType</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(call,message,voice,photo,video)</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
@@ -4681,8 +4661,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8437565" y="3295785"/>
-              <a:ext cx="927100" cy="234318"/>
+              <a:off x="8439006" y="3295785"/>
+              <a:ext cx="924195" cy="234318"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4799,212 +4779,12 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng"/>
-              <a:t>calls</a:t>
+              <a:t>callResults</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>425451</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579448</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>16608</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="コネクタ: カギ線 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCF65DC-A3AD-45B6-A4CA-53F77D9176F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10331451" y="6977743"/>
-          <a:ext cx="1310604" cy="550008"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>539751</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>988870</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="テキスト ボックス 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD7C6CA-D097-47F3-AB19-8EF2830490CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153026" y="6189662"/>
-          <a:ext cx="445944" cy="277813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>492127</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="テキスト ボックス 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B34006-40CE-444A-9E93-17ECEBF97D79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5819776" y="6180137"/>
-          <a:ext cx="434976" cy="277813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0,1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5688,7 +5468,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" u="sng"/>
-              <a:t>chanks</a:t>
+              <a:t>chunks</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6615,6 +6395,19 @@
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>requestDocId</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -6767,15 +6560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1097749</xdr:colOff>
+      <xdr:colOff>1094574</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>178709</xdr:rowOff>
+      <xdr:rowOff>181884</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6792,8 +6585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10042071" y="8558893"/>
-          <a:ext cx="2118285" cy="1444173"/>
+          <a:off x="10327821" y="8269968"/>
+          <a:ext cx="1829360" cy="1736273"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6817,6 +6610,421 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1827438</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92764</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>175266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="コネクタ: カギ線 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCD7310-84C8-ABDA-6BC3-73BD079694DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="99" idx="1"/>
+          <a:endCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9556295" y="11617832"/>
+          <a:ext cx="1599076" cy="1041"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>707119</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1142095</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>193220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637992C8-7922-16E9-C1F6-B3EC1825316B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10613119" y="11121797"/>
+          <a:ext cx="434976" cy="283709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1930855</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>167141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202831</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>213178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3541C13D-42E0-5614-5B4D-64732E6B9A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9659712" y="11148105"/>
+          <a:ext cx="449119" cy="277359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>946148</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="コネクタ: カギ線 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E178460A-B7BE-1AF1-9426-C88054594F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="99" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10977253" y="9429723"/>
+          <a:ext cx="3856319" cy="519899"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39797"/>
+            <a:gd name="adj2" fmla="val 236971"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>696686</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAD649C-CF71-0238-ADB1-24DED17658E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14072507" y="11696473"/>
+          <a:ext cx="555171" cy="305027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570141</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1016085</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1876C578-2C4F-9335-77E0-C99BFBAC50B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12789355" y="7855176"/>
+          <a:ext cx="445944" cy="280534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7049,6 +7257,226 @@
             <a:t>処理に戻す？？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229111</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1574289</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9461</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Callout: Bent Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21115205-7201-9D7B-4910-A5F34716B65E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772536" y="4229163"/>
+          <a:ext cx="1345178" cy="599948"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>新規追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441BA5F4-ED62-C488-ACE0-AE71A221035D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="581025"/>
+          <a:ext cx="2549525" cy="587377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>ユーザごとでなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>ユーザで一つ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>会話で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>データの想定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1330325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A913713C-F3F1-7B68-A24E-A9B8C67E5601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="581025"/>
+          <a:ext cx="2549525" cy="587377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アポとレッスンのステータスを保持する</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7325,8 +7753,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08203125" defaultRowHeight="18"/>
@@ -7337,7 +7765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7474,7 +7902,7 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7537,7 +7965,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -7599,7 +8027,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -7661,7 +8089,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -7723,7 +8151,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -7785,7 +8213,7 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -7847,7 +8275,7 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -7909,7 +8337,7 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7971,7 +8399,7 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -8033,7 +8461,7 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -14302,53 +14730,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="17"/>
+      <c r="I3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -14357,23 +14785,23 @@
       <c r="H4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -14382,46 +14810,46 @@
       <c r="H5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="17"/>
+      <c r="I5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>172</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="17"/>
+      <c r="I6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -14430,23 +14858,23 @@
       <c r="H7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -14455,48 +14883,48 @@
       <c r="H8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -14505,48 +14933,48 @@
       <c r="H10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -14555,23 +14983,23 @@
       <c r="H12" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -14580,128 +15008,128 @@
       <c r="H13" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14714,9 +15142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -17193,7 +17621,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -19457,11 +19885,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -19470,7 +19898,7 @@
     <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
@@ -19487,48 +19915,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>195</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>"this."&amp;B4&amp;","</f>
+        <v>this.appointmentDocId,</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>B4&amp;":"&amp;B4&amp;","</f>
+        <v>appointmentDocId:appointmentDocId,</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>C4&amp;" "&amp;B4&amp;","</f>
+        <v>String appointmentDocId,</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"_userData['"&amp;B4&amp;"'] = snapshot.docs[0].get('"&amp;B4&amp;"');"</f>
+        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>B4&amp;": snapshot.docs[0].get('"&amp;B4&amp;"'),"</f>
+        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>"tmpUser."&amp;B4&amp;"="&amp;B4&amp;";"</f>
+        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>B4&amp;","</f>
+        <v>appointmentDocId,</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O47" si="0">B4&amp;": "&amp;B4&amp;","</f>
+        <v>appointmentDocId: appointmentDocId,</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P23" si="1">IF(D4="late","required ","")&amp;C4&amp;" "&amp;B4&amp;","</f>
+        <v>required String appointmentDocId,</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -19536,52 +20015,62 @@
       <c r="D5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="G5" s="1" t="str">
-        <f>"this."&amp;B5&amp;","</f>
-        <v>this.appointmentDocId,</v>
+        <f t="shared" ref="G5:G19" si="2">"this."&amp;B5&amp;","</f>
+        <v>this.senderUserDocId,</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>B5&amp;":"&amp;B5&amp;","</f>
-        <v>appointmentDocId:appointmentDocId,</v>
+        <f t="shared" ref="H5:H24" si="3">B5&amp;":"&amp;B5&amp;","</f>
+        <v>senderUserDocId:senderUserDocId,</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>C5&amp;" "&amp;B5&amp;","</f>
-        <v>String appointmentDocId,</v>
+        <f t="shared" ref="I5:I23" si="4">C5&amp;" "&amp;B5&amp;","</f>
+        <v>String senderUserDocId,</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f>"returnMap['"&amp;B4&amp;"']=snapshot.get('"&amp;B4&amp;"');"</f>
+        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+        <f t="shared" ref="K5:K47" si="5">"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+        <f t="shared" ref="L5:L47" si="6">B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+        <f t="shared" ref="M5:M47" si="7">"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f>B5&amp;","</f>
-        <v>appointmentDocId,</v>
+        <f t="shared" ref="N5:N47" si="8">B5&amp;","</f>
+        <v>senderUserDocId,</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f t="shared" ref="O5:O46" si="0">B5&amp;": "&amp;B5&amp;","</f>
-        <v>appointmentDocId: appointmentDocId,</v>
+        <f t="shared" si="0"/>
+        <v>senderUserDocId: senderUserDocId,</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f t="shared" ref="P5:P22" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String appointmentDocId,</v>
+        <f t="shared" si="1"/>
+        <v>required String senderUserDocId,</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f>"snapshot.get('"&amp;B5&amp;"')"</f>
+        <v>snapshot.get('senderUserDocId')</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -19590,61 +20079,60 @@
         <v>71</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="1" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G18" si="2">"this."&amp;B6&amp;","</f>
-        <v>this.senderUserDocId,</v>
+        <f t="shared" si="2"/>
+        <v>this.receiverUserDocId,</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
-        <v>senderUserDocId:senderUserDocId,</v>
+        <f t="shared" si="3"/>
+        <v>receiverUserDocId:receiverUserDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I22" si="4">C6&amp;" "&amp;B6&amp;","</f>
-        <v>String senderUserDocId,</v>
+        <f t="shared" si="4"/>
+        <v>String receiverUserDocId,</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
-        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
+        <f t="shared" ref="J6:J47" si="9">"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
+        <f t="shared" si="5"/>
+        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
+        <f t="shared" si="6"/>
+        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
+        <f t="shared" si="7"/>
+        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
-        <v>senderUserDocId,</v>
+        <f t="shared" si="8"/>
+        <v>receiverUserDocId,</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>senderUserDocId: senderUserDocId,</v>
+        <v>receiverUserDocId: receiverUserDocId,</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String senderUserDocId,</v>
+        <v>required String receiverUserDocId,</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>"snapshot.get('"&amp;B6&amp;"')"</f>
-        <v>snapshot.get('senderUserDocId')</v>
+        <f t="shared" ref="Q6:Q19" si="10">"snapshot.get('"&amp;B6&amp;"')"</f>
+        <v>snapshot.get('receiverUserDocId')</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -19658,55 +20146,55 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.receiverUserDocId,</v>
+        <v>this.courseCode,</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>receiverUserDocId:receiverUserDocId,</v>
+        <v>courseCode:courseCode,</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String receiverUserDocId,</v>
+        <v>String courseCode,</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
-        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
+        <f t="shared" si="9"/>
+        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
+        <v>_userData['courseCode'] = snapshot.docs[0].get('courseCode');</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
+        <v>courseCode: snapshot.docs[0].get('courseCode'),</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
+        <v>tmpUser.courseCode=courseCode;</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>receiverUserDocId,</v>
+        <v>courseCode,</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>receiverUserDocId: receiverUserDocId,</v>
+        <v>courseCode: courseCode,</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String receiverUserDocId,</v>
+        <v>required String courseCode,</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7:Q18" si="10">"snapshot.get('"&amp;B7&amp;"')"</f>
-        <v>snapshot.get('receiverUserDocId')</v>
+        <f t="shared" si="10"/>
+        <v>snapshot.get('courseCode')</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>67</v>
@@ -19720,55 +20208,55 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.courseCode,</v>
+        <v>this.categoryCode,</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>courseCode:courseCode,</v>
+        <v>categoryCode:categoryCode,</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String courseCode,</v>
+        <v>String categoryCode,</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
+        <v>returnMap['courseCode']=snapshot.get('courseCode');</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['courseCode'] = snapshot.docs[0].get('courseCode');</v>
+        <v>_userData['categoryCode'] = snapshot.docs[0].get('categoryCode');</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>courseCode: snapshot.docs[0].get('courseCode'),</v>
+        <v>categoryCode: snapshot.docs[0].get('categoryCode'),</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.courseCode=courseCode;</v>
+        <v>tmpUser.categoryCode=categoryCode;</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>courseCode,</v>
+        <v>categoryCode,</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>courseCode: courseCode,</v>
+        <v>categoryCode: categoryCode,</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String courseCode,</v>
+        <v>required String categoryCode,</v>
       </c>
       <c r="Q8" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('courseCode')</v>
+        <v>snapshot.get('categoryCode')</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -19782,55 +20270,55 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.categoryCode,</v>
+        <v>this.fromTime,</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>categoryCode:categoryCode,</v>
+        <v>fromTime:fromTime,</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String categoryCode,</v>
+        <v>String fromTime,</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['courseCode']=snapshot.get('courseCode');</v>
+        <v>returnMap['categoryCode']=snapshot.get('categoryCode');</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['categoryCode'] = snapshot.docs[0].get('categoryCode');</v>
+        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>categoryCode: snapshot.docs[0].get('categoryCode'),</v>
+        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.categoryCode=categoryCode;</v>
+        <v>tmpUser.fromTime=fromTime;</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>categoryCode,</v>
+        <v>fromTime,</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>categoryCode: categoryCode,</v>
+        <v>fromTime: fromTime,</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String categoryCode,</v>
+        <v>required String fromTime,</v>
       </c>
       <c r="Q9" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('categoryCode')</v>
+        <v>snapshot.get('fromTime')</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -19844,55 +20332,55 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.fromTime,</v>
+        <v>this.toTime,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>fromTime:fromTime,</v>
+        <v>toTime:toTime,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String fromTime,</v>
+        <v>String toTime,</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['categoryCode']=snapshot.get('categoryCode');</v>
+        <v>returnMap['fromTime']=snapshot.get('fromTime');</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+        <v>toTime: snapshot.docs[0].get('toTime'),</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.fromTime=fromTime;</v>
+        <v>tmpUser.toTime=toTime;</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>fromTime,</v>
+        <v>toTime,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fromTime: fromTime,</v>
+        <v>toTime: toTime,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String fromTime,</v>
+        <v>required String toTime,</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('fromTime')</v>
+        <v>snapshot.get('toTime')</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>67</v>
@@ -19906,55 +20394,55 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.toTime,</v>
+        <v>this.requestMessage,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>toTime:toTime,</v>
+        <v>requestMessage:requestMessage,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String toTime,</v>
+        <v>String requestMessage,</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['fromTime']=snapshot.get('fromTime');</v>
+        <v>returnMap['toTime']=snapshot.get('toTime');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+        <v>_userData['requestMessage'] = snapshot.docs[0].get('requestMessage');</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+        <v>requestMessage: snapshot.docs[0].get('requestMessage'),</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.toTime=toTime;</v>
+        <v>tmpUser.requestMessage=requestMessage;</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>toTime,</v>
+        <v>requestMessage,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>toTime: toTime,</v>
+        <v>requestMessage: requestMessage,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String toTime,</v>
+        <v>required String requestMessage,</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('toTime')</v>
+        <v>snapshot.get('requestMessage')</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>67</v>
@@ -19968,55 +20456,55 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.requestMessage,</v>
+        <v>this.message,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>requestMessage:requestMessage,</v>
+        <v>message:message,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String requestMessage,</v>
+        <v>String message,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['toTime']=snapshot.get('toTime');</v>
+        <v>returnMap['requestMessage']=snapshot.get('requestMessage');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['requestMessage'] = snapshot.docs[0].get('requestMessage');</v>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>requestMessage: snapshot.docs[0].get('requestMessage'),</v>
+        <v>message: snapshot.docs[0].get('message'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.requestMessage=requestMessage;</v>
+        <v>tmpUser.message=message;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>requestMessage,</v>
+        <v>message,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>requestMessage: requestMessage,</v>
+        <v>message: message,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String requestMessage,</v>
+        <v>required String message,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('requestMessage')</v>
+        <v>snapshot.get('message')</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>67</v>
@@ -20024,61 +20512,63 @@
       <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.message,</v>
+        <v>this.status,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>message:message,</v>
+        <v>status:status,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String message,</v>
+        <v>String status,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['requestMessage']=snapshot.get('requestMessage');</v>
+        <v>returnMap['message']=snapshot.get('message');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
+        <v>status: snapshot.docs[0].get('status'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.message=message;</v>
+        <v>tmpUser.status=status;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>message,</v>
+        <v>status,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>message: message,</v>
+        <v>status: status,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String message,</v>
+        <v>required String status,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('message')</v>
+        <v>snapshot.get('status')</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>67</v>
@@ -20087,62 +20577,48 @@
         <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.status,</v>
+        <v>this.senderJoinedStatus,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>status:status,</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>String status,</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
-      </c>
+        <v>senderJoinedStatus:senderJoinedStatus,</v>
+      </c>
+      <c r="J14" s="8"/>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
+        <v>_userData['senderJoinedStatus'] = snapshot.docs[0].get('senderJoinedStatus');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>status: snapshot.docs[0].get('status'),</v>
+        <v>senderJoinedStatus: snapshot.docs[0].get('senderJoinedStatus'),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.status=status;</v>
+        <v>tmpUser.senderJoinedStatus=senderJoinedStatus;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>status,</v>
+        <v>senderJoinedStatus,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>status: status,</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>required String status,</v>
+        <v>senderJoinedStatus: senderJoinedStatus,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('status')</v>
+        <v>snapshot.get('senderJoinedStatus')</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>67</v>
@@ -20150,560 +20626,544 @@
       <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="str">
+      <c r="E15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>this.insertUserDocId,</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>insertUserDocId:insertUserDocId,</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>String insertUserDocId,</v>
       </c>
-      <c r="J15" s="8" t="str">
-        <f t="shared" si="9"/>
+      <c r="J16" s="8" t="str">
+        <f>"returnMap['"&amp;B13&amp;"']=snapshot.get('"&amp;B13&amp;"');"</f>
         <v>returnMap['status']=snapshot.get('status');</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
-      <c r="L15" s="1" t="str">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
         <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="N16" s="1" t="str">
         <f t="shared" si="8"/>
         <v>insertUserDocId,</v>
       </c>
-      <c r="O15" s="1" t="str">
+      <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insertUserDocId: insertUserDocId,</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required String insertUserDocId,</v>
       </c>
-      <c r="Q15" s="1" t="str">
+      <c r="Q16" s="1" t="str">
         <f t="shared" si="10"/>
         <v>snapshot.get('insertUserDocId')</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="str">
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>this.insertProgramId,</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>insertProgramId:insertProgramId,</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>String insertProgramId,</v>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
-      <c r="K16" s="1" t="str">
+      <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
         <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="N17" s="1" t="str">
         <f t="shared" si="8"/>
         <v>insertProgramId,</v>
       </c>
-      <c r="O16" s="1" t="str">
+      <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insertProgramId: insertProgramId,</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required String insertProgramId,</v>
       </c>
-      <c r="Q16" s="1" t="str">
+      <c r="Q17" s="1" t="str">
         <f t="shared" si="10"/>
         <v>snapshot.get('insertProgramId')</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="str">
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>this.insertTime,</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>insertTime:insertTime,</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DateTime insertTime,</v>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
-      <c r="K17" s="1" t="str">
+      <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
         <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.insertTime=insertTime;</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="N18" s="1" t="str">
         <f t="shared" si="8"/>
         <v>insertTime,</v>
       </c>
-      <c r="O17" s="1" t="str">
+      <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insertTime: insertTime,</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required DateTime insertTime,</v>
       </c>
-      <c r="Q17" s="1" t="str">
+      <c r="Q18" s="1" t="str">
         <f t="shared" si="10"/>
         <v>snapshot.get('insertTime')</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>this.updateUserDocId,</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>updateUserDocId:updateUserDocId,</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
         <v>String updateUserDocId,</v>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
-      <c r="K18" s="1" t="str">
+      <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
-      <c r="L18" s="1" t="str">
+      <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
         <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="N19" s="1" t="str">
         <f t="shared" si="8"/>
         <v>updateUserDocId,</v>
       </c>
-      <c r="O18" s="1" t="str">
+      <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>updateUserDocId: updateUserDocId,</v>
       </c>
-      <c r="P18" s="1" t="str">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required String updateUserDocId,</v>
       </c>
-      <c r="Q18" s="1" t="str">
+      <c r="Q19" s="1" t="str">
         <f t="shared" si="10"/>
         <v>snapshot.get('updateUserDocId')</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="str">
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>updateProgramId:updateProgramId,</v>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>String updateProgramId,</v>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
-      <c r="K19" s="1" t="str">
+      <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
         <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="N20" s="1" t="str">
         <f t="shared" si="8"/>
         <v>updateProgramId,</v>
       </c>
-      <c r="O19" s="1" t="str">
+      <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>updateProgramId: updateProgramId,</v>
       </c>
-      <c r="P19" s="1" t="str">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required String updateProgramId,</v>
       </c>
-      <c r="Q19" s="1" t="str">
-        <f t="shared" ref="Q19:Q46" si="11">"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" ref="Q20:Q47" si="11">"_userData['"&amp;B20&amp;"'] =tmpUser!."&amp;B20&amp;";"</f>
         <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="str">
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
         <v>updateTime:updateTime,</v>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>DateTime updateTime,</v>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
-      <c r="K20" s="1" t="str">
+      <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="L21" s="1" t="str">
         <f t="shared" si="6"/>
         <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.updateTime=updateTime;</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="N21" s="1" t="str">
         <f t="shared" si="8"/>
         <v>updateTime,</v>
       </c>
-      <c r="O20" s="1" t="str">
+      <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>updateTime: updateTime,</v>
       </c>
-      <c r="P20" s="1" t="str">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required DateTime updateTime,</v>
       </c>
-      <c r="Q20" s="1" t="str">
+      <c r="Q21" s="1" t="str">
         <f t="shared" si="11"/>
         <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="str">
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>readableFlg:readableFlg,</v>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>bool readableFlg,</v>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
-      <c r="K21" s="1" t="str">
+      <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
-      <c r="L21" s="1" t="str">
+      <c r="L22" s="1" t="str">
         <f t="shared" si="6"/>
         <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="N22" s="1" t="str">
         <f t="shared" si="8"/>
         <v>readableFlg,</v>
       </c>
-      <c r="O21" s="1" t="str">
+      <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>readableFlg: readableFlg,</v>
       </c>
-      <c r="P21" s="1" t="str">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required bool readableFlg,</v>
       </c>
-      <c r="Q21" s="1" t="str">
+      <c r="Q22" s="1" t="str">
         <f t="shared" si="11"/>
         <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="str">
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="str">
         <f t="shared" si="3"/>
         <v>deleteFlg:deleteFlg,</v>
       </c>
-      <c r="I22" s="1" t="str">
+      <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>bool deleteFlg,</v>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
-      <c r="K22" s="1" t="str">
+      <c r="K23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="L23" s="1" t="str">
         <f t="shared" si="6"/>
         <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="M23" s="1" t="str">
         <f t="shared" si="7"/>
         <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="N23" s="1" t="str">
         <f t="shared" si="8"/>
         <v>deleteFlg,</v>
       </c>
-      <c r="O22" s="1" t="str">
+      <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>deleteFlg: deleteFlg,</v>
       </c>
-      <c r="P22" s="1" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>required bool deleteFlg,</v>
       </c>
-      <c r="Q22" s="1" t="str">
+      <c r="Q23" s="1" t="str">
         <f t="shared" si="11"/>
         <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="8" t="str">
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>requestDocId:requestDocId,</v>
+      </c>
+      <c r="J24" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>,</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="Q23" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
+        <v>_userData['requestDocId'] = snapshot.docs[0].get('requestDocId');</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>: snapshot.docs[0].get(''),</v>
+        <v>requestDocId: snapshot.docs[0].get('requestDocId'),</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.=;</v>
+        <v>tmpUser.requestDocId=requestDocId;</v>
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>,</v>
+        <v>requestDocId,</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>: ,</v>
-      </c>
-      <c r="P24" s="1" t="str">
-        <f t="shared" ref="P24:P46" si="12">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
-        <v xml:space="preserve"> ,</v>
+        <v>requestDocId: requestDocId,</v>
       </c>
       <c r="Q24" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData[''] =tmpUser!.;</v>
+        <v>_userData['requestDocId'] =tmpUser!.requestDocId;</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -20714,7 +21174,7 @@
       </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['']=snapshot.get('');</v>
+        <v>returnMap['requestDocId']=snapshot.get('requestDocId');</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="5"/>
@@ -20737,7 +21197,7 @@
         <v>: ,</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="P25:P47" si="12">IF(D25="late","required ","")&amp;C25&amp;" "&amp;B25&amp;","</f>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q25" s="1" t="str">
@@ -20747,7 +21207,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -20791,9 +21251,9 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -20835,7 +21295,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="4"/>
@@ -20879,7 +21339,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
@@ -20923,7 +21383,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="4"/>
@@ -20967,9 +21427,9 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -21011,7 +21471,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -21055,7 +21515,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -21099,7 +21559,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -21143,7 +21603,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -21187,7 +21647,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -21231,7 +21691,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -21275,7 +21735,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -21319,7 +21779,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -21363,7 +21823,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -21407,7 +21867,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -21451,7 +21911,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -21495,7 +21955,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -21539,7 +21999,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -21583,7 +22043,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -21627,7 +22087,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -21671,7 +22131,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -21680,10 +22140,42 @@
       <c r="F47" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P47" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -21695,7 +22187,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -21706,19 +22198,31 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -21726,6 +22230,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28528,19 +29033,19 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>70</v>
       </c>
       <c r="G5" s="1" t="str">
@@ -28581,15 +29086,15 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -28637,19 +29142,19 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
@@ -28695,19 +29200,19 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="52.5">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>190</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -28755,19 +29260,19 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
@@ -28813,17 +29318,17 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
@@ -28869,17 +29374,17 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
@@ -28925,17 +29430,17 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
@@ -28981,19 +29486,19 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
@@ -29039,19 +29544,19 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
@@ -29097,19 +29602,19 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
@@ -29155,19 +29660,19 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
@@ -29213,19 +29718,19 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
@@ -29271,19 +29776,19 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
@@ -29329,19 +29834,19 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
@@ -29387,19 +29892,19 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>15</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
@@ -29445,19 +29950,19 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
@@ -29503,19 +30008,19 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>17</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
@@ -29561,19 +30066,19 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>18</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
@@ -29607,19 +30112,19 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>19</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
@@ -29653,19 +30158,19 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>20</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
@@ -29699,19 +30204,19 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
@@ -29745,19 +30250,19 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>22</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
@@ -29791,19 +30296,19 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>23</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
@@ -29837,19 +30342,19 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>24</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1" t="s">
         <v>32</v>
       </c>
@@ -29883,19 +30388,19 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>25</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
@@ -29929,19 +30434,19 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>26</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>32</v>
       </c>
@@ -29975,13 +30480,13 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>27</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>32</v>
       </c>
@@ -30015,13 +30520,13 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>28</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1" t="s">
         <v>32</v>
       </c>
@@ -30055,13 +30560,13 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>29</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1" t="s">
         <v>32</v>
       </c>
@@ -30095,13 +30600,13 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>30</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1" t="s">
         <v>32</v>
       </c>
@@ -30135,13 +30640,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>31</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>32</v>
       </c>
@@ -30175,13 +30680,13 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="13">
-        <v>32</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="12">
+        <v>32</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
@@ -30215,13 +30720,13 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>33</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>32</v>
       </c>
@@ -30255,13 +30760,13 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>34</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1" t="s">
         <v>32</v>
       </c>
@@ -30295,13 +30800,13 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>35</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1" t="s">
         <v>32</v>
       </c>
@@ -30335,43 +30840,43 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>36</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>37</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>38</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462FEB84-6500-4E52-9F13-52FBD437A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3567E6BC-18F6-4899-B113-042FA5AAAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="91320" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="master values" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7362,19 +7363,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -7453,19 +7452,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -19889,7 +19886,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,28 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3567E6BC-18F6-4899-B113-042FA5AAAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4339AA-0614-43F8-BB88-088FB1A8788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91320" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
     <sheet name="一覧" sheetId="21" r:id="rId2"/>
     <sheet name="users" sheetId="1" r:id="rId3"/>
     <sheet name="requests" sheetId="22" r:id="rId4"/>
-    <sheet name="appointments" sheetId="23" r:id="rId5"/>
-    <sheet name="friends" sheetId="11" r:id="rId6"/>
-    <sheet name="chatHeaders" sheetId="17" r:id="rId7"/>
-    <sheet name="chatDetails" sheetId="18" r:id="rId8"/>
-    <sheet name="events" sheetId="9" r:id="rId9"/>
-    <sheet name="callDetails" sheetId="24" r:id="rId10"/>
-    <sheet name="topics" sheetId="8" r:id="rId11"/>
-    <sheet name="setting values" sheetId="5" r:id="rId12"/>
-    <sheet name="master" sheetId="15" r:id="rId13"/>
-    <sheet name="master values" sheetId="19" r:id="rId14"/>
+    <sheet name="lessonResults" sheetId="25" r:id="rId5"/>
+    <sheet name="appointments" sheetId="23" r:id="rId6"/>
+    <sheet name="friends" sheetId="11" r:id="rId7"/>
+    <sheet name="chatHeaders" sheetId="17" r:id="rId8"/>
+    <sheet name="chatDetails" sheetId="18" r:id="rId9"/>
+    <sheet name="events" sheetId="9" r:id="rId10"/>
+    <sheet name="callDetails" sheetId="24" r:id="rId11"/>
+    <sheet name="topics" sheetId="8" r:id="rId12"/>
+    <sheet name="setting values" sheetId="5" r:id="rId13"/>
+    <sheet name="master" sheetId="15" r:id="rId14"/>
+    <sheet name="master values" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="233">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1111,10 +1111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1:yet,2:started,3:done,4:canceled</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>senderJoinedStatus</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1124,6 +1120,26 @@
   </si>
   <si>
     <t>0:yet,1:joined,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:yet,2:any joined,3:started,4:done,5:canceled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doneTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>results</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startDate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1267,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1298,6 +1314,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,8 +1360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1628,8 +1645,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1888,8 +1905,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2358,8 +2375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2651,8 +2668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3324,8 +3341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3654,8 +3671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4549,8 +4566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642099" y="5369380"/>
-          <a:ext cx="2006773" cy="2392134"/>
+          <a:off x="11625317" y="5269594"/>
+          <a:ext cx="2004052" cy="2342242"/>
           <a:chOff x="8926517" y="1501775"/>
           <a:chExt cx="920751" cy="1393308"/>
         </a:xfrm>
@@ -4814,8 +4831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5244,8 +5261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5561,8 +5578,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5811,8 +5828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7549475" y="10006241"/>
-          <a:ext cx="2006820" cy="2398484"/>
+          <a:off x="7537228" y="9818916"/>
+          <a:ext cx="2009996" cy="2345416"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -6296,8 +6313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11155367" y="10003066"/>
-          <a:ext cx="2009995" cy="2401659"/>
+          <a:off x="11141760" y="9815741"/>
+          <a:ext cx="2002284" cy="2348591"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -7270,67 +7287,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>229111</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66738</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1574289</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9461</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Callout: Bent Line 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21115205-7201-9D7B-4910-A5F34716B65E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772536" y="4229163"/>
-          <a:ext cx="1345178" cy="599948"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>新規追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1990725</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -7775,6 +7731,1937 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="59.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="9" width="19.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.58203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="61.08203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5" si="0">"'"&amp;B5&amp;"':,"</f>
+        <v>'eventDocId':,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"this."&amp;B5&amp;","</f>
+        <v>this.eventDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>D5&amp;" "&amp;C5&amp;" "&amp;B5&amp;";"</f>
+        <v>late String eventDocId;</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['eventDocId'] = snapshot.docs[0].get('eventDocId');</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>eventDocId: snapshot.docs[0].get('eventDocId'),</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>"tmpEvent."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpEvent.eventDocId=eventDocId;</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>eventDocId,</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" ref="N5:N40" si="1">B5&amp;": "&amp;B5&amp;","</f>
+        <v>eventDocId: eventDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String eventDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>"'"&amp;B6&amp;"':,"</f>
+        <v>'userDocId':,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H22" si="2">"this."&amp;B6&amp;","</f>
+        <v>this.userDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I22" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
+        <v xml:space="preserve">  userDocId;</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" ref="J6:J40" si="4">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K40" si="5">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L20" si="6">"tmpEvent."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpEvent.userDocId=userDocId;</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M40" si="7">B6&amp;","</f>
+        <v>userDocId,</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>userDocId: userDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" ref="O6:O40" si="8">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
+        <v xml:space="preserve"> userDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ref="G7:G22" si="9">"'"&amp;B7&amp;"':,"</f>
+        <v>'eventName':,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.eventName,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late String eventName;</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['eventName'] = snapshot.docs[0].get('eventName');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>eventName: snapshot.docs[0].get('eventName'),</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.eventName=eventName;</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>eventName,</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>eventName: eventName,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String eventName,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" ref="P7:P40" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['eventName'] =tmpUser!.eventName;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="52.5">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'eventType':,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.eventType,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late String eventType;</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['eventType'] = snapshot.docs[0].get('eventType');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>eventType: snapshot.docs[0].get('eventType'),</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.eventType=eventType;</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>eventType,</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>eventType: eventType,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String eventType,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['eventType'] =tmpUser!.eventType;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'friendUserDocId':,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.friendUserDocId,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late String friendUserDocId;</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['friendUserDocId'] = snapshot.docs[0].get('friendUserDocId');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>friendUserDocId: snapshot.docs[0].get('friendUserDocId'),</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.friendUserDocId=friendUserDocId;</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>friendUserDocId,</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>friendUserDocId: friendUserDocId,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String friendUserDocId,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['friendUserDocId'] =tmpUser!.friendUserDocId;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'callChannelId':,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.callChannelId,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> String? callChannelId;</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['callChannelId'] = snapshot.docs[0].get('callChannelId');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>callChannelId: snapshot.docs[0].get('callChannelId'),</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.callChannelId=callChannelId;</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>callChannelId,</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>callChannelId: callChannelId,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>String? callChannelId,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['callChannelId'] =tmpUser!.callChannelId;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="12">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'fromTime':,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.fromTime,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DateTime? fromTime;</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.fromTime=fromTime;</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>fromTime,</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>fromTime: fromTime,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DateTime? fromTime,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['fromTime'] =tmpUser!.fromTime;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'toTime':,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.toTime,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> DateTime? toTime;</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.toTime=toTime;</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>toTime,</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>toTime: toTime,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>DateTime? toTime,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['toTime'] =tmpUser!.toTime;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'isAllDay':,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.isAllDay,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool isAllDay;</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['isAllDay'] = snapshot.docs[0].get('isAllDay');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>isAllDay: snapshot.docs[0].get('isAllDay'),</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.isAllDay=isAllDay;</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>isAllDay,</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>isAllDay: isAllDay,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool isAllDay,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['isAllDay'] =tmpUser!.isAllDay;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'repeat':,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.repeat,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool repeat;</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['repeat'] = snapshot.docs[0].get('repeat');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>repeat: snapshot.docs[0].get('repeat'),</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.repeat=repeat;</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>repeat,</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>repeat: repeat,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool repeat,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['repeat'] =tmpUser!.repeat;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="12">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'monday':,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.monday,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool monday;</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['monday'] = snapshot.docs[0].get('monday');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>monday: snapshot.docs[0].get('monday'),</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.monday=monday;</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>monday,</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>monday: monday,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool monday,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['monday'] =tmpUser!.monday;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="12">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'tuesday':,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.tuesday,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool tuesday;</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['tuesday'] = snapshot.docs[0].get('tuesday');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>tuesday: snapshot.docs[0].get('tuesday'),</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.tuesday=tuesday;</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tuesday,</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>tuesday: tuesday,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool tuesday,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['tuesday'] =tmpUser!.tuesday;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="12">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'wednesday':,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.wednesday,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool wednesday;</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['wednesday'] = snapshot.docs[0].get('wednesday');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>wednesday: snapshot.docs[0].get('wednesday'),</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.wednesday=wednesday;</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>wednesday,</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wednesday: wednesday,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool wednesday,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['wednesday'] =tmpUser!.wednesday;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'thursday':,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.thursday,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool thursday;</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['thursday'] = snapshot.docs[0].get('thursday');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>thursday: snapshot.docs[0].get('thursday'),</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.thursday=thursday;</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>thursday,</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>thursday: thursday,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool thursday,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['thursday'] =tmpUser!.thursday;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="12">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'friday':,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.friday,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool friday;</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['friday'] = snapshot.docs[0].get('friday');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>friday: snapshot.docs[0].get('friday'),</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.friday=friday;</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>friday,</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>friday: friday,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool friday,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['friday'] =tmpUser!.friday;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="12">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'saturday':,</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.saturday,</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool saturday;</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['saturday'] = snapshot.docs[0].get('saturday');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>saturday: snapshot.docs[0].get('saturday'),</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>tmpEvent.saturday=saturday;</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>saturday,</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>saturday: saturday,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool saturday,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['saturday'] =tmpUser!.saturday;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="12">
+        <v>16</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'sunday':,</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.sunday,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late bool sunday;</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['sunday'] = snapshot.docs[0].get('sunday');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>sunday: snapshot.docs[0].get('sunday'),</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" ref="L21:L40" si="11">"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
+        <v>tmpUser.sunday=sunday;</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>sunday,</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sunday: sunday,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool sunday,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['sunday'] =tmpUser!.sunday;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="12">
+        <v>17</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>'description':,</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.description,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>late String description;</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['description'] = snapshot.docs[0].get('description');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>description: snapshot.docs[0].get('description'),</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.description=description;</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>description,</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>description: description,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String description,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['description'] =tmpUser!.description;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="12">
+        <v>18</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['recurrenceRule'] = snapshot.docs[0].get('recurrenceRule');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>recurrenceRule: snapshot.docs[0].get('recurrenceRule'),</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.recurrenceRule=recurrenceRule;</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>recurrenceRule,</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>recurrenceRule: recurrenceRule,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool recurrenceRule,</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['recurrenceRule'] =tmpUser!.recurrenceRule;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="12">
+        <v>19</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="12">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="12">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="12">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="12">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="12">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="12">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="12">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="12">
+        <v>27</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="12">
+        <v>28</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="12">
+        <v>29</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="12">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="12">
+        <v>31</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="12">
+        <v>32</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="12">
+        <v>33</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="12">
+        <v>34</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="12">
+        <v>35</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>: ,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="12">
+        <v>36</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="12">
+        <v>37</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="12">
+        <v>38</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="12">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10579B4E-C3CC-48E3-A6BC-F991CF50E151}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -10002,7 +11889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -11750,7 +13637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
@@ -12306,7 +14193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FAAF19-976D-4E9D-B0B4-78370A71FA02}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -14404,7 +16291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
@@ -19881,12 +21768,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ACC560-661C-457B-AEB3-EE5D6DFA8B5A}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -19895,7 +21782,7 @@
     <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="36.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
@@ -19925,7 +21812,7 @@
     </row>
     <row r="2" spans="1:17" ht="38.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -19951,7 +21838,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>67</v>
@@ -19964,39 +21851,39 @@
       </c>
       <c r="G4" s="1" t="str">
         <f>"this."&amp;B4&amp;","</f>
-        <v>this.appointmentDocId,</v>
+        <v>this.userDocId,</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>B4&amp;":"&amp;B4&amp;","</f>
-        <v>appointmentDocId:appointmentDocId,</v>
+        <v>userDocId:userDocId,</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>C4&amp;" "&amp;B4&amp;","</f>
-        <v>String appointmentDocId,</v>
+        <v>String userDocId,</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"_userData['"&amp;B4&amp;"'] = snapshot.docs[0].get('"&amp;B4&amp;"');"</f>
-        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
       </c>
       <c r="L4" s="1" t="str">
         <f>B4&amp;": snapshot.docs[0].get('"&amp;B4&amp;"'),"</f>
-        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
       </c>
       <c r="M4" s="1" t="str">
         <f>"tmpUser."&amp;B4&amp;"="&amp;B4&amp;";"</f>
-        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+        <v>tmpUser.userDocId=userDocId;</v>
       </c>
       <c r="N4" s="1" t="str">
         <f>B4&amp;","</f>
-        <v>appointmentDocId,</v>
+        <v>userDocId,</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" ref="O4:O47" si="0">B4&amp;": "&amp;B4&amp;","</f>
-        <v>appointmentDocId: appointmentDocId,</v>
+        <v>userDocId: userDocId,</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" ref="P4:P23" si="1">IF(D4="late","required ","")&amp;C4&amp;" "&amp;B4&amp;","</f>
-        <v>required String appointmentDocId,</v>
+        <v>required String userDocId,</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -20004,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>67</v>
@@ -20019,47 +21906,47 @@
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" ref="G5:G19" si="2">"this."&amp;B5&amp;","</f>
-        <v>this.senderUserDocId,</v>
+        <v>this.startDate,</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H24" si="3">B5&amp;":"&amp;B5&amp;","</f>
-        <v>senderUserDocId:senderUserDocId,</v>
+        <f t="shared" ref="H5:H26" si="3">B5&amp;":"&amp;B5&amp;","</f>
+        <v>startDate:startDate,</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" ref="I5:I23" si="4">C5&amp;" "&amp;B5&amp;","</f>
-        <v>String senderUserDocId,</v>
+        <v>String startDate,</v>
       </c>
       <c r="J5" s="8" t="str">
         <f>"returnMap['"&amp;B4&amp;"']=snapshot.get('"&amp;B4&amp;"');"</f>
-        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
+        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
       </c>
       <c r="K5" s="1" t="str">
         <f t="shared" ref="K5:K47" si="5">"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
+        <v>_userData['startDate'] = snapshot.docs[0].get('startDate');</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" ref="L5:L47" si="6">B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
+        <v>startDate: snapshot.docs[0].get('startDate'),</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" ref="M5:M47" si="7">"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
+        <v>tmpUser.startDate=startDate;</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" ref="N5:N47" si="8">B5&amp;","</f>
-        <v>senderUserDocId,</v>
+        <v>startDate,</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>senderUserDocId: senderUserDocId,</v>
+        <v>startDate: startDate,</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String senderUserDocId,</v>
+        <v>required String startDate,</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>"snapshot.get('"&amp;B5&amp;"')"</f>
-        <v>snapshot.get('senderUserDocId')</v>
+        <v>snapshot.get('startDate')</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -20067,7 +21954,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
@@ -20081,47 +21968,47 @@
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.receiverUserDocId,</v>
+        <v>this.insertUserDocId,</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>receiverUserDocId:receiverUserDocId,</v>
+        <v>insertUserDocId:insertUserDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String receiverUserDocId,</v>
+        <v>String insertUserDocId,</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" ref="J6:J47" si="9">"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
-        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
+        <v>returnMap['startDate']=snapshot.get('startDate');</v>
       </c>
       <c r="K6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>receiverUserDocId,</v>
+        <v>insertUserDocId,</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>receiverUserDocId: receiverUserDocId,</v>
+        <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String receiverUserDocId,</v>
+        <v>required String insertUserDocId,</v>
       </c>
       <c r="Q6" s="1" t="str">
         <f t="shared" ref="Q6:Q19" si="10">"snapshot.get('"&amp;B6&amp;"')"</f>
-        <v>snapshot.get('receiverUserDocId')</v>
+        <v>snapshot.get('insertUserDocId')</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -20129,7 +22016,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>67</v>
@@ -20143,47 +22030,47 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.courseCode,</v>
+        <v>this.insertProgramId,</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>courseCode:courseCode,</v>
+        <v>insertProgramId:insertProgramId,</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String courseCode,</v>
+        <v>String insertProgramId,</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['courseCode'] = snapshot.docs[0].get('courseCode');</v>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>courseCode: snapshot.docs[0].get('courseCode'),</v>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.courseCode=courseCode;</v>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>courseCode,</v>
+        <v>insertProgramId,</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>courseCode: courseCode,</v>
+        <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String courseCode,</v>
+        <v>required String insertProgramId,</v>
       </c>
       <c r="Q7" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('courseCode')</v>
+        <v>snapshot.get('insertProgramId')</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -20191,10 +22078,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>71</v>
@@ -20205,47 +22092,47 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.categoryCode,</v>
+        <v>this.insertTime,</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>categoryCode:categoryCode,</v>
+        <v>insertTime:insertTime,</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String categoryCode,</v>
+        <v>DateTime insertTime,</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['courseCode']=snapshot.get('courseCode');</v>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['categoryCode'] = snapshot.docs[0].get('categoryCode');</v>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>categoryCode: snapshot.docs[0].get('categoryCode'),</v>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.categoryCode=categoryCode;</v>
+        <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>categoryCode,</v>
+        <v>insertTime,</v>
       </c>
       <c r="O8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>categoryCode: categoryCode,</v>
+        <v>insertTime: insertTime,</v>
       </c>
       <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String categoryCode,</v>
+        <v>required DateTime insertTime,</v>
       </c>
       <c r="Q8" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('categoryCode')</v>
+        <v>snapshot.get('insertTime')</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -20253,7 +22140,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>67</v>
@@ -20267,47 +22154,47 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.fromTime,</v>
+        <v>this.updateUserDocId,</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>fromTime:fromTime,</v>
+        <v>updateUserDocId:updateUserDocId,</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String fromTime,</v>
+        <v>String updateUserDocId,</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['categoryCode']=snapshot.get('categoryCode');</v>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.fromTime=fromTime;</v>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>fromTime,</v>
+        <v>updateUserDocId,</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fromTime: fromTime,</v>
+        <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String fromTime,</v>
+        <v>required String updateUserDocId,</v>
       </c>
       <c r="Q9" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('fromTime')</v>
+        <v>snapshot.get('updateUserDocId')</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -20315,7 +22202,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -20329,47 +22216,47 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.toTime,</v>
+        <v>this.updateProgramId,</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>toTime:toTime,</v>
+        <v>updateProgramId:updateProgramId,</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String toTime,</v>
+        <v>String updateProgramId,</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['fromTime']=snapshot.get('fromTime');</v>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.toTime=toTime;</v>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>toTime,</v>
+        <v>updateProgramId,</v>
       </c>
       <c r="O10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>toTime: toTime,</v>
+        <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String toTime,</v>
+        <v>required String updateProgramId,</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('toTime')</v>
+        <v>snapshot.get('updateProgramId')</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -20377,10 +22264,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>71</v>
@@ -20391,47 +22278,47 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.requestMessage,</v>
+        <v>this.updateTime,</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>requestMessage:requestMessage,</v>
+        <v>updateTime:updateTime,</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String requestMessage,</v>
+        <v>DateTime updateTime,</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['toTime']=snapshot.get('toTime');</v>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['requestMessage'] = snapshot.docs[0].get('requestMessage');</v>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>requestMessage: snapshot.docs[0].get('requestMessage'),</v>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.requestMessage=requestMessage;</v>
+        <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>requestMessage,</v>
+        <v>updateTime,</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>requestMessage: requestMessage,</v>
+        <v>updateTime: updateTime,</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String requestMessage,</v>
+        <v>required DateTime updateTime,</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('requestMessage')</v>
+        <v>snapshot.get('updateTime')</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -20439,10 +22326,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>71</v>
@@ -20453,47 +22340,47 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.message,</v>
+        <v>this.readableFlg,</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>message:message,</v>
+        <v>readableFlg:readableFlg,</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String message,</v>
+        <v>bool readableFlg,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['requestMessage']=snapshot.get('requestMessage');</v>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.message=message;</v>
+        <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>message,</v>
+        <v>readableFlg,</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>message: message,</v>
+        <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String message,</v>
+        <v>required bool readableFlg,</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('message')</v>
+        <v>snapshot.get('readableFlg')</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -20501,661 +22388,589 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.status,</v>
+        <v>this.deleteFlg,</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>status:status,</v>
+        <v>deleteFlg:deleteFlg,</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String status,</v>
+        <v>bool deleteFlg,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>status: snapshot.docs[0].get('status'),</v>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.status=status;</v>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>status,</v>
+        <v>deleteFlg,</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>status: status,</v>
+        <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String status,</v>
+        <v>required bool deleteFlg,</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('status')</v>
+        <v>snapshot.get('deleteFlg')</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.senderJoinedStatus,</v>
+        <v>this.,</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>senderJoinedStatus:senderJoinedStatus,</v>
+        <v>:,</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['senderJoinedStatus'] = snapshot.docs[0].get('senderJoinedStatus');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>senderJoinedStatus: snapshot.docs[0].get('senderJoinedStatus'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.senderJoinedStatus=senderJoinedStatus;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>senderJoinedStatus,</v>
+        <v>,</v>
       </c>
       <c r="O14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>senderJoinedStatus: senderJoinedStatus,</v>
+        <v>: ,</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('senderJoinedStatus')</v>
+        <v>snapshot.get('')</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertUserDocId,</v>
+        <v>this.,</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertUserDocId:insertUserDocId,</v>
+        <v>:,</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J16" s="8" t="str">
         <f>"returnMap['"&amp;B13&amp;"']=snapshot.get('"&amp;B13&amp;"');"</f>
-        <v>returnMap['status']=snapshot.get('status');</v>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertUserDocId,</v>
+        <v>,</v>
       </c>
       <c r="O16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertUserDocId: insertUserDocId,</v>
+        <v>: ,</v>
       </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertUserDocId')</v>
+        <v>snapshot.get('')</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertProgramId,</v>
+        <v>this.,</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertProgramId:insertProgramId,</v>
+        <v>:,</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String insertProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertProgramId,</v>
+        <v>,</v>
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertProgramId: insertProgramId,</v>
+        <v>: ,</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String insertProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertProgramId')</v>
+        <v>snapshot.get('')</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.insertTime,</v>
+        <v>this.,</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>insertTime:insertTime,</v>
+        <v>:,</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime insertTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.insertTime=insertTime;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N18" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>insertTime,</v>
+        <v>,</v>
       </c>
       <c r="O18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>insertTime: insertTime,</v>
+        <v>: ,</v>
       </c>
       <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime insertTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q18" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('insertTime')</v>
+        <v>snapshot.get('')</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>this.updateUserDocId,</v>
+        <v>this.,</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateUserDocId:updateUserDocId,</v>
+        <v>:,</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateUserDocId,</v>
+        <v>,</v>
       </c>
       <c r="O19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateUserDocId: updateUserDocId,</v>
+        <v>: ,</v>
       </c>
       <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateUserDocId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q19" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>snapshot.get('updateUserDocId')</v>
+        <v>snapshot.get('')</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateProgramId:updateProgramId,</v>
+        <v>:,</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>String updateProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateProgramId,</v>
+        <v>,</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateProgramId: updateProgramId,</v>
+        <v>: ,</v>
       </c>
       <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required String updateProgramId,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q20" s="1" t="str">
         <f t="shared" ref="Q20:Q47" si="11">"_userData['"&amp;B20&amp;"'] =tmpUser!."&amp;B20&amp;";"</f>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>updateTime:updateTime,</v>
+        <v>:,</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>DateTime updateTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.updateTime=updateTime;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>updateTime,</v>
+        <v>,</v>
       </c>
       <c r="O21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>updateTime: updateTime,</v>
+        <v>: ,</v>
       </c>
       <c r="P21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required DateTime updateTime,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q21" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>readableFlg:readableFlg,</v>
+        <v>:,</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool readableFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>readableFlg,</v>
+        <v>,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>readableFlg: readableFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool readableFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q22" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>deleteFlg:deleteFlg,</v>
+        <v>:,</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>bool deleteFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>deleteFlg,</v>
+        <v>,</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>deleteFlg: deleteFlg,</v>
+        <v>: ,</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>required bool deleteFlg,</v>
+        <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q23" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>requestDocId:requestDocId,</v>
+        <v>:,</v>
       </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>_userData['requestDocId'] = snapshot.docs[0].get('requestDocId');</v>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>requestDocId: snapshot.docs[0].get('requestDocId'),</v>
+        <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>tmpUser.requestDocId=requestDocId;</v>
+        <v>tmpUser.=;</v>
       </c>
       <c r="N24" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>requestDocId,</v>
+        <v>,</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>requestDocId: requestDocId,</v>
+        <v>: ,</v>
       </c>
       <c r="Q24" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>_userData['requestDocId'] =tmpUser!.requestDocId;</v>
+        <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -21169,9 +22984,13 @@
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>:,</v>
+      </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="9"/>
-        <v>returnMap['requestDocId']=snapshot.get('requestDocId');</v>
+        <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="5"/>
@@ -21213,6 +23032,10 @@
       <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>:,</v>
+      </c>
       <c r="J26" s="8" t="str">
         <f t="shared" si="9"/>
         <v>returnMap['']=snapshot.get('');</v>
@@ -21294,7 +23117,7 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -22167,6 +23990,2432 @@
       </c>
       <c r="Q47" s="1" t="str">
         <f t="shared" si="11"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
+  <dimension ref="A1:Q51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="50.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>"this."&amp;B4&amp;","</f>
+        <v>this.appointmentDocId,</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>B4&amp;":"&amp;B4&amp;","</f>
+        <v>appointmentDocId:appointmentDocId,</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>C4&amp;" "&amp;B4&amp;","</f>
+        <v>String appointmentDocId,</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"_userData['"&amp;B4&amp;"'] = snapshot.docs[0].get('"&amp;B4&amp;"');"</f>
+        <v>_userData['appointmentDocId'] = snapshot.docs[0].get('appointmentDocId');</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>B4&amp;": snapshot.docs[0].get('"&amp;B4&amp;"'),"</f>
+        <v>appointmentDocId: snapshot.docs[0].get('appointmentDocId'),</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>"tmpUser."&amp;B4&amp;"="&amp;B4&amp;";"</f>
+        <v>tmpUser.appointmentDocId=appointmentDocId;</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f>B4&amp;","</f>
+        <v>appointmentDocId,</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O47" si="0">B4&amp;": "&amp;B4&amp;","</f>
+        <v>appointmentDocId: appointmentDocId,</v>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" ref="P4:P23" si="1">IF(D4="late","required ","")&amp;C4&amp;" "&amp;B4&amp;","</f>
+        <v>required String appointmentDocId,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G19" si="2">"this."&amp;B5&amp;","</f>
+        <v>this.senderUserDocId,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H26" si="3">B5&amp;":"&amp;B5&amp;","</f>
+        <v>senderUserDocId:senderUserDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" ref="I5:I23" si="4">C5&amp;" "&amp;B5&amp;","</f>
+        <v>String senderUserDocId,</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f>"returnMap['"&amp;B4&amp;"']=snapshot.get('"&amp;B4&amp;"');"</f>
+        <v>returnMap['appointmentDocId']=snapshot.get('appointmentDocId');</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K47" si="5">"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" ref="L5:L47" si="6">B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" ref="M5:M47" si="7">"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" ref="N5:N47" si="8">B5&amp;","</f>
+        <v>senderUserDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>senderUserDocId: senderUserDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String senderUserDocId,</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f>"snapshot.get('"&amp;B5&amp;"')"</f>
+        <v>snapshot.get('senderUserDocId')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.receiverUserDocId,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>receiverUserDocId:receiverUserDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String receiverUserDocId,</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" ref="J6:J47" si="9">"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>receiverUserDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>receiverUserDocId: receiverUserDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String receiverUserDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q19" si="10">"snapshot.get('"&amp;B6&amp;"')"</f>
+        <v>snapshot.get('receiverUserDocId')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.courseCode,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>courseCode:courseCode,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String courseCode,</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['courseCode'] = snapshot.docs[0].get('courseCode');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>courseCode: snapshot.docs[0].get('courseCode'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.courseCode=courseCode;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>courseCode,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>courseCode: courseCode,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String courseCode,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('courseCode')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.categoryCode,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>categoryCode:categoryCode,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String categoryCode,</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['courseCode']=snapshot.get('courseCode');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['categoryCode'] = snapshot.docs[0].get('categoryCode');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>categoryCode: snapshot.docs[0].get('categoryCode'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.categoryCode=categoryCode;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>categoryCode,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>categoryCode: categoryCode,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String categoryCode,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('categoryCode')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.fromTime,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>fromTime:fromTime,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String fromTime,</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['categoryCode']=snapshot.get('categoryCode');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.fromTime=fromTime;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>fromTime,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>fromTime: fromTime,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String fromTime,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('fromTime')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.toTime,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>toTime:toTime,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String toTime,</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['fromTime']=snapshot.get('fromTime');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>toTime: snapshot.docs[0].get('toTime'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.toTime=toTime;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>toTime,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>toTime: toTime,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String toTime,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('toTime')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.requestMessage,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>requestMessage:requestMessage,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String requestMessage,</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['toTime']=snapshot.get('toTime');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['requestMessage'] = snapshot.docs[0].get('requestMessage');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>requestMessage: snapshot.docs[0].get('requestMessage'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.requestMessage=requestMessage;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>requestMessage,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>requestMessage: requestMessage,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String requestMessage,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('requestMessage')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.message,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>message:message,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String message,</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['requestMessage']=snapshot.get('requestMessage');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>message: snapshot.docs[0].get('message'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.message=message;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>message,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>message: message,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String message,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('message')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.status,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>status:status,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String status,</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['message']=snapshot.get('message');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['status'] = snapshot.docs[0].get('status');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>status: snapshot.docs[0].get('status'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.status=status;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>status,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>status: status,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String status,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('status')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" ref="G14:G26" si="11">"this."&amp;B14&amp;","</f>
+        <v>this.senderJoinedStatus,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ref="H14:H26" si="12">B14&amp;":"&amp;B14&amp;","</f>
+        <v>senderJoinedStatus:senderJoinedStatus,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" ref="I14:I26" si="13">C14&amp;" "&amp;B14&amp;","</f>
+        <v>String senderJoinedStatus,</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['senderJoinedStatus'] = snapshot.docs[0].get('senderJoinedStatus');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>senderJoinedStatus: snapshot.docs[0].get('senderJoinedStatus'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.senderJoinedStatus=senderJoinedStatus;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>senderJoinedStatus,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>senderJoinedStatus: senderJoinedStatus,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>snapshot.get('senderJoinedStatus')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.receiverJoinedStatus,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>receiverJoinedStatus:receiverJoinedStatus,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String receiverJoinedStatus,</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.requestDocId,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>requestDocId:requestDocId,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String requestDocId,</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f>"returnMap['"&amp;B13&amp;"']=snapshot.get('"&amp;B13&amp;"');"</f>
+        <v>returnMap['status']=snapshot.get('status');</v>
+      </c>
+      <c r="K16" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="1" t="e">
+        <f>"snapshot.get('"&amp;#REF!&amp;"')"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.startTime,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>startTime:startTime,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime startTime,</v>
+      </c>
+      <c r="J17" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="1" t="e">
+        <f>"snapshot.get('"&amp;#REF!&amp;"')"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.doneTime,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>doneTime:doneTime,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime doneTime,</v>
+      </c>
+      <c r="J18" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="1" t="e">
+        <f>"snapshot.get('"&amp;#REF!&amp;"')"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertUserDocId,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertUserDocId,</v>
+      </c>
+      <c r="J19" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" s="1" t="e">
+        <f>"snapshot.get('"&amp;#REF!&amp;"')"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertProgramId,</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertProgramId,</v>
+      </c>
+      <c r="J20" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O20" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] =tmpUser!."&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertTime,</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime insertTime,</v>
+      </c>
+      <c r="J21" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] =tmpUser!."&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateUserDocId,</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateUserDocId,</v>
+      </c>
+      <c r="J22" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q22" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] =tmpUser!."&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateProgramId,</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateProgramId,</v>
+      </c>
+      <c r="J23" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] = snapshot.docs[0].get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="1" t="e">
+        <f>#REF!&amp;": snapshot.docs[0].get('"&amp;#REF!&amp;"'),"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="1" t="e">
+        <f>"tmpUser."&amp;#REF!&amp;"="&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N23" s="1" t="e">
+        <f>#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O23" s="1" t="e">
+        <f>#REF!&amp;": "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P23" s="1" t="e">
+        <f>IF(#REF!="late","required ","")&amp;#REF!&amp;" "&amp;#REF!&amp;","</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="1" t="e">
+        <f>"_userData['"&amp;#REF!&amp;"'] =tmpUser!."&amp;#REF!&amp;";"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateTime,</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime updateTime,</v>
+      </c>
+      <c r="J24" s="8" t="e">
+        <f>"returnMap['"&amp;#REF!&amp;"']=snapshot.get('"&amp;#REF!&amp;"');"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>"_userData['"&amp;B16&amp;"'] = snapshot.docs[0].get('"&amp;B16&amp;"');"</f>
+        <v>_userData['requestDocId'] = snapshot.docs[0].get('requestDocId');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>B16&amp;": snapshot.docs[0].get('"&amp;B16&amp;"'),"</f>
+        <v>requestDocId: snapshot.docs[0].get('requestDocId'),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f>"tmpUser."&amp;B16&amp;"="&amp;B16&amp;";"</f>
+        <v>tmpUser.requestDocId=requestDocId;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f>B16&amp;","</f>
+        <v>requestDocId,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f>B16&amp;": "&amp;B16&amp;","</f>
+        <v>requestDocId: requestDocId,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f>"_userData['"&amp;B16&amp;"'] =tmpUser!."&amp;B16&amp;";"</f>
+        <v>_userData['requestDocId'] =tmpUser!.requestDocId;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.readableFlg,</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>readableFlg:readableFlg,</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>bool readableFlg,</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f>"returnMap['"&amp;B16&amp;"']=snapshot.get('"&amp;B16&amp;"');"</f>
+        <v>returnMap['requestDocId']=snapshot.get('requestDocId');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>"_userData['"&amp;B17&amp;"'] = snapshot.docs[0].get('"&amp;B17&amp;"');"</f>
+        <v>_userData['startTime'] = snapshot.docs[0].get('startTime');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>B17&amp;": snapshot.docs[0].get('"&amp;B17&amp;"'),"</f>
+        <v>startTime: snapshot.docs[0].get('startTime'),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f>"tmpUser."&amp;B17&amp;"="&amp;B17&amp;";"</f>
+        <v>tmpUser.startTime=startTime;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f>B17&amp;","</f>
+        <v>startTime,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f>B17&amp;": "&amp;B17&amp;","</f>
+        <v>startTime: startTime,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>IF(D17="late","required ","")&amp;C17&amp;" "&amp;B17&amp;","</f>
+        <v>required DateTime startTime,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f>"_userData['"&amp;B17&amp;"'] =tmpUser!."&amp;B17&amp;";"</f>
+        <v>_userData['startTime'] =tmpUser!.startTime;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.deleteFlg,</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>deleteFlg:deleteFlg,</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>bool deleteFlg,</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f>"returnMap['"&amp;B17&amp;"']=snapshot.get('"&amp;B17&amp;"');"</f>
+        <v>returnMap['startTime']=snapshot.get('startTime');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>"_userData['"&amp;B18&amp;"'] = snapshot.docs[0].get('"&amp;B18&amp;"');"</f>
+        <v>_userData['doneTime'] = snapshot.docs[0].get('doneTime');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>B18&amp;": snapshot.docs[0].get('"&amp;B18&amp;"'),"</f>
+        <v>doneTime: snapshot.docs[0].get('doneTime'),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f>"tmpUser."&amp;B18&amp;"="&amp;B18&amp;";"</f>
+        <v>tmpUser.doneTime=doneTime;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f>B18&amp;","</f>
+        <v>doneTime,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f>B18&amp;": "&amp;B18&amp;","</f>
+        <v>doneTime: doneTime,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f>IF(D18="late","required ","")&amp;C18&amp;" "&amp;B18&amp;","</f>
+        <v>required DateTime doneTime,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f>"_userData['"&amp;B18&amp;"'] =tmpUser!."&amp;B18&amp;";"</f>
+        <v>_userData['doneTime'] =tmpUser!.doneTime;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f>"returnMap['"&amp;B18&amp;"']=snapshot.get('"&amp;B18&amp;"');"</f>
+        <v>returnMap['doneTime']=snapshot.get('doneTime');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>"_userData['"&amp;B19&amp;"'] = snapshot.docs[0].get('"&amp;B19&amp;"');"</f>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f>B19&amp;": snapshot.docs[0].get('"&amp;B19&amp;"'),"</f>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f>"tmpUser."&amp;B19&amp;"="&amp;B19&amp;";"</f>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f>B19&amp;","</f>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f>B19&amp;": "&amp;B19&amp;","</f>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f>IF(D19="late","required ","")&amp;C19&amp;" "&amp;B19&amp;","</f>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f>"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f>"returnMap['"&amp;B19&amp;"']=snapshot.get('"&amp;B19&amp;"');"</f>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>"_userData['"&amp;B20&amp;"'] = snapshot.docs[0].get('"&amp;B20&amp;"');"</f>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f>B20&amp;": snapshot.docs[0].get('"&amp;B20&amp;"'),"</f>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f>"tmpUser."&amp;B20&amp;"="&amp;B20&amp;";"</f>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f>B20&amp;","</f>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f>B20&amp;": "&amp;B20&amp;","</f>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f>IF(D20="late","required ","")&amp;C20&amp;" "&amp;B20&amp;","</f>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f>"_userData['"&amp;B20&amp;"'] =tmpUser!."&amp;B20&amp;";"</f>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f>"returnMap['"&amp;B20&amp;"']=snapshot.get('"&amp;B20&amp;"');"</f>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f>"_userData['"&amp;B21&amp;"'] = snapshot.docs[0].get('"&amp;B21&amp;"');"</f>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f>B21&amp;": snapshot.docs[0].get('"&amp;B21&amp;"'),"</f>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f>"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f>B21&amp;","</f>
+        <v>insertTime,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f>B21&amp;": "&amp;B21&amp;","</f>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f>IF(D21="late","required ","")&amp;C21&amp;" "&amp;B21&amp;","</f>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f>"_userData['"&amp;B21&amp;"'] =tmpUser!."&amp;B21&amp;";"</f>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f>"returnMap['"&amp;B21&amp;"']=snapshot.get('"&amp;B21&amp;"');"</f>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f>"_userData['"&amp;B22&amp;"'] = snapshot.docs[0].get('"&amp;B22&amp;"');"</f>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f>B22&amp;": snapshot.docs[0].get('"&amp;B22&amp;"'),"</f>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f>"tmpUser."&amp;B22&amp;"="&amp;B22&amp;";"</f>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f>B22&amp;","</f>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f>B22&amp;": "&amp;B22&amp;","</f>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f>IF(D22="late","required ","")&amp;C22&amp;" "&amp;B22&amp;","</f>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f>"_userData['"&amp;B22&amp;"'] =tmpUser!."&amp;B22&amp;";"</f>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f>"returnMap['"&amp;B22&amp;"']=snapshot.get('"&amp;B22&amp;"');"</f>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f>"_userData['"&amp;B23&amp;"'] = snapshot.docs[0].get('"&amp;B23&amp;"');"</f>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f>B23&amp;": snapshot.docs[0].get('"&amp;B23&amp;"'),"</f>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f>"tmpUser."&amp;B23&amp;"="&amp;B23&amp;";"</f>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f>B23&amp;","</f>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f>B23&amp;": "&amp;B23&amp;","</f>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f>IF(D23="late","required ","")&amp;C23&amp;" "&amp;B23&amp;","</f>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f>"_userData['"&amp;B23&amp;"'] =tmpUser!."&amp;B23&amp;";"</f>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f>"returnMap['"&amp;B23&amp;"']=snapshot.get('"&amp;B23&amp;"');"</f>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f>"_userData['"&amp;B24&amp;"'] = snapshot.docs[0].get('"&amp;B24&amp;"');"</f>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f>B24&amp;": snapshot.docs[0].get('"&amp;B24&amp;"'),"</f>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f>"tmpUser."&amp;B24&amp;"="&amp;B24&amp;";"</f>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f>B24&amp;","</f>
+        <v>updateTime,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f>B24&amp;": "&amp;B24&amp;","</f>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f>IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f>"_userData['"&amp;B24&amp;"'] =tmpUser!."&amp;B24&amp;";"</f>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f>"returnMap['"&amp;B24&amp;"']=snapshot.get('"&amp;B24&amp;"');"</f>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f>"_userData['"&amp;B25&amp;"'] = snapshot.docs[0].get('"&amp;B25&amp;"');"</f>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f>B25&amp;": snapshot.docs[0].get('"&amp;B25&amp;"'),"</f>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f>"tmpUser."&amp;B25&amp;"="&amp;B25&amp;";"</f>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f>B25&amp;","</f>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f>B25&amp;": "&amp;B25&amp;","</f>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f>IF(D25="late","required ","")&amp;C25&amp;" "&amp;B25&amp;","</f>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f>"_userData['"&amp;B25&amp;"'] =tmpUser!."&amp;B25&amp;";"</f>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f>"returnMap['"&amp;B25&amp;"']=snapshot.get('"&amp;B25&amp;"');"</f>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f>"_userData['"&amp;B26&amp;"'] = snapshot.docs[0].get('"&amp;B26&amp;"');"</f>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f>B26&amp;": snapshot.docs[0].get('"&amp;B26&amp;"'),"</f>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>"tmpUser."&amp;B26&amp;"="&amp;B26&amp;";"</f>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f>B26&amp;","</f>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f>B26&amp;": "&amp;B26&amp;","</f>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>IF(D26="late","required ","")&amp;C26&amp;" "&amp;B26&amp;","</f>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f>"_userData['"&amp;B26&amp;"'] =tmpUser!."&amp;B26&amp;";"</f>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f>"returnMap['"&amp;B26&amp;"']=snapshot.get('"&amp;B26&amp;"');"</f>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f>"_userData['"&amp;B27&amp;"'] = snapshot.docs[0].get('"&amp;B27&amp;"');"</f>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f>B27&amp;": snapshot.docs[0].get('"&amp;B27&amp;"'),"</f>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f>"tmpUser."&amp;B27&amp;"="&amp;B27&amp;";"</f>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f>B27&amp;","</f>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f>B27&amp;": "&amp;B27&amp;","</f>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f>IF(D27="late","required ","")&amp;C27&amp;" "&amp;B27&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f>"_userData['"&amp;B27&amp;"'] =tmpUser!."&amp;B27&amp;";"</f>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f>"returnMap['"&amp;B27&amp;"']=snapshot.get('"&amp;B27&amp;"');"</f>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" ref="P25:P47" si="14">IF(D36="late","required ","")&amp;C36&amp;" "&amp;B36&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" ref="Q20:Q47" si="15">"_userData['"&amp;B36&amp;"'] =tmpUser!."&amp;B36&amp;";"</f>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P47" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="15"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -22231,7 +26480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4863E95-0C2F-4B39-8BC3-6DC24B3787C7}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -24497,7 +28746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB3EBE-1512-4C38-815C-722DBF6E0391}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -26699,7 +30948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -28963,1935 +33212,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
-  <dimension ref="A1:P44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="59.9140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="9" width="19.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="61.08203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5" si="0">"'"&amp;B5&amp;"':,"</f>
-        <v>'eventDocId':,</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>"this."&amp;B5&amp;","</f>
-        <v>this.eventDocId,</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>D5&amp;" "&amp;C5&amp;" "&amp;B5&amp;";"</f>
-        <v>late String eventDocId;</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['eventDocId'] = snapshot.docs[0].get('eventDocId');</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>eventDocId: snapshot.docs[0].get('eventDocId'),</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>"tmpEvent."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpEvent.eventDocId=eventDocId;</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>B5&amp;","</f>
-        <v>eventDocId,</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" ref="N5:N40" si="1">B5&amp;": "&amp;B5&amp;","</f>
-        <v>eventDocId: eventDocId,</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f>IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String eventDocId,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>"'"&amp;B6&amp;"':,"</f>
-        <v>'userDocId':,</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H22" si="2">"this."&amp;B6&amp;","</f>
-        <v>this.userDocId,</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I22" si="3">D6&amp;" "&amp;C6&amp;" "&amp;B6&amp;";"</f>
-        <v xml:space="preserve">  userDocId;</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J40" si="4">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K40" si="5">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L20" si="6">"tmpEvent."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpEvent.userDocId=userDocId;</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" ref="M6:M40" si="7">B6&amp;","</f>
-        <v>userDocId,</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>userDocId: userDocId,</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f t="shared" ref="O6:O40" si="8">IF(D6="late","required ","")&amp;C6&amp;" "&amp;B6&amp;","</f>
-        <v xml:space="preserve"> userDocId,</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
-        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G22" si="9">"'"&amp;B7&amp;"':,"</f>
-        <v>'eventName':,</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.eventName,</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late String eventName;</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['eventName'] = snapshot.docs[0].get('eventName');</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>eventName: snapshot.docs[0].get('eventName'),</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.eventName=eventName;</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>eventName,</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>eventName: eventName,</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String eventName,</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f t="shared" ref="P7:P40" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
-        <v>_userData['eventName'] =tmpUser!.eventName;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="52.5">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'eventType':,</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.eventType,</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late String eventType;</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['eventType'] = snapshot.docs[0].get('eventType');</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>eventType: snapshot.docs[0].get('eventType'),</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.eventType=eventType;</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>eventType,</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>eventType: eventType,</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String eventType,</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['eventType'] =tmpUser!.eventType;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'friendUserDocId':,</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.friendUserDocId,</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late String friendUserDocId;</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['friendUserDocId'] = snapshot.docs[0].get('friendUserDocId');</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>friendUserDocId: snapshot.docs[0].get('friendUserDocId'),</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.friendUserDocId=friendUserDocId;</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>friendUserDocId,</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>friendUserDocId: friendUserDocId,</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String friendUserDocId,</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['friendUserDocId'] =tmpUser!.friendUserDocId;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="12">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'callChannelId':,</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.callChannelId,</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> String? callChannelId;</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['callChannelId'] = snapshot.docs[0].get('callChannelId');</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>callChannelId: snapshot.docs[0].get('callChannelId'),</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.callChannelId=callChannelId;</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>callChannelId,</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>callChannelId: callChannelId,</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>String? callChannelId,</v>
-      </c>
-      <c r="P10" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['callChannelId'] =tmpUser!.callChannelId;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="12">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'fromTime':,</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.fromTime,</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> DateTime? fromTime;</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['fromTime'] = snapshot.docs[0].get('fromTime');</v>
-      </c>
-      <c r="K11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>fromTime: snapshot.docs[0].get('fromTime'),</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.fromTime=fromTime;</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>fromTime,</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>fromTime: fromTime,</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DateTime? fromTime,</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['fromTime'] =tmpUser!.fromTime;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="12">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'toTime':,</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.toTime,</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> DateTime? toTime;</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['toTime'] = snapshot.docs[0].get('toTime');</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>toTime: snapshot.docs[0].get('toTime'),</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.toTime=toTime;</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>toTime,</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>toTime: toTime,</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>DateTime? toTime,</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['toTime'] =tmpUser!.toTime;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="12">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'isAllDay':,</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.isAllDay,</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool isAllDay;</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['isAllDay'] = snapshot.docs[0].get('isAllDay');</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>isAllDay: snapshot.docs[0].get('isAllDay'),</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.isAllDay=isAllDay;</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>isAllDay,</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>isAllDay: isAllDay,</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool isAllDay,</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['isAllDay'] =tmpUser!.isAllDay;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="12">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'repeat':,</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.repeat,</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool repeat;</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['repeat'] = snapshot.docs[0].get('repeat');</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>repeat: snapshot.docs[0].get('repeat'),</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.repeat=repeat;</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>repeat,</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>repeat: repeat,</v>
-      </c>
-      <c r="O14" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool repeat,</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['repeat'] =tmpUser!.repeat;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="12">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'monday':,</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.monday,</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool monday;</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['monday'] = snapshot.docs[0].get('monday');</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>monday: snapshot.docs[0].get('monday'),</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.monday=monday;</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>monday,</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>monday: monday,</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool monday,</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['monday'] =tmpUser!.monday;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="12">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'tuesday':,</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.tuesday,</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool tuesday;</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['tuesday'] = snapshot.docs[0].get('tuesday');</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>tuesday: snapshot.docs[0].get('tuesday'),</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.tuesday=tuesday;</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>tuesday,</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>tuesday: tuesday,</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool tuesday,</v>
-      </c>
-      <c r="P16" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['tuesday'] =tmpUser!.tuesday;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="12">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'wednesday':,</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.wednesday,</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool wednesday;</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['wednesday'] = snapshot.docs[0].get('wednesday');</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>wednesday: snapshot.docs[0].get('wednesday'),</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.wednesday=wednesday;</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>wednesday,</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wednesday: wednesday,</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool wednesday,</v>
-      </c>
-      <c r="P17" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['wednesday'] =tmpUser!.wednesday;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="12">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'thursday':,</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.thursday,</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool thursday;</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['thursday'] = snapshot.docs[0].get('thursday');</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>thursday: snapshot.docs[0].get('thursday'),</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.thursday=thursday;</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>thursday,</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>thursday: thursday,</v>
-      </c>
-      <c r="O18" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool thursday,</v>
-      </c>
-      <c r="P18" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['thursday'] =tmpUser!.thursday;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="12">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'friday':,</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.friday,</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool friday;</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['friday'] = snapshot.docs[0].get('friday');</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>friday: snapshot.docs[0].get('friday'),</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.friday=friday;</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>friday,</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>friday: friday,</v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool friday,</v>
-      </c>
-      <c r="P19" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['friday'] =tmpUser!.friday;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'saturday':,</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.saturday,</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool saturday;</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['saturday'] = snapshot.docs[0].get('saturday');</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>saturday: snapshot.docs[0].get('saturday'),</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>tmpEvent.saturday=saturday;</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>saturday,</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>saturday: saturday,</v>
-      </c>
-      <c r="O20" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool saturday,</v>
-      </c>
-      <c r="P20" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['saturday'] =tmpUser!.saturday;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'sunday':,</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.sunday,</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late bool sunday;</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['sunday'] = snapshot.docs[0].get('sunday');</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>sunday: snapshot.docs[0].get('sunday'),</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" ref="L21:L40" si="11">"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
-        <v>tmpUser.sunday=sunday;</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>sunday,</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>sunday: sunday,</v>
-      </c>
-      <c r="O21" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool sunday,</v>
-      </c>
-      <c r="P21" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['sunday'] =tmpUser!.sunday;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="12">
-        <v>17</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>'description':,</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.description,</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>late String description;</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['description'] = snapshot.docs[0].get('description');</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>description: snapshot.docs[0].get('description'),</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.description=description;</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>description,</v>
-      </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>description: description,</v>
-      </c>
-      <c r="O22" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String description,</v>
-      </c>
-      <c r="P22" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['description'] =tmpUser!.description;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="12">
-        <v>18</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['recurrenceRule'] = snapshot.docs[0].get('recurrenceRule');</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>recurrenceRule: snapshot.docs[0].get('recurrenceRule'),</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.recurrenceRule=recurrenceRule;</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>recurrenceRule,</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>recurrenceRule: recurrenceRule,</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool recurrenceRule,</v>
-      </c>
-      <c r="P23" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['recurrenceRule'] =tmpUser!.recurrenceRule;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="12">
-        <v>19</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>insertUserDocId,</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertUserDocId: insertUserDocId,</v>
-      </c>
-      <c r="O24" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String insertUserDocId,</v>
-      </c>
-      <c r="P24" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="12">
-        <v>20</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>insertProgramId,</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertProgramId: insertProgramId,</v>
-      </c>
-      <c r="O25" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String insertProgramId,</v>
-      </c>
-      <c r="P25" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="12">
-        <v>21</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.insertTime=insertTime;</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>insertTime,</v>
-      </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>insertTime: insertTime,</v>
-      </c>
-      <c r="O26" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required DateTime insertTime,</v>
-      </c>
-      <c r="P26" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="12">
-        <v>22</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
-      </c>
-      <c r="K27" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>updateUserDocId,</v>
-      </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateUserDocId: updateUserDocId,</v>
-      </c>
-      <c r="O27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String updateUserDocId,</v>
-      </c>
-      <c r="P27" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="12">
-        <v>23</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>updateProgramId,</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateProgramId: updateProgramId,</v>
-      </c>
-      <c r="O28" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required String updateProgramId,</v>
-      </c>
-      <c r="P28" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="12">
-        <v>24</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.updateTime=updateTime;</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>updateTime,</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>updateTime: updateTime,</v>
-      </c>
-      <c r="O29" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required DateTime updateTime,</v>
-      </c>
-      <c r="P29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="12">
-        <v>25</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>readableFlg,</v>
-      </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>readableFlg: readableFlg,</v>
-      </c>
-      <c r="O30" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool readableFlg,</v>
-      </c>
-      <c r="P30" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="12">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>deleteFlg,</v>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>deleteFlg: deleteFlg,</v>
-      </c>
-      <c r="O31" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>required bool deleteFlg,</v>
-      </c>
-      <c r="P31" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="12">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O32" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P32" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="12">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O33" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P33" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="12">
-        <v>29</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O34" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P34" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="12">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O35" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P35" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="12">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O36" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P36" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="12">
-        <v>32</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O37" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P37" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="12">
-        <v>33</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L38" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O38" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P38" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="12">
-        <v>34</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O39" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P39" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="12">
-        <v>35</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>,</v>
-      </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>: ,</v>
-      </c>
-      <c r="O40" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="P40" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="12">
-        <v>36</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="12">
-        <v>37</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="12">
-        <v>38</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="12">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4339AA-0614-43F8-BB88-088FB1A8788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04754A26-75F0-49F0-92D0-6AEFD33F67EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21773,7 +21773,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04754A26-75F0-49F0-92D0-6AEFD33F67EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31068D4F-3D5A-458F-B316-7858CE5D5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="91320" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
@@ -1360,8 +1360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5250544"/>
-          <a:ext cx="1512432" cy="2085522"/>
+          <a:off x="420689" y="5350330"/>
+          <a:ext cx="1516968" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1645,8 +1645,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11069639" y="1357087"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="11083246" y="1379765"/>
+          <a:ext cx="1361394" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1905,8 +1905,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7595839" y="1268187"/>
-          <a:ext cx="2383653" cy="2088696"/>
+          <a:off x="7608086" y="1294040"/>
+          <a:ext cx="2383652" cy="2126343"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2375,8 +2375,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="2628901"/>
-          <a:ext cx="2415494" cy="2088696"/>
+          <a:off x="484188" y="2681969"/>
+          <a:ext cx="2427741" cy="2126343"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2668,8 +2668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="314325"/>
-          <a:ext cx="1631589" cy="1553481"/>
+          <a:off x="487363" y="311150"/>
+          <a:ext cx="1629775" cy="1588406"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3341,8 +3341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4180796" y="5199744"/>
-          <a:ext cx="1850879" cy="2091872"/>
+          <a:off x="4189868" y="5302705"/>
+          <a:ext cx="1854054" cy="2129518"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3671,8 +3671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7288836" y="5250544"/>
-          <a:ext cx="3036719" cy="3174999"/>
+          <a:off x="7301083" y="5350330"/>
+          <a:ext cx="3030368" cy="3238499"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4566,8 +4566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11625317" y="5269594"/>
-          <a:ext cx="2004052" cy="2342242"/>
+          <a:off x="11642099" y="5369380"/>
+          <a:ext cx="2006773" cy="2392134"/>
           <a:chOff x="8926517" y="1501775"/>
           <a:chExt cx="920751" cy="1393308"/>
         </a:xfrm>
@@ -4831,8 +4831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14983613" y="401946"/>
-          <a:ext cx="2113924" cy="2091871"/>
+          <a:off x="15010828" y="409657"/>
+          <a:ext cx="2122995" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5261,8 +5261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14631567" y="5269594"/>
-          <a:ext cx="2005998" cy="2342242"/>
+          <a:off x="14655607" y="5369380"/>
+          <a:ext cx="2016883" cy="2392134"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5578,8 +5578,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152071" y="8726714"/>
-          <a:ext cx="1356858" cy="2085521"/>
+          <a:off x="1156607" y="8899071"/>
+          <a:ext cx="1360033" cy="2129517"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5828,8 +5828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7537228" y="9818916"/>
-          <a:ext cx="2009996" cy="2345416"/>
+          <a:off x="7549475" y="10006241"/>
+          <a:ext cx="2006820" cy="2398484"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -6313,8 +6313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11141760" y="9815741"/>
-          <a:ext cx="2002284" cy="2348591"/>
+          <a:off x="11155367" y="10003066"/>
+          <a:ext cx="2009995" cy="2401659"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -21771,9 +21771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ACC560-661C-457B-AEB3-EE5D6DFA8B5A}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -24168,7 +24168,7 @@
         <v>appointmentDocId: appointmentDocId,</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P23" si="1">IF(D4="late","required ","")&amp;C4&amp;" "&amp;B4&amp;","</f>
+        <f t="shared" ref="P4:P13" si="1">IF(D4="late","required ","")&amp;C4&amp;" "&amp;B4&amp;","</f>
         <v>required String appointmentDocId,</v>
       </c>
     </row>
@@ -24191,15 +24191,15 @@
         <v/>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G19" si="2">"this."&amp;B5&amp;","</f>
+        <f t="shared" ref="G5:G13" si="2">"this."&amp;B5&amp;","</f>
         <v>this.senderUserDocId,</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H26" si="3">B5&amp;":"&amp;B5&amp;","</f>
+        <f t="shared" ref="H5:H13" si="3">B5&amp;":"&amp;B5&amp;","</f>
         <v>senderUserDocId:senderUserDocId,</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" ref="I5:I23" si="4">C5&amp;" "&amp;B5&amp;","</f>
+        <f t="shared" ref="I5:I13" si="4">C5&amp;" "&amp;B5&amp;","</f>
         <v>String senderUserDocId,</v>
       </c>
       <c r="J5" s="8" t="str">
@@ -24293,7 +24293,7 @@
         <v>required String receiverUserDocId,</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q19" si="10">"snapshot.get('"&amp;B6&amp;"')"</f>
+        <f t="shared" ref="Q6:Q14" si="10">"snapshot.get('"&amp;B6&amp;"')"</f>
         <v>snapshot.get('receiverUserDocId')</v>
       </c>
     </row>
@@ -25347,27 +25347,27 @@
         <v>#REF!</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f>"_userData['"&amp;B16&amp;"'] = snapshot.docs[0].get('"&amp;B16&amp;"');"</f>
+        <f t="shared" ref="K24:K35" si="14">"_userData['"&amp;B16&amp;"'] = snapshot.docs[0].get('"&amp;B16&amp;"');"</f>
         <v>_userData['requestDocId'] = snapshot.docs[0].get('requestDocId');</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f>B16&amp;": snapshot.docs[0].get('"&amp;B16&amp;"'),"</f>
+        <f t="shared" ref="L24:L35" si="15">B16&amp;": snapshot.docs[0].get('"&amp;B16&amp;"'),"</f>
         <v>requestDocId: snapshot.docs[0].get('requestDocId'),</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f>"tmpUser."&amp;B16&amp;"="&amp;B16&amp;";"</f>
+        <f t="shared" ref="M24:M35" si="16">"tmpUser."&amp;B16&amp;"="&amp;B16&amp;";"</f>
         <v>tmpUser.requestDocId=requestDocId;</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f>B16&amp;","</f>
+        <f t="shared" ref="N24:N35" si="17">B16&amp;","</f>
         <v>requestDocId,</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>B16&amp;": "&amp;B16&amp;","</f>
+        <f t="shared" ref="O24:O35" si="18">B16&amp;": "&amp;B16&amp;","</f>
         <v>requestDocId: requestDocId,</v>
       </c>
       <c r="Q24" s="1" t="str">
-        <f>"_userData['"&amp;B16&amp;"'] =tmpUser!."&amp;B16&amp;";"</f>
+        <f t="shared" ref="Q24:Q35" si="19">"_userData['"&amp;B16&amp;"'] =tmpUser!."&amp;B16&amp;";"</f>
         <v>_userData['requestDocId'] =tmpUser!.requestDocId;</v>
       </c>
     </row>
@@ -25401,35 +25401,35 @@
         <v>bool readableFlg,</v>
       </c>
       <c r="J25" s="8" t="str">
-        <f>"returnMap['"&amp;B16&amp;"']=snapshot.get('"&amp;B16&amp;"');"</f>
+        <f t="shared" ref="J25:J36" si="20">"returnMap['"&amp;B16&amp;"']=snapshot.get('"&amp;B16&amp;"');"</f>
         <v>returnMap['requestDocId']=snapshot.get('requestDocId');</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f>"_userData['"&amp;B17&amp;"'] = snapshot.docs[0].get('"&amp;B17&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['startTime'] = snapshot.docs[0].get('startTime');</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f>B17&amp;": snapshot.docs[0].get('"&amp;B17&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>startTime: snapshot.docs[0].get('startTime'),</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f>"tmpUser."&amp;B17&amp;"="&amp;B17&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.startTime=startTime;</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f>B17&amp;","</f>
+        <f t="shared" si="17"/>
         <v>startTime,</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>B17&amp;": "&amp;B17&amp;","</f>
+        <f t="shared" si="18"/>
         <v>startTime: startTime,</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f>IF(D17="late","required ","")&amp;C17&amp;" "&amp;B17&amp;","</f>
+        <f t="shared" ref="P25:P35" si="21">IF(D17="late","required ","")&amp;C17&amp;" "&amp;B17&amp;","</f>
         <v>required DateTime startTime,</v>
       </c>
       <c r="Q25" s="1" t="str">
-        <f>"_userData['"&amp;B17&amp;"'] =tmpUser!."&amp;B17&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['startTime'] =tmpUser!.startTime;</v>
       </c>
     </row>
@@ -25463,35 +25463,35 @@
         <v>bool deleteFlg,</v>
       </c>
       <c r="J26" s="8" t="str">
-        <f>"returnMap['"&amp;B17&amp;"']=snapshot.get('"&amp;B17&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['startTime']=snapshot.get('startTime');</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f>"_userData['"&amp;B18&amp;"'] = snapshot.docs[0].get('"&amp;B18&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['doneTime'] = snapshot.docs[0].get('doneTime');</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f>B18&amp;": snapshot.docs[0].get('"&amp;B18&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>doneTime: snapshot.docs[0].get('doneTime'),</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f>"tmpUser."&amp;B18&amp;"="&amp;B18&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.doneTime=doneTime;</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f>B18&amp;","</f>
+        <f t="shared" si="17"/>
         <v>doneTime,</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>B18&amp;": "&amp;B18&amp;","</f>
+        <f t="shared" si="18"/>
         <v>doneTime: doneTime,</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f>IF(D18="late","required ","")&amp;C18&amp;" "&amp;B18&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required DateTime doneTime,</v>
       </c>
       <c r="Q26" s="1" t="str">
-        <f>"_userData['"&amp;B18&amp;"'] =tmpUser!."&amp;B18&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['doneTime'] =tmpUser!.doneTime;</v>
       </c>
     </row>
@@ -25507,35 +25507,35 @@
         <v>32</v>
       </c>
       <c r="J27" s="8" t="str">
-        <f>"returnMap['"&amp;B18&amp;"']=snapshot.get('"&amp;B18&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['doneTime']=snapshot.get('doneTime');</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f>"_userData['"&amp;B19&amp;"'] = snapshot.docs[0].get('"&amp;B19&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f>B19&amp;": snapshot.docs[0].get('"&amp;B19&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f>"tmpUser."&amp;B19&amp;"="&amp;B19&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.insertUserDocId=insertUserDocId;</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f>B19&amp;","</f>
+        <f t="shared" si="17"/>
         <v>insertUserDocId,</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>B19&amp;": "&amp;B19&amp;","</f>
+        <f t="shared" si="18"/>
         <v>insertUserDocId: insertUserDocId,</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f>IF(D19="late","required ","")&amp;C19&amp;" "&amp;B19&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required String insertUserDocId,</v>
       </c>
       <c r="Q27" s="1" t="str">
-        <f>"_userData['"&amp;B19&amp;"'] =tmpUser!."&amp;B19&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
       </c>
     </row>
@@ -25551,35 +25551,35 @@
         <v>32</v>
       </c>
       <c r="J28" s="8" t="str">
-        <f>"returnMap['"&amp;B19&amp;"']=snapshot.get('"&amp;B19&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
       </c>
       <c r="K28" s="1" t="str">
-        <f>"_userData['"&amp;B20&amp;"'] = snapshot.docs[0].get('"&amp;B20&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f>B20&amp;": snapshot.docs[0].get('"&amp;B20&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f>"tmpUser."&amp;B20&amp;"="&amp;B20&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.insertProgramId=insertProgramId;</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f>B20&amp;","</f>
+        <f t="shared" si="17"/>
         <v>insertProgramId,</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>B20&amp;": "&amp;B20&amp;","</f>
+        <f t="shared" si="18"/>
         <v>insertProgramId: insertProgramId,</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f>IF(D20="late","required ","")&amp;C20&amp;" "&amp;B20&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required String insertProgramId,</v>
       </c>
       <c r="Q28" s="1" t="str">
-        <f>"_userData['"&amp;B20&amp;"'] =tmpUser!."&amp;B20&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
       </c>
     </row>
@@ -25595,35 +25595,35 @@
         <v>32</v>
       </c>
       <c r="J29" s="8" t="str">
-        <f>"returnMap['"&amp;B20&amp;"']=snapshot.get('"&amp;B20&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
       </c>
       <c r="K29" s="1" t="str">
-        <f>"_userData['"&amp;B21&amp;"'] = snapshot.docs[0].get('"&amp;B21&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f>B21&amp;": snapshot.docs[0].get('"&amp;B21&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f>"tmpUser."&amp;B21&amp;"="&amp;B21&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.insertTime=insertTime;</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f>B21&amp;","</f>
+        <f t="shared" si="17"/>
         <v>insertTime,</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>B21&amp;": "&amp;B21&amp;","</f>
+        <f t="shared" si="18"/>
         <v>insertTime: insertTime,</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f>IF(D21="late","required ","")&amp;C21&amp;" "&amp;B21&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required DateTime insertTime,</v>
       </c>
       <c r="Q29" s="1" t="str">
-        <f>"_userData['"&amp;B21&amp;"'] =tmpUser!."&amp;B21&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
       </c>
     </row>
@@ -25639,35 +25639,35 @@
         <v>32</v>
       </c>
       <c r="J30" s="8" t="str">
-        <f>"returnMap['"&amp;B21&amp;"']=snapshot.get('"&amp;B21&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f>"_userData['"&amp;B22&amp;"'] = snapshot.docs[0].get('"&amp;B22&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f>B22&amp;": snapshot.docs[0].get('"&amp;B22&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f>"tmpUser."&amp;B22&amp;"="&amp;B22&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.updateUserDocId=updateUserDocId;</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f>B22&amp;","</f>
+        <f t="shared" si="17"/>
         <v>updateUserDocId,</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>B22&amp;": "&amp;B22&amp;","</f>
+        <f t="shared" si="18"/>
         <v>updateUserDocId: updateUserDocId,</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>IF(D22="late","required ","")&amp;C22&amp;" "&amp;B22&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required String updateUserDocId,</v>
       </c>
       <c r="Q30" s="1" t="str">
-        <f>"_userData['"&amp;B22&amp;"'] =tmpUser!."&amp;B22&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
       </c>
     </row>
@@ -25683,35 +25683,35 @@
         <v>32</v>
       </c>
       <c r="J31" s="8" t="str">
-        <f>"returnMap['"&amp;B22&amp;"']=snapshot.get('"&amp;B22&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
       </c>
       <c r="K31" s="1" t="str">
-        <f>"_userData['"&amp;B23&amp;"'] = snapshot.docs[0].get('"&amp;B23&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f>B23&amp;": snapshot.docs[0].get('"&amp;B23&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f>"tmpUser."&amp;B23&amp;"="&amp;B23&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.updateProgramId=updateProgramId;</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f>B23&amp;","</f>
+        <f t="shared" si="17"/>
         <v>updateProgramId,</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>B23&amp;": "&amp;B23&amp;","</f>
+        <f t="shared" si="18"/>
         <v>updateProgramId: updateProgramId,</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f>IF(D23="late","required ","")&amp;C23&amp;" "&amp;B23&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required String updateProgramId,</v>
       </c>
       <c r="Q31" s="1" t="str">
-        <f>"_userData['"&amp;B23&amp;"'] =tmpUser!."&amp;B23&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
       </c>
     </row>
@@ -25727,35 +25727,35 @@
         <v>32</v>
       </c>
       <c r="J32" s="8" t="str">
-        <f>"returnMap['"&amp;B23&amp;"']=snapshot.get('"&amp;B23&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
       </c>
       <c r="K32" s="1" t="str">
-        <f>"_userData['"&amp;B24&amp;"'] = snapshot.docs[0].get('"&amp;B24&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f>B24&amp;": snapshot.docs[0].get('"&amp;B24&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f>"tmpUser."&amp;B24&amp;"="&amp;B24&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.updateTime=updateTime;</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f>B24&amp;","</f>
+        <f t="shared" si="17"/>
         <v>updateTime,</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>B24&amp;": "&amp;B24&amp;","</f>
+        <f t="shared" si="18"/>
         <v>updateTime: updateTime,</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required DateTime updateTime,</v>
       </c>
       <c r="Q32" s="1" t="str">
-        <f>"_userData['"&amp;B24&amp;"'] =tmpUser!."&amp;B24&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
       </c>
     </row>
@@ -25771,35 +25771,35 @@
         <v>32</v>
       </c>
       <c r="J33" s="8" t="str">
-        <f>"returnMap['"&amp;B24&amp;"']=snapshot.get('"&amp;B24&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f>"_userData['"&amp;B25&amp;"'] = snapshot.docs[0].get('"&amp;B25&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f>B25&amp;": snapshot.docs[0].get('"&amp;B25&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f>"tmpUser."&amp;B25&amp;"="&amp;B25&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.readableFlg=readableFlg;</v>
       </c>
       <c r="N33" s="1" t="str">
-        <f>B25&amp;","</f>
+        <f t="shared" si="17"/>
         <v>readableFlg,</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>B25&amp;": "&amp;B25&amp;","</f>
+        <f t="shared" si="18"/>
         <v>readableFlg: readableFlg,</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f>IF(D25="late","required ","")&amp;C25&amp;" "&amp;B25&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required bool readableFlg,</v>
       </c>
       <c r="Q33" s="1" t="str">
-        <f>"_userData['"&amp;B25&amp;"'] =tmpUser!."&amp;B25&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
       </c>
     </row>
@@ -25815,35 +25815,35 @@
         <v>32</v>
       </c>
       <c r="J34" s="8" t="str">
-        <f>"returnMap['"&amp;B25&amp;"']=snapshot.get('"&amp;B25&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f>"_userData['"&amp;B26&amp;"'] = snapshot.docs[0].get('"&amp;B26&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f>B26&amp;": snapshot.docs[0].get('"&amp;B26&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f>"tmpUser."&amp;B26&amp;"="&amp;B26&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.deleteFlg=deleteFlg;</v>
       </c>
       <c r="N34" s="1" t="str">
-        <f>B26&amp;","</f>
+        <f t="shared" si="17"/>
         <v>deleteFlg,</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>B26&amp;": "&amp;B26&amp;","</f>
+        <f t="shared" si="18"/>
         <v>deleteFlg: deleteFlg,</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f>IF(D26="late","required ","")&amp;C26&amp;" "&amp;B26&amp;","</f>
+        <f t="shared" si="21"/>
         <v>required bool deleteFlg,</v>
       </c>
       <c r="Q34" s="1" t="str">
-        <f>"_userData['"&amp;B26&amp;"'] =tmpUser!."&amp;B26&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
       </c>
     </row>
@@ -25859,35 +25859,35 @@
         <v>32</v>
       </c>
       <c r="J35" s="8" t="str">
-        <f>"returnMap['"&amp;B26&amp;"']=snapshot.get('"&amp;B26&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f>"_userData['"&amp;B27&amp;"'] = snapshot.docs[0].get('"&amp;B27&amp;"');"</f>
+        <f t="shared" si="14"/>
         <v>_userData[''] = snapshot.docs[0].get('');</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f>B27&amp;": snapshot.docs[0].get('"&amp;B27&amp;"'),"</f>
+        <f t="shared" si="15"/>
         <v>: snapshot.docs[0].get(''),</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f>"tmpUser."&amp;B27&amp;"="&amp;B27&amp;";"</f>
+        <f t="shared" si="16"/>
         <v>tmpUser.=;</v>
       </c>
       <c r="N35" s="1" t="str">
-        <f>B27&amp;","</f>
+        <f t="shared" si="17"/>
         <v>,</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>B27&amp;": "&amp;B27&amp;","</f>
+        <f t="shared" si="18"/>
         <v>: ,</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f>IF(D27="late","required ","")&amp;C27&amp;" "&amp;B27&amp;","</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q35" s="1" t="str">
-        <f>"_userData['"&amp;B27&amp;"'] =tmpUser!."&amp;B27&amp;";"</f>
+        <f t="shared" si="19"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -25903,7 +25903,7 @@
         <v>32</v>
       </c>
       <c r="J36" s="8" t="str">
-        <f>"returnMap['"&amp;B27&amp;"']=snapshot.get('"&amp;B27&amp;"');"</f>
+        <f t="shared" si="20"/>
         <v>returnMap['']=snapshot.get('');</v>
       </c>
       <c r="K36" s="1" t="str">
@@ -25927,11 +25927,11 @@
         <v>: ,</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" ref="P25:P47" si="14">IF(D36="late","required ","")&amp;C36&amp;" "&amp;B36&amp;","</f>
+        <f t="shared" ref="P36:P47" si="22">IF(D36="late","required ","")&amp;C36&amp;" "&amp;B36&amp;","</f>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q36" s="1" t="str">
-        <f t="shared" ref="Q20:Q47" si="15">"_userData['"&amp;B36&amp;"'] =tmpUser!."&amp;B36&amp;";"</f>
+        <f t="shared" ref="Q36:Q47" si="23">"_userData['"&amp;B36&amp;"'] =tmpUser!."&amp;B36&amp;";"</f>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -25971,11 +25971,11 @@
         <v>: ,</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q37" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26015,11 +26015,11 @@
         <v>: ,</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q38" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26059,11 +26059,11 @@
         <v>: ,</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q39" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26103,11 +26103,11 @@
         <v>: ,</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q40" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26147,11 +26147,11 @@
         <v>: ,</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q41" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26191,11 +26191,11 @@
         <v>: ,</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q42" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26235,11 +26235,11 @@
         <v>: ,</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q43" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26279,11 +26279,11 @@
         <v>: ,</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q44" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26323,11 +26323,11 @@
         <v>: ,</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q45" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26367,11 +26367,11 @@
         <v>: ,</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q46" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -26411,11 +26411,11 @@
         <v>: ,</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q47" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>_userData[''] =tmpUser!.;</v>
       </c>
     </row>
@@ -30952,9 +30952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>

--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31068D4F-3D5A-458F-B316-7858CE5D5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBB262-F50D-4379-9235-DE5850079550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91320" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER" sheetId="20" r:id="rId1"/>
     <sheet name="一覧" sheetId="21" r:id="rId2"/>
-    <sheet name="users" sheetId="1" r:id="rId3"/>
-    <sheet name="requests" sheetId="22" r:id="rId4"/>
-    <sheet name="lessonResults" sheetId="25" r:id="rId5"/>
-    <sheet name="appointments" sheetId="23" r:id="rId6"/>
-    <sheet name="friends" sheetId="11" r:id="rId7"/>
-    <sheet name="chatHeaders" sheetId="17" r:id="rId8"/>
-    <sheet name="chatDetails" sheetId="18" r:id="rId9"/>
-    <sheet name="events" sheetId="9" r:id="rId10"/>
-    <sheet name="callDetails" sheetId="24" r:id="rId11"/>
-    <sheet name="topics" sheetId="8" r:id="rId12"/>
-    <sheet name="setting values" sheetId="5" r:id="rId13"/>
-    <sheet name="master" sheetId="15" r:id="rId14"/>
-    <sheet name="master values" sheetId="19" r:id="rId15"/>
+    <sheet name="openRooms" sheetId="26" r:id="rId3"/>
+    <sheet name="users" sheetId="1" r:id="rId4"/>
+    <sheet name="requests" sheetId="22" r:id="rId5"/>
+    <sheet name="lessonResults" sheetId="25" r:id="rId6"/>
+    <sheet name="appointments" sheetId="23" r:id="rId7"/>
+    <sheet name="friends" sheetId="11" r:id="rId8"/>
+    <sheet name="chatHeaders" sheetId="17" r:id="rId9"/>
+    <sheet name="chatDetails" sheetId="18" r:id="rId10"/>
+    <sheet name="events" sheetId="9" r:id="rId11"/>
+    <sheet name="callDetails" sheetId="24" r:id="rId12"/>
+    <sheet name="topics" sheetId="8" r:id="rId13"/>
+    <sheet name="setting values" sheetId="5" r:id="rId14"/>
+    <sheet name="master" sheetId="15" r:id="rId15"/>
+    <sheet name="master values" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="240">
   <si>
     <t>users</t>
     <phoneticPr fontId="1"/>
@@ -1142,6 +1143,34 @@
     <t>startDate</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>openRooms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createUserDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joinUserNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openRoomDocId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endDateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startDateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1221,7 +1250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,6 +1272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1315,6 +1350,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,8 +1396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="420689" y="5350330"/>
-          <a:ext cx="1516968" cy="2129518"/>
+          <a:off x="420689" y="5250544"/>
+          <a:ext cx="1512432" cy="2085522"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -1645,8 +1681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11083246" y="1379765"/>
-          <a:ext cx="1361394" cy="2129518"/>
+          <a:off x="11069639" y="1357087"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -1905,8 +1941,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7608086" y="1294040"/>
-          <a:ext cx="2383652" cy="2126343"/>
+          <a:off x="7595839" y="1268187"/>
+          <a:ext cx="2383653" cy="2088696"/>
           <a:chOff x="8926513" y="1501775"/>
           <a:chExt cx="920755" cy="1395412"/>
         </a:xfrm>
@@ -2375,8 +2411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="484188" y="2681969"/>
-          <a:ext cx="2427741" cy="2126343"/>
+          <a:off x="487363" y="2628901"/>
+          <a:ext cx="2415494" cy="2088696"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -2668,8 +2704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="487363" y="311150"/>
-          <a:ext cx="1629775" cy="1588406"/>
+          <a:off x="484188" y="314325"/>
+          <a:ext cx="1631589" cy="1553481"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1036051"/>
         </a:xfrm>
@@ -3341,8 +3377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189868" y="5302705"/>
-          <a:ext cx="1854054" cy="2129518"/>
+          <a:off x="4180796" y="5199744"/>
+          <a:ext cx="1850879" cy="2091872"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920756" cy="1393308"/>
         </a:xfrm>
@@ -3671,8 +3707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7301083" y="5350330"/>
-          <a:ext cx="3030368" cy="3238499"/>
+          <a:off x="7288836" y="5250544"/>
+          <a:ext cx="3036719" cy="3174999"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -4566,8 +4602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11642099" y="5369380"/>
-          <a:ext cx="2006773" cy="2392134"/>
+          <a:off x="11625317" y="5269594"/>
+          <a:ext cx="2004052" cy="2342242"/>
           <a:chOff x="8926517" y="1501775"/>
           <a:chExt cx="920751" cy="1393308"/>
         </a:xfrm>
@@ -4831,8 +4867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15010828" y="409657"/>
-          <a:ext cx="2122995" cy="2129517"/>
+          <a:off x="14983613" y="401946"/>
+          <a:ext cx="2113924" cy="2091871"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5261,8 +5297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14655607" y="5369380"/>
-          <a:ext cx="2016883" cy="2392134"/>
+          <a:off x="14631567" y="5269594"/>
+          <a:ext cx="2005998" cy="2342242"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -5578,8 +5614,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156607" y="8899071"/>
-          <a:ext cx="1360033" cy="2129517"/>
+          <a:off x="1152071" y="8726714"/>
+          <a:ext cx="1356858" cy="2085521"/>
           <a:chOff x="8926512" y="1501775"/>
           <a:chExt cx="920750" cy="1395412"/>
         </a:xfrm>
@@ -5828,8 +5864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7549475" y="10006241"/>
-          <a:ext cx="2006820" cy="2398484"/>
+          <a:off x="7537228" y="9818916"/>
+          <a:ext cx="2009996" cy="2345416"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -6313,8 +6349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11155367" y="10003066"/>
-          <a:ext cx="2009995" cy="2401659"/>
+          <a:off x="11141760" y="9815741"/>
+          <a:ext cx="2002284" cy="2348591"/>
           <a:chOff x="8926515" y="1501775"/>
           <a:chExt cx="920753" cy="1393308"/>
         </a:xfrm>
@@ -7731,6 +7767,2272 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="54.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"this."&amp;B5&amp;","</f>
+        <v>this.chatDetailDocId,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>B5&amp;":"&amp;B5&amp;","</f>
+        <v>chatDetailDocId:chatDetailDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>C5&amp;" "&amp;B5&amp;";"</f>
+        <v>String chatDetailDocId;</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['chatDetailDocId'] = snapshot.docs[0].get('chatDetailDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>chatDetailDocId: snapshot.docs[0].get('chatDetailDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.chatDetailDocId=chatDetailDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>chatDetailDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:O7" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>chatDetailDocId: chatDetailDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P7" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String chatDetailDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G7" si="2">"this."&amp;B6&amp;","</f>
+        <v>this.chatHeaderDocId,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H7" si="3">B6&amp;":"&amp;B6&amp;","</f>
+        <v>chatHeaderDocId:chatHeaderDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I7" si="4">C6&amp;" "&amp;B6&amp;";"</f>
+        <v>String chatHeaderDocId;</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['chatDetailDocId']=snapshot.get('chatDetailDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K7" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['chatHeaderDocId'] = snapshot.docs[0].get('chatHeaderDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L7" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>chatHeaderDocId: snapshot.docs[0].get('chatHeaderDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M7" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpUser.chatHeaderDocId=chatHeaderDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" ref="N6:N7" si="8">B6&amp;","</f>
+        <v>chatHeaderDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chatHeaderDocId: chatHeaderDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String chatHeaderDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['chatHeaderDocId'] =tmpUser!.chatHeaderDocId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>this.senderUserDocId,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>senderUserDocId:senderUserDocId,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>String senderUserDocId;</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J8" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
+        <v>returnMap['chatHeaderDocId']=snapshot.get('chatHeaderDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>senderUserDocId,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>senderUserDocId: senderUserDocId,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String senderUserDocId,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['senderUserDocId'] =tmpUser!.senderUserDocId;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>"this."&amp;B9&amp;","</f>
+        <v>this.userDocId,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>B9&amp;":"&amp;B9&amp;","</f>
+        <v>userDocId:userDocId,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>C9&amp;" "&amp;B9&amp;";"</f>
+        <v>String userDocId;</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>"_userData['"&amp;B9&amp;"'] = snapshot.docs[0].get('"&amp;B9&amp;"');"</f>
+        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>B9&amp;": snapshot.docs[0].get('"&amp;B9&amp;"'),"</f>
+        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>"tmpUser."&amp;B9&amp;"="&amp;B9&amp;";"</f>
+        <v>tmpUser.userDocId=userDocId;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f>B9&amp;","</f>
+        <v>userDocId,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f>B9&amp;": "&amp;B9&amp;","</f>
+        <v>userDocId: userDocId,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f>IF(D9="late","required ","")&amp;C9&amp;" "&amp;B9&amp;","</f>
+        <v>required String userDocId,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f>"_userData['"&amp;B9&amp;"'] =tmpUser!."&amp;B9&amp;";"</f>
+        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>"this."&amp;B8&amp;","</f>
+        <v>this.receiverUserDocId,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>B8&amp;":"&amp;B8&amp;","</f>
+        <v>receiverUserDocId:receiverUserDocId,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>C8&amp;" "&amp;B8&amp;";"</f>
+        <v>String receiverUserDocId;</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f>"returnMap['"&amp;B9&amp;"']=snapshot.get('"&amp;B9&amp;"');"</f>
+        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>"_userData['"&amp;B8&amp;"'] = snapshot.docs[0].get('"&amp;B8&amp;"');"</f>
+        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>B8&amp;": snapshot.docs[0].get('"&amp;B8&amp;"'),"</f>
+        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>"tmpUser."&amp;B8&amp;"="&amp;B8&amp;";"</f>
+        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f>B8&amp;","</f>
+        <v>receiverUserDocId,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f>B8&amp;": "&amp;B8&amp;","</f>
+        <v>receiverUserDocId: receiverUserDocId,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f>IF(D8="late","required ","")&amp;C8&amp;" "&amp;B8&amp;","</f>
+        <v>required String receiverUserDocId,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f>"_userData['"&amp;B8&amp;"'] =tmpUser!."&amp;B8&amp;";"</f>
+        <v>_userData['receiverUserDocId'] =tmpUser!.receiverUserDocId;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10:G19" si="11">"this."&amp;B10&amp;","</f>
+        <v>this.messageType,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H22" si="12">B10&amp;":"&amp;B10&amp;","</f>
+        <v>messageType:messageType,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" ref="I10:I19" si="13">C10&amp;" "&amp;B10&amp;";"</f>
+        <v>String messageType;</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f>"returnMap['"&amp;B8&amp;"']=snapshot.get('"&amp;B8&amp;"');"</f>
+        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" ref="K10:K46" si="14">"_userData['"&amp;B10&amp;"'] = snapshot.docs[0].get('"&amp;B10&amp;"');"</f>
+        <v>_userData['messageType'] = snapshot.docs[0].get('messageType');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" ref="L10:L46" si="15">B10&amp;": snapshot.docs[0].get('"&amp;B10&amp;"'),"</f>
+        <v>messageType: snapshot.docs[0].get('messageType'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" ref="M10:M46" si="16">"tmpUser."&amp;B10&amp;"="&amp;B10&amp;";"</f>
+        <v>tmpUser.messageType=messageType;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" ref="N10:N46" si="17">B10&amp;","</f>
+        <v>messageType,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" ref="O10:O46" si="18">B10&amp;": "&amp;B10&amp;","</f>
+        <v>messageType: messageType,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" ref="P10:P22" si="19">IF(D10="late","required ","")&amp;C10&amp;" "&amp;B10&amp;","</f>
+        <v>required String messageType,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" ref="Q10:Q46" si="20">"_userData['"&amp;B10&amp;"'] =tmpUser!."&amp;B10&amp;";"</f>
+        <v>_userData['messageType'] =tmpUser!.messageType;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.fileNameSuffix,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>fileNameSuffix:fileNameSuffix,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String fileNameSuffix;</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" ref="J11:J46" si="21">"returnMap['"&amp;B10&amp;"']=snapshot.get('"&amp;B10&amp;"');"</f>
+        <v>returnMap['messageType']=snapshot.get('messageType');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['fileNameSuffix'] = snapshot.docs[0].get('fileNameSuffix');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>fileNameSuffix: snapshot.docs[0].get('fileNameSuffix'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.fileNameSuffix=fileNameSuffix;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>fileNameSuffix,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>fileNameSuffix: fileNameSuffix,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String fileNameSuffix,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['fileNameSuffix'] =tmpUser!.fileNameSuffix;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.referDocId,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>referDocId:referDocId,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String referDocId;</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['fileNameSuffix']=snapshot.get('fileNameSuffix');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['referDocId'] = snapshot.docs[0].get('referDocId');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>referDocId: snapshot.docs[0].get('referDocId'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.referDocId=referDocId;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>referDocId,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>referDocId: referDocId,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String referDocId,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['referDocId'] =tmpUser!.referDocId;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.message,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>message:message,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String message;</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['referDocId']=snapshot.get('referDocId');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>message: snapshot.docs[0].get('message'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.message=message;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>message,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>message: message,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String message,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['message'] =tmpUser!.message;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.sendTime,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>sendTime:sendTime,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime sendTime;</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['message']=snapshot.get('message');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['sendTime'] = snapshot.docs[0].get('sendTime');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>sendTime: snapshot.docs[0].get('sendTime'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.sendTime=sendTime;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>sendTime,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>sendTime: sendTime,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime sendTime,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['sendTime'] =tmpUser!.sendTime;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertUserDocId,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertUserDocId;</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['sendTime']=snapshot.get('sendTime');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertProgramId,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String insertProgramId;</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.insertTime,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>DateTime insertTime;</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateUserDocId,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateUserDocId;</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>this.updateProgramId,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>String updateProgramId;</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>readableFlg:readableFlg,</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>deleteFlg:deleteFlg,</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P46" si="22">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578356ED-38E6-4F99-828E-ED00B0755ED6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
@@ -9661,7 +11963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10579B4E-C3CC-48E3-A6BC-F991CF50E151}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -11889,7 +14191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0AAE3-ED4B-48CC-BBE1-539218AE5406}">
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -13637,7 +15939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3D3CA-6655-40C9-BA37-B0962EF32610}">
   <dimension ref="A5:M32"/>
   <sheetViews>
@@ -14193,7 +16495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FAAF19-976D-4E9D-B0B4-78370A71FA02}">
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -16291,7 +18593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339D84F-12A7-49BF-91CA-07A2A1BF11D2}">
   <dimension ref="B7:N19"/>
   <sheetViews>
@@ -17023,6 +19325,2284 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD50A7EF-A2BE-449C-8D3A-5C21AFA63E65}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="46" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"'"&amp;B5&amp;"':,"</f>
+        <v>'openRoomDocId':,</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>B5&amp;":"&amp;B5&amp;","</f>
+        <v>openRoomDocId:openRoomDocId,</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"required "&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String openRoomDocId,</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
+        <v>_userData['openRoomDocId'] = snapshot.docs[0].get('openRoomDocId');</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
+        <v>openRoomDocId: snapshot.docs[0].get('openRoomDocId'),</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
+        <v>tmpUser.openRoomDocId=openRoomDocId;</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f>B5&amp;","</f>
+        <v>openRoomDocId,</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:O46" si="0">B5&amp;": "&amp;B5&amp;","</f>
+        <v>openRoomDocId: openRoomDocId,</v>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" ref="P5:P22" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
+        <v>required String openRoomDocId,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G21" si="2">"'"&amp;B6&amp;"':,"</f>
+        <v>'createUserDocId':,</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ref="H6:H22" si="3">B6&amp;":"&amp;B6&amp;","</f>
+        <v>createUserDocId:createUserDocId,</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" ref="I6:I21" si="4">"required "&amp;C6&amp;" "&amp;B6&amp;","</f>
+        <v>required String createUserDocId,</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
+        <v>returnMap['openRoomDocId']=snapshot.get('openRoomDocId');</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" ref="K6:K46" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
+        <v>_userData['createUserDocId'] = snapshot.docs[0].get('createUserDocId');</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L46" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
+        <v>createUserDocId: snapshot.docs[0].get('createUserDocId'),</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M46" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
+        <v>tmpUser.createUserDocId=createUserDocId;</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" ref="N6:N46" si="8">B6&amp;","</f>
+        <v>createUserDocId,</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>createUserDocId: createUserDocId,</v>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String createUserDocId,</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
+        <v>_userData['createUserDocId'] =tmpUser!.createUserDocId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'roomName':,</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>roomName:roomName,</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String roomName,</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
+        <v>returnMap['createUserDocId']=snapshot.get('createUserDocId');</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['roomName'] = snapshot.docs[0].get('roomName');</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>roomName: snapshot.docs[0].get('roomName'),</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.roomName=roomName;</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>roomName,</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>roomName: roomName,</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String roomName,</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7:Q46" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
+        <v>_userData['roomName'] =tmpUser!.roomName;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="21">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'categoryDocId':,</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>categoryDocId:categoryDocId,</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String categoryDocId,</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['roomName']=snapshot.get('roomName');</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['categoryDocId'] = snapshot.docs[0].get('categoryDocId');</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>categoryDocId: snapshot.docs[0].get('categoryDocId'),</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.categoryDocId=categoryDocId;</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>categoryDocId,</v>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>categoryDocId: categoryDocId,</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String categoryDocId,</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['categoryDocId'] =tmpUser!.categoryDocId;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="21">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'topicDocId':,</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>topicDocId:topicDocId,</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String topicDocId,</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['categoryDocId']=snapshot.get('categoryDocId');</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['topicDocId'] = snapshot.docs[0].get('topicDocId');</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>topicDocId: snapshot.docs[0].get('topicDocId'),</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.topicDocId=topicDocId;</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>topicDocId,</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>topicDocId: topicDocId,</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String topicDocId,</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['topicDocId'] =tmpUser!.topicDocId;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'description':,</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>description:description,</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String description,</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['topicDocId']=snapshot.get('topicDocId');</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['description'] = snapshot.docs[0].get('description');</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>description: snapshot.docs[0].get('description'),</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.description=description;</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>description,</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>description: description,</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String description,</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['description'] =tmpUser!.description;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'startDateTime':,</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>startDateTime:startDateTime,</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required DateTime startDateTime,</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['description']=snapshot.get('description');</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['startDateTime'] = snapshot.docs[0].get('startDateTime');</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>startDateTime: snapshot.docs[0].get('startDateTime'),</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.startDateTime=startDateTime;</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>startDateTime,</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>startDateTime: startDateTime,</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime startDateTime,</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['startDateTime'] =tmpUser!.startDateTime;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'endDateTime':,</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>endDateTime:endDateTime,</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required DateTime endDateTime,</v>
+      </c>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['startDateTime']=snapshot.get('startDateTime');</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['endDateTime'] = snapshot.docs[0].get('endDateTime');</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>endDateTime: snapshot.docs[0].get('endDateTime'),</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.endDateTime=endDateTime;</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>endDateTime,</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>endDateTime: endDateTime,</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime endDateTime,</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['endDateTime'] =tmpUser!.endDateTime;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'joinUserNumber':,</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>joinUserNumber:joinUserNumber,</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required int joinUserNumber,</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['endDateTime']=snapshot.get('endDateTime');</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['joinUserNumber'] = snapshot.docs[0].get('joinUserNumber');</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>joinUserNumber: snapshot.docs[0].get('joinUserNumber'),</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.joinUserNumber=joinUserNumber;</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>joinUserNumber,</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>joinUserNumber: joinUserNumber,</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required int joinUserNumber,</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['joinUserNumber'] =tmpUser!.joinUserNumber;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'insertUserDocId':,</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertUserDocId:insertUserDocId,</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['joinUserNumber']=snapshot.get('joinUserNumber');</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertUserDocId,</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertUserDocId: insertUserDocId,</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertUserDocId,</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'insertProgramId':,</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertProgramId:insertProgramId,</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertProgramId=insertProgramId;</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertProgramId,</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertProgramId: insertProgramId,</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String insertProgramId,</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'insertTime':,</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>insertTime:insertTime,</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.insertTime=insertTime;</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>insertTime,</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insertTime: insertTime,</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime insertTime,</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'updateUserDocId':,</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateUserDocId:updateUserDocId,</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateUserDocId,</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateUserDocId: updateUserDocId,</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateUserDocId,</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'updateProgramId':,</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateProgramId:updateProgramId,</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateProgramId=updateProgramId;</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateProgramId,</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateProgramId: updateProgramId,</v>
+      </c>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required String updateProgramId,</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'updateTime':,</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>updateTime:updateTime,</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.updateTime=updateTime;</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>updateTime,</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>updateTime: updateTime,</v>
+      </c>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required DateTime updateTime,</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'readableFlg':,</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>readableFlg:readableFlg,</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.readableFlg=readableFlg;</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>readableFlg,</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>readableFlg: readableFlg,</v>
+      </c>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required bool readableFlg,</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'deleteFlg':,</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>deleteFlg:deleteFlg,</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.deleteFlg=deleteFlg;</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>deleteFlg,</v>
+      </c>
+      <c r="O21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>deleteFlg: deleteFlg,</v>
+      </c>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>required bool deleteFlg,</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>:,</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" ref="I6:I22" si="11">C22&amp;" "&amp;B22&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" ref="P24:P46" si="12">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P44" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P45" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>returnMap['']=snapshot.get('');</v>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>_userData[''] = snapshot.docs[0].get('');</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>: snapshot.docs[0].get(''),</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>tmpUser.=;</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>: ,</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>_userData[''] =tmpUser!.;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
@@ -19499,7 +24079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E51DE9-62D3-481D-A3CE-4199813CB408}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -21767,7 +26347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ACC560-661C-457B-AEB3-EE5D6DFA8B5A}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
@@ -24053,7 +28633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E49820-763D-465D-8A94-153557BA87C1}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
@@ -26480,7 +31060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4863E95-0C2F-4B39-8BC3-6DC24B3787C7}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -28746,7 +33326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DB3EBE-1512-4C38-815C-722DBF6E0391}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
@@ -30946,2270 +35526,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B602230-DF57-4753-A269-58E6407E5888}">
-  <dimension ref="A1:Q50"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
-  <cols>
-    <col min="1" max="1" width="7.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="54.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.4140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.9140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="61.08203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="46" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>"this."&amp;B5&amp;","</f>
-        <v>this.chatDetailDocId,</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>B5&amp;":"&amp;B5&amp;","</f>
-        <v>chatDetailDocId:chatDetailDocId,</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>C5&amp;" "&amp;B5&amp;";"</f>
-        <v>String chatDetailDocId;</v>
-      </c>
-      <c r="K5" s="1" t="str">
-        <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
-        <v>_userData['chatDetailDocId'] = snapshot.docs[0].get('chatDetailDocId');</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>B5&amp;": snapshot.docs[0].get('"&amp;B5&amp;"'),"</f>
-        <v>chatDetailDocId: snapshot.docs[0].get('chatDetailDocId'),</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f>"tmpUser."&amp;B5&amp;"="&amp;B5&amp;";"</f>
-        <v>tmpUser.chatDetailDocId=chatDetailDocId;</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f>B5&amp;","</f>
-        <v>chatDetailDocId,</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" ref="O5:O7" si="0">B5&amp;": "&amp;B5&amp;","</f>
-        <v>chatDetailDocId: chatDetailDocId,</v>
-      </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" ref="P5:P7" si="1">IF(D5="late","required ","")&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String chatDetailDocId,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" ref="G6:G7" si="2">"this."&amp;B6&amp;","</f>
-        <v>this.chatHeaderDocId,</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H7" si="3">B6&amp;":"&amp;B6&amp;","</f>
-        <v>chatHeaderDocId:chatHeaderDocId,</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I7" si="4">C6&amp;" "&amp;B6&amp;";"</f>
-        <v>String chatHeaderDocId;</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
-        <v>returnMap['chatDetailDocId']=snapshot.get('chatDetailDocId');</v>
-      </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K7" si="5">"_userData['"&amp;B6&amp;"'] = snapshot.docs[0].get('"&amp;B6&amp;"');"</f>
-        <v>_userData['chatHeaderDocId'] = snapshot.docs[0].get('chatHeaderDocId');</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L7" si="6">B6&amp;": snapshot.docs[0].get('"&amp;B6&amp;"'),"</f>
-        <v>chatHeaderDocId: snapshot.docs[0].get('chatHeaderDocId'),</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" ref="M6:M7" si="7">"tmpUser."&amp;B6&amp;"="&amp;B6&amp;";"</f>
-        <v>tmpUser.chatHeaderDocId=chatHeaderDocId;</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" ref="N6:N7" si="8">B6&amp;","</f>
-        <v>chatHeaderDocId,</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>chatHeaderDocId: chatHeaderDocId,</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>required String chatHeaderDocId,</v>
-      </c>
-      <c r="Q6" s="1" t="str">
-        <f>"_userData['"&amp;B6&amp;"'] =tmpUser!."&amp;B6&amp;";"</f>
-        <v>_userData['chatHeaderDocId'] =tmpUser!.chatHeaderDocId;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>this.senderUserDocId,</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>senderUserDocId:senderUserDocId,</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>String senderUserDocId;</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" ref="J7:J8" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
-        <v>returnMap['chatHeaderDocId']=snapshot.get('chatHeaderDocId');</v>
-      </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>_userData['senderUserDocId'] = snapshot.docs[0].get('senderUserDocId');</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>senderUserDocId: snapshot.docs[0].get('senderUserDocId'),</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>tmpUser.senderUserDocId=senderUserDocId;</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>senderUserDocId,</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>senderUserDocId: senderUserDocId,</v>
-      </c>
-      <c r="P7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>required String senderUserDocId,</v>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" ref="Q7" si="10">"_userData['"&amp;B7&amp;"'] =tmpUser!."&amp;B7&amp;";"</f>
-        <v>_userData['senderUserDocId'] =tmpUser!.senderUserDocId;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>"this."&amp;B9&amp;","</f>
-        <v>this.userDocId,</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>B9&amp;":"&amp;B9&amp;","</f>
-        <v>userDocId:userDocId,</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>C9&amp;" "&amp;B9&amp;";"</f>
-        <v>String userDocId;</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>returnMap['senderUserDocId']=snapshot.get('senderUserDocId');</v>
-      </c>
-      <c r="K8" s="1" t="str">
-        <f>"_userData['"&amp;B9&amp;"'] = snapshot.docs[0].get('"&amp;B9&amp;"');"</f>
-        <v>_userData['userDocId'] = snapshot.docs[0].get('userDocId');</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f>B9&amp;": snapshot.docs[0].get('"&amp;B9&amp;"'),"</f>
-        <v>userDocId: snapshot.docs[0].get('userDocId'),</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f>"tmpUser."&amp;B9&amp;"="&amp;B9&amp;";"</f>
-        <v>tmpUser.userDocId=userDocId;</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f>B9&amp;","</f>
-        <v>userDocId,</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f>B9&amp;": "&amp;B9&amp;","</f>
-        <v>userDocId: userDocId,</v>
-      </c>
-      <c r="P8" s="1" t="str">
-        <f>IF(D9="late","required ","")&amp;C9&amp;" "&amp;B9&amp;","</f>
-        <v>required String userDocId,</v>
-      </c>
-      <c r="Q8" s="1" t="str">
-        <f>"_userData['"&amp;B9&amp;"'] =tmpUser!."&amp;B9&amp;";"</f>
-        <v>_userData['userDocId'] =tmpUser!.userDocId;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>"this."&amp;B8&amp;","</f>
-        <v>this.receiverUserDocId,</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>B8&amp;":"&amp;B8&amp;","</f>
-        <v>receiverUserDocId:receiverUserDocId,</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>C8&amp;" "&amp;B8&amp;";"</f>
-        <v>String receiverUserDocId;</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f>"returnMap['"&amp;B9&amp;"']=snapshot.get('"&amp;B9&amp;"');"</f>
-        <v>returnMap['userDocId']=snapshot.get('userDocId');</v>
-      </c>
-      <c r="K9" s="1" t="str">
-        <f>"_userData['"&amp;B8&amp;"'] = snapshot.docs[0].get('"&amp;B8&amp;"');"</f>
-        <v>_userData['receiverUserDocId'] = snapshot.docs[0].get('receiverUserDocId');</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f>B8&amp;": snapshot.docs[0].get('"&amp;B8&amp;"'),"</f>
-        <v>receiverUserDocId: snapshot.docs[0].get('receiverUserDocId'),</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f>"tmpUser."&amp;B8&amp;"="&amp;B8&amp;";"</f>
-        <v>tmpUser.receiverUserDocId=receiverUserDocId;</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f>B8&amp;","</f>
-        <v>receiverUserDocId,</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f>B8&amp;": "&amp;B8&amp;","</f>
-        <v>receiverUserDocId: receiverUserDocId,</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f>IF(D8="late","required ","")&amp;C8&amp;" "&amp;B8&amp;","</f>
-        <v>required String receiverUserDocId,</v>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <f>"_userData['"&amp;B8&amp;"'] =tmpUser!."&amp;B8&amp;";"</f>
-        <v>_userData['receiverUserDocId'] =tmpUser!.receiverUserDocId;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G19" si="11">"this."&amp;B10&amp;","</f>
-        <v>this.messageType,</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H22" si="12">B10&amp;":"&amp;B10&amp;","</f>
-        <v>messageType:messageType,</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" ref="I10:I19" si="13">C10&amp;" "&amp;B10&amp;";"</f>
-        <v>String messageType;</v>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f>"returnMap['"&amp;B8&amp;"']=snapshot.get('"&amp;B8&amp;"');"</f>
-        <v>returnMap['receiverUserDocId']=snapshot.get('receiverUserDocId');</v>
-      </c>
-      <c r="K10" s="1" t="str">
-        <f t="shared" ref="K10:K46" si="14">"_userData['"&amp;B10&amp;"'] = snapshot.docs[0].get('"&amp;B10&amp;"');"</f>
-        <v>_userData['messageType'] = snapshot.docs[0].get('messageType');</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:L46" si="15">B10&amp;": snapshot.docs[0].get('"&amp;B10&amp;"'),"</f>
-        <v>messageType: snapshot.docs[0].get('messageType'),</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" ref="M10:M46" si="16">"tmpUser."&amp;B10&amp;"="&amp;B10&amp;";"</f>
-        <v>tmpUser.messageType=messageType;</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" ref="N10:N46" si="17">B10&amp;","</f>
-        <v>messageType,</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f t="shared" ref="O10:O46" si="18">B10&amp;": "&amp;B10&amp;","</f>
-        <v>messageType: messageType,</v>
-      </c>
-      <c r="P10" s="1" t="str">
-        <f t="shared" ref="P10:P22" si="19">IF(D10="late","required ","")&amp;C10&amp;" "&amp;B10&amp;","</f>
-        <v>required String messageType,</v>
-      </c>
-      <c r="Q10" s="1" t="str">
-        <f t="shared" ref="Q10:Q46" si="20">"_userData['"&amp;B10&amp;"'] =tmpUser!."&amp;B10&amp;";"</f>
-        <v>_userData['messageType'] =tmpUser!.messageType;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.fileNameSuffix,</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>fileNameSuffix:fileNameSuffix,</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String fileNameSuffix;</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f t="shared" ref="J11:J46" si="21">"returnMap['"&amp;B10&amp;"']=snapshot.get('"&amp;B10&amp;"');"</f>
-        <v>returnMap['messageType']=snapshot.get('messageType');</v>
-      </c>
-      <c r="K11" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['fileNameSuffix'] = snapshot.docs[0].get('fileNameSuffix');</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>fileNameSuffix: snapshot.docs[0].get('fileNameSuffix'),</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.fileNameSuffix=fileNameSuffix;</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>fileNameSuffix,</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>fileNameSuffix: fileNameSuffix,</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String fileNameSuffix,</v>
-      </c>
-      <c r="Q11" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['fileNameSuffix'] =tmpUser!.fileNameSuffix;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.referDocId,</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>referDocId:referDocId,</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String referDocId;</v>
-      </c>
-      <c r="J12" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['fileNameSuffix']=snapshot.get('fileNameSuffix');</v>
-      </c>
-      <c r="K12" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['referDocId'] = snapshot.docs[0].get('referDocId');</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>referDocId: snapshot.docs[0].get('referDocId'),</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.referDocId=referDocId;</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>referDocId,</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>referDocId: referDocId,</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String referDocId,</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['referDocId'] =tmpUser!.referDocId;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.message,</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>message:message,</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String message;</v>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['referDocId']=snapshot.get('referDocId');</v>
-      </c>
-      <c r="K13" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['message'] = snapshot.docs[0].get('message');</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>message: snapshot.docs[0].get('message'),</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.message=message;</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>message,</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>message: message,</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String message,</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['message'] =tmpUser!.message;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.sendTime,</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>sendTime:sendTime,</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>DateTime sendTime;</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['message']=snapshot.get('message');</v>
-      </c>
-      <c r="K14" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['sendTime'] = snapshot.docs[0].get('sendTime');</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>sendTime: snapshot.docs[0].get('sendTime'),</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.sendTime=sendTime;</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>sendTime,</v>
-      </c>
-      <c r="O14" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>sendTime: sendTime,</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required DateTime sendTime,</v>
-      </c>
-      <c r="Q14" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['sendTime'] =tmpUser!.sendTime;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.insertUserDocId,</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>insertUserDocId:insertUserDocId,</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String insertUserDocId;</v>
-      </c>
-      <c r="J15" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['sendTime']=snapshot.get('sendTime');</v>
-      </c>
-      <c r="K15" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['insertUserDocId'] = snapshot.docs[0].get('insertUserDocId');</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>insertUserDocId: snapshot.docs[0].get('insertUserDocId'),</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.insertUserDocId=insertUserDocId;</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>insertUserDocId,</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>insertUserDocId: insertUserDocId,</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String insertUserDocId,</v>
-      </c>
-      <c r="Q15" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['insertUserDocId'] =tmpUser!.insertUserDocId;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.insertProgramId,</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>insertProgramId:insertProgramId,</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String insertProgramId;</v>
-      </c>
-      <c r="J16" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['insertUserDocId']=snapshot.get('insertUserDocId');</v>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['insertProgramId'] = snapshot.docs[0].get('insertProgramId');</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>insertProgramId: snapshot.docs[0].get('insertProgramId'),</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.insertProgramId=insertProgramId;</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>insertProgramId,</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>insertProgramId: insertProgramId,</v>
-      </c>
-      <c r="P16" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String insertProgramId,</v>
-      </c>
-      <c r="Q16" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['insertProgramId'] =tmpUser!.insertProgramId;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.insertTime,</v>
-      </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>insertTime:insertTime,</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>DateTime insertTime;</v>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['insertProgramId']=snapshot.get('insertProgramId');</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['insertTime'] = snapshot.docs[0].get('insertTime');</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>insertTime: snapshot.docs[0].get('insertTime'),</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.insertTime=insertTime;</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>insertTime,</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>insertTime: insertTime,</v>
-      </c>
-      <c r="P17" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required DateTime insertTime,</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['insertTime'] =tmpUser!.insertTime;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.updateUserDocId,</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>updateUserDocId:updateUserDocId,</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String updateUserDocId;</v>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['insertTime']=snapshot.get('insertTime');</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['updateUserDocId'] = snapshot.docs[0].get('updateUserDocId');</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>updateUserDocId: snapshot.docs[0].get('updateUserDocId'),</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.updateUserDocId=updateUserDocId;</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>updateUserDocId,</v>
-      </c>
-      <c r="O18" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>updateUserDocId: updateUserDocId,</v>
-      </c>
-      <c r="P18" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String updateUserDocId,</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['updateUserDocId'] =tmpUser!.updateUserDocId;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>this.updateProgramId,</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>updateProgramId:updateProgramId,</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>String updateProgramId;</v>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['updateUserDocId']=snapshot.get('updateUserDocId');</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['updateProgramId'] = snapshot.docs[0].get('updateProgramId');</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>updateProgramId: snapshot.docs[0].get('updateProgramId'),</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.updateProgramId=updateProgramId;</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>updateProgramId,</v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>updateProgramId: updateProgramId,</v>
-      </c>
-      <c r="P19" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required String updateProgramId,</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['updateProgramId'] =tmpUser!.updateProgramId;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>updateTime:updateTime,</v>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['updateProgramId']=snapshot.get('updateProgramId');</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['updateTime'] = snapshot.docs[0].get('updateTime');</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>updateTime: snapshot.docs[0].get('updateTime'),</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.updateTime=updateTime;</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>updateTime,</v>
-      </c>
-      <c r="O20" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>updateTime: updateTime,</v>
-      </c>
-      <c r="P20" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required DateTime updateTime,</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['updateTime'] =tmpUser!.updateTime;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>readableFlg:readableFlg,</v>
-      </c>
-      <c r="J21" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['updateTime']=snapshot.get('updateTime');</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['readableFlg'] = snapshot.docs[0].get('readableFlg');</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>readableFlg: snapshot.docs[0].get('readableFlg'),</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.readableFlg=readableFlg;</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>readableFlg,</v>
-      </c>
-      <c r="O21" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>readableFlg: readableFlg,</v>
-      </c>
-      <c r="P21" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required bool readableFlg,</v>
-      </c>
-      <c r="Q21" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['readableFlg'] =tmpUser!.readableFlg;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>deleteFlg:deleteFlg,</v>
-      </c>
-      <c r="J22" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['readableFlg']=snapshot.get('readableFlg');</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData['deleteFlg'] = snapshot.docs[0].get('deleteFlg');</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>deleteFlg: snapshot.docs[0].get('deleteFlg'),</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.deleteFlg=deleteFlg;</v>
-      </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>deleteFlg,</v>
-      </c>
-      <c r="O22" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>deleteFlg: deleteFlg,</v>
-      </c>
-      <c r="P22" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>required bool deleteFlg,</v>
-      </c>
-      <c r="Q22" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData['deleteFlg'] =tmpUser!.deleteFlg;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['deleteFlg']=snapshot.get('deleteFlg');</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="Q23" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O24" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P24" s="1" t="str">
-        <f t="shared" ref="P24:P46" si="22">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q24" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O25" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P25" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q25" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O26" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P26" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q26" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K27" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O27" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P27" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q27" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O28" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P28" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q28" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O29" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P29" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q29" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O30" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P30" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q30" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O31" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P31" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q31" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O32" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P32" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q32" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O33" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P33" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q33" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O34" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P34" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q34" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O35" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P35" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q35" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O36" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P36" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q36" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L37" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O37" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P37" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q37" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L38" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O38" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P38" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q38" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M39" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O39" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P39" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q39" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O40" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P40" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q40" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M41" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O41" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P41" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q41" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L42" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M42" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N42" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O42" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P42" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q42" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L43" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M43" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N43" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O43" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P43" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q43" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M44" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O44" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P44" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q44" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L45" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M45" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O45" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P45" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q45" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="8" t="str">
-        <f t="shared" si="21"/>
-        <v>returnMap['']=snapshot.get('');</v>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>_userData[''] = snapshot.docs[0].get('');</v>
-      </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>: snapshot.docs[0].get(''),</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>tmpUser.=;</v>
-      </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>,</v>
-      </c>
-      <c r="O46" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>: ,</v>
-      </c>
-      <c r="P46" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> ,</v>
-      </c>
-      <c r="Q46" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>_userData[''] =tmpUser!.;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
+++ b/zz_document/project_Parfait/4_1_エンティティ設計_ver.0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBB262-F50D-4379-9235-DE5850079550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1252AE95-3341-4BA5-A635-C82F12C37238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19330,7 +19330,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -19417,8 +19417,8 @@
         <v>openRoomDocId:openRoomDocId,</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>"required "&amp;C5&amp;" "&amp;B5&amp;","</f>
-        <v>required String openRoomDocId,</v>
+        <f>"this."&amp;""&amp;B5&amp;","</f>
+        <v>this.openRoomDocId,</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"_userData['"&amp;B5&amp;"'] = snapshot.docs[0].get('"&amp;B5&amp;"');"</f>
@@ -19472,8 +19472,8 @@
         <v>createUserDocId:createUserDocId,</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" ref="I6:I21" si="4">"required "&amp;C6&amp;" "&amp;B6&amp;","</f>
-        <v>required String createUserDocId,</v>
+        <f t="shared" ref="I6:I22" si="4">"this."&amp;""&amp;B6&amp;","</f>
+        <v>this.createUserDocId,</v>
       </c>
       <c r="J6" s="8" t="str">
         <f>"returnMap['"&amp;B5&amp;"']=snapshot.get('"&amp;B5&amp;"');"</f>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String roomName,</v>
+        <v>this.roomName,</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" ref="J7:J46" si="9">"returnMap['"&amp;B6&amp;"']=snapshot.get('"&amp;B6&amp;"');"</f>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String categoryDocId,</v>
+        <v>this.categoryDocId,</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19659,7 +19659,7 @@
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String topicDocId,</v>
+        <v>this.topicDocId,</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String description,</v>
+        <v>this.description,</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required DateTime startDateTime,</v>
+        <v>this.startDateTime,</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required DateTime endDateTime,</v>
+        <v>this.endDateTime,</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19907,7 +19907,7 @@
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required int joinUserNumber,</v>
+        <v>this.joinUserNumber,</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="9"/>
@@ -19969,7 +19969,7 @@
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String insertUserDocId,</v>
+        <v>this.insertUserDocId,</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String insertProgramId,</v>
+        <v>this.insertProgramId,</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20093,7 +20093,7 @@
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required DateTime insertTime,</v>
+        <v>this.insertTime,</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String updateUserDocId,</v>
+        <v>this.updateUserDocId,</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20217,7 +20217,7 @@
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required String updateProgramId,</v>
+        <v>this.updateProgramId,</v>
       </c>
       <c r="J18" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20279,7 +20279,7 @@
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required DateTime updateTime,</v>
+        <v>this.updateTime,</v>
       </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required bool readableFlg,</v>
+        <v>this.readableFlg,</v>
       </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>required bool deleteFlg,</v>
+        <v>this.deleteFlg,</v>
       </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20454,8 +20454,8 @@
         <v>:,</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" ref="I6:I22" si="11">C22&amp;" "&amp;B22&amp;","</f>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="4"/>
+        <v>this.,</v>
       </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="9"/>
@@ -20566,7 +20566,7 @@
         <v>: ,</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" ref="P24:P46" si="12">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
+        <f t="shared" ref="P24:P46" si="11">IF(D24="late","required ","")&amp;C24&amp;" "&amp;B24&amp;","</f>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q24" s="1" t="str">
@@ -20610,7 +20610,7 @@
         <v>: ,</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q25" s="1" t="str">
@@ -20654,7 +20654,7 @@
         <v>: ,</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q26" s="1" t="str">
@@ -20698,7 +20698,7 @@
         <v>: ,</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q27" s="1" t="str">
@@ -20742,7 +20742,7 @@
         <v>: ,</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q28" s="1" t="str">
@@ -20786,7 +20786,7 @@
         <v>: ,</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q29" s="1" t="str">
@@ -20830,7 +20830,7 @@
         <v>: ,</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q30" s="1" t="str">
@@ -20874,7 +20874,7 @@
         <v>: ,</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q31" s="1" t="str">
@@ -20918,7 +20918,7 @@
         <v>: ,</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q32" s="1" t="str">
@@ -20962,7 +20962,7 @@
         <v>: ,</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q33" s="1" t="str">
@@ -21006,7 +21006,7 @@
         <v>: ,</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q34" s="1" t="str">
@@ -21050,7 +21050,7 @@
         <v>: ,</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q35" s="1" t="str">
@@ -21094,7 +21094,7 @@
         <v>: ,</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q36" s="1" t="str">
@@ -21138,7 +21138,7 @@
         <v>: ,</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q37" s="1" t="str">
@@ -21182,7 +21182,7 @@
         <v>: ,</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q38" s="1" t="str">
@@ -21226,7 +21226,7 @@
         <v>: ,</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q39" s="1" t="str">
@@ -21270,7 +21270,7 @@
         <v>: ,</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q40" s="1" t="str">
@@ -21314,7 +21314,7 @@
         <v>: ,</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q41" s="1" t="str">
@@ -21358,7 +21358,7 @@
         <v>: ,</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q42" s="1" t="str">
@@ -21402,7 +21402,7 @@
         <v>: ,</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q43" s="1" t="str">
@@ -21446,7 +21446,7 @@
         <v>: ,</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q44" s="1" t="str">
@@ -21490,7 +21490,7 @@
         <v>: ,</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q45" s="1" t="str">
@@ -21534,7 +21534,7 @@
         <v>: ,</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> ,</v>
       </c>
       <c r="Q46" s="1" t="str">
